--- a/UNDER DEVELOPMENT/ADMIN DOCUMENTS TTPs OPAR 2.0/AUTHENTICATION TABLE.xlsx
+++ b/UNDER DEVELOPMENT/ADMIN DOCUMENTS TTPs OPAR 2.0/AUTHENTICATION TABLE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="20730" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="AET-100 (2)" sheetId="6" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1984" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1984" uniqueCount="245">
   <si>
     <t>A</t>
   </si>
@@ -745,9 +745,6 @@
   </si>
   <si>
     <t>TAT=Transmission Authentication Table</t>
-  </si>
-  <si>
-    <t>Version 2.0</t>
   </si>
   <si>
     <t>OPAR CONFIDENTIAL</t>
@@ -1226,108 +1223,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1376,9 +1271,6 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1388,10 +1280,115 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1689,19 +1686,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28574</xdr:colOff>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>292113</xdr:colOff>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>167631</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Bilde 1" descr="OPAR CJTF_82_Logo.png"/>
+        <xdr:cNvPr id="3" name="Bilde 2" descr="OPAR CJTF_82_Logo.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1715,8 +1712,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="714374" y="0"/>
-          <a:ext cx="635014" cy="571500"/>
+          <a:off x="838200" y="0"/>
+          <a:ext cx="581025" cy="615306"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2015,7 +2012,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AL40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
@@ -2047,44 +2044,44 @@
   <sheetData>
     <row r="1" spans="1:38" ht="46.5">
       <c r="A1" s="29"/>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="50"/>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="50"/>
-      <c r="AI1" s="50"/>
-      <c r="AJ1" s="50"/>
-      <c r="AK1" s="50"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="73"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="73"/>
+      <c r="AD1" s="73"/>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="73"/>
+      <c r="AG1" s="73"/>
+      <c r="AH1" s="73"/>
+      <c r="AI1" s="73"/>
+      <c r="AJ1" s="73"/>
+      <c r="AK1" s="73"/>
       <c r="AL1" s="30"/>
     </row>
     <row r="2" spans="1:38" ht="26.25">
@@ -2115,18 +2112,18 @@
       <c r="Y2" s="33"/>
       <c r="Z2" s="33"/>
       <c r="AA2" s="33"/>
-      <c r="AB2" s="51" t="s">
-        <v>244</v>
-      </c>
-      <c r="AC2" s="51"/>
-      <c r="AD2" s="51"/>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="51"/>
-      <c r="AG2" s="51"/>
-      <c r="AH2" s="51"/>
-      <c r="AI2" s="51"/>
-      <c r="AJ2" s="51"/>
-      <c r="AK2" s="51"/>
+      <c r="AB2" s="74" t="s">
+        <v>243</v>
+      </c>
+      <c r="AC2" s="74"/>
+      <c r="AD2" s="74"/>
+      <c r="AE2" s="74"/>
+      <c r="AF2" s="74"/>
+      <c r="AG2" s="74"/>
+      <c r="AH2" s="74"/>
+      <c r="AI2" s="74"/>
+      <c r="AJ2" s="74"/>
+      <c r="AK2" s="74"/>
       <c r="AL2" s="34"/>
     </row>
     <row r="3" spans="1:38" ht="23.25">
@@ -2828,61 +2825,61 @@
     <row r="11" spans="1:38" ht="23.25">
       <c r="A11" s="31"/>
       <c r="B11" s="40"/>
-      <c r="C11" s="48">
+      <c r="C11" s="75">
         <v>5</v>
       </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
       <c r="F11" s="40"/>
-      <c r="G11" s="48">
+      <c r="G11" s="75">
         <v>7</v>
       </c>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="75"/>
       <c r="J11" s="40"/>
-      <c r="K11" s="48">
+      <c r="K11" s="75">
         <v>2</v>
       </c>
-      <c r="L11" s="48"/>
+      <c r="L11" s="75"/>
       <c r="M11" s="40"/>
-      <c r="N11" s="48">
+      <c r="N11" s="75">
         <v>3</v>
       </c>
-      <c r="O11" s="48"/>
+      <c r="O11" s="75"/>
       <c r="P11" s="40"/>
-      <c r="Q11" s="48">
+      <c r="Q11" s="75">
         <v>4</v>
       </c>
-      <c r="R11" s="48"/>
+      <c r="R11" s="75"/>
       <c r="S11" s="40"/>
-      <c r="T11" s="48">
+      <c r="T11" s="75">
         <v>1</v>
       </c>
-      <c r="U11" s="48"/>
-      <c r="V11" s="48"/>
+      <c r="U11" s="75"/>
+      <c r="V11" s="75"/>
       <c r="W11" s="40"/>
-      <c r="X11" s="48">
+      <c r="X11" s="75">
         <v>6</v>
       </c>
-      <c r="Y11" s="48"/>
-      <c r="Z11" s="48"/>
+      <c r="Y11" s="75"/>
+      <c r="Z11" s="75"/>
       <c r="AA11" s="40"/>
-      <c r="AB11" s="48">
+      <c r="AB11" s="75">
         <v>0</v>
       </c>
-      <c r="AC11" s="48"/>
-      <c r="AD11" s="48"/>
+      <c r="AC11" s="75"/>
+      <c r="AD11" s="75"/>
       <c r="AE11" s="40"/>
-      <c r="AF11" s="48">
+      <c r="AF11" s="75">
         <v>8</v>
       </c>
-      <c r="AG11" s="48"/>
+      <c r="AG11" s="75"/>
       <c r="AH11" s="40"/>
-      <c r="AI11" s="48">
+      <c r="AI11" s="75">
         <v>9</v>
       </c>
-      <c r="AJ11" s="48"/>
-      <c r="AK11" s="48"/>
+      <c r="AJ11" s="75"/>
+      <c r="AK11" s="75"/>
       <c r="AL11" s="41"/>
     </row>
     <row r="12" spans="1:38" ht="23.25">
@@ -3452,61 +3449,61 @@
     <row r="18" spans="1:38" ht="23.25">
       <c r="A18" s="31"/>
       <c r="B18" s="36"/>
-      <c r="C18" s="48">
+      <c r="C18" s="75">
         <v>5</v>
       </c>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
       <c r="F18" s="40"/>
-      <c r="G18" s="48">
+      <c r="G18" s="75">
         <v>7</v>
       </c>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
       <c r="J18" s="40"/>
-      <c r="K18" s="48">
+      <c r="K18" s="75">
         <v>2</v>
       </c>
-      <c r="L18" s="48"/>
+      <c r="L18" s="75"/>
       <c r="M18" s="40"/>
-      <c r="N18" s="48">
+      <c r="N18" s="75">
         <v>3</v>
       </c>
-      <c r="O18" s="48"/>
+      <c r="O18" s="75"/>
       <c r="P18" s="40"/>
-      <c r="Q18" s="48">
+      <c r="Q18" s="75">
         <v>4</v>
       </c>
-      <c r="R18" s="48"/>
+      <c r="R18" s="75"/>
       <c r="S18" s="40"/>
-      <c r="T18" s="48">
+      <c r="T18" s="75">
         <v>1</v>
       </c>
-      <c r="U18" s="48"/>
-      <c r="V18" s="48"/>
+      <c r="U18" s="75"/>
+      <c r="V18" s="75"/>
       <c r="W18" s="40"/>
-      <c r="X18" s="48">
+      <c r="X18" s="75">
         <v>6</v>
       </c>
-      <c r="Y18" s="48"/>
-      <c r="Z18" s="48"/>
+      <c r="Y18" s="75"/>
+      <c r="Z18" s="75"/>
       <c r="AA18" s="40"/>
-      <c r="AB18" s="48">
+      <c r="AB18" s="75">
         <v>0</v>
       </c>
-      <c r="AC18" s="48"/>
-      <c r="AD18" s="48"/>
+      <c r="AC18" s="75"/>
+      <c r="AD18" s="75"/>
       <c r="AE18" s="40"/>
-      <c r="AF18" s="48">
+      <c r="AF18" s="75">
         <v>8</v>
       </c>
-      <c r="AG18" s="48"/>
+      <c r="AG18" s="75"/>
       <c r="AH18" s="40"/>
-      <c r="AI18" s="48">
+      <c r="AI18" s="75">
         <v>9</v>
       </c>
-      <c r="AJ18" s="48"/>
-      <c r="AK18" s="48"/>
+      <c r="AJ18" s="75"/>
+      <c r="AK18" s="75"/>
       <c r="AL18" s="41"/>
     </row>
     <row r="19" spans="1:38" ht="23.25">
@@ -4076,61 +4073,61 @@
     <row r="25" spans="1:38" ht="23.25">
       <c r="A25" s="31"/>
       <c r="B25" s="36"/>
-      <c r="C25" s="48">
+      <c r="C25" s="75">
         <v>5</v>
       </c>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="75"/>
       <c r="F25" s="40"/>
-      <c r="G25" s="48">
+      <c r="G25" s="75">
         <v>7</v>
       </c>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="75"/>
       <c r="J25" s="40"/>
-      <c r="K25" s="48">
+      <c r="K25" s="75">
         <v>2</v>
       </c>
-      <c r="L25" s="48"/>
+      <c r="L25" s="75"/>
       <c r="M25" s="40"/>
-      <c r="N25" s="48">
+      <c r="N25" s="75">
         <v>3</v>
       </c>
-      <c r="O25" s="48"/>
+      <c r="O25" s="75"/>
       <c r="P25" s="40"/>
-      <c r="Q25" s="48">
+      <c r="Q25" s="75">
         <v>4</v>
       </c>
-      <c r="R25" s="48"/>
+      <c r="R25" s="75"/>
       <c r="S25" s="40"/>
-      <c r="T25" s="48">
+      <c r="T25" s="75">
         <v>1</v>
       </c>
-      <c r="U25" s="48"/>
-      <c r="V25" s="48"/>
+      <c r="U25" s="75"/>
+      <c r="V25" s="75"/>
       <c r="W25" s="40"/>
-      <c r="X25" s="48">
+      <c r="X25" s="75">
         <v>6</v>
       </c>
-      <c r="Y25" s="48"/>
-      <c r="Z25" s="48"/>
+      <c r="Y25" s="75"/>
+      <c r="Z25" s="75"/>
       <c r="AA25" s="40"/>
-      <c r="AB25" s="48">
+      <c r="AB25" s="75">
         <v>0</v>
       </c>
-      <c r="AC25" s="48"/>
-      <c r="AD25" s="48"/>
+      <c r="AC25" s="75"/>
+      <c r="AD25" s="75"/>
       <c r="AE25" s="40"/>
-      <c r="AF25" s="48">
+      <c r="AF25" s="75">
         <v>8</v>
       </c>
-      <c r="AG25" s="48"/>
+      <c r="AG25" s="75"/>
       <c r="AH25" s="40"/>
-      <c r="AI25" s="48">
+      <c r="AI25" s="75">
         <v>9</v>
       </c>
-      <c r="AJ25" s="48"/>
-      <c r="AK25" s="48"/>
+      <c r="AJ25" s="75"/>
+      <c r="AK25" s="75"/>
       <c r="AL25" s="41"/>
     </row>
     <row r="26" spans="1:38" ht="23.25">
@@ -4834,103 +4831,103 @@
     <row r="34" spans="1:38" ht="23.25">
       <c r="A34" s="31"/>
       <c r="B34" s="42"/>
-      <c r="C34" s="48">
+      <c r="C34" s="75">
         <v>0</v>
       </c>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="75"/>
       <c r="F34" s="40"/>
-      <c r="G34" s="48">
+      <c r="G34" s="75">
         <v>1</v>
       </c>
-      <c r="H34" s="48"/>
-      <c r="I34" s="48"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="75"/>
       <c r="J34" s="40"/>
-      <c r="K34" s="48">
+      <c r="K34" s="75">
         <v>2</v>
       </c>
-      <c r="L34" s="48"/>
+      <c r="L34" s="75"/>
       <c r="M34" s="40"/>
-      <c r="N34" s="48">
+      <c r="N34" s="75">
         <v>3</v>
       </c>
-      <c r="O34" s="48"/>
+      <c r="O34" s="75"/>
       <c r="P34" s="40"/>
-      <c r="Q34" s="48">
+      <c r="Q34" s="75">
         <v>4</v>
       </c>
-      <c r="R34" s="48"/>
+      <c r="R34" s="75"/>
       <c r="S34" s="40"/>
-      <c r="T34" s="48">
+      <c r="T34" s="75">
         <v>5</v>
       </c>
-      <c r="U34" s="48"/>
-      <c r="V34" s="48"/>
+      <c r="U34" s="75"/>
+      <c r="V34" s="75"/>
       <c r="W34" s="40"/>
-      <c r="X34" s="48">
+      <c r="X34" s="75">
         <v>6</v>
       </c>
-      <c r="Y34" s="48"/>
-      <c r="Z34" s="48"/>
+      <c r="Y34" s="75"/>
+      <c r="Z34" s="75"/>
       <c r="AA34" s="40"/>
-      <c r="AB34" s="48">
+      <c r="AB34" s="75">
         <v>7</v>
       </c>
-      <c r="AC34" s="48"/>
-      <c r="AD34" s="48"/>
+      <c r="AC34" s="75"/>
+      <c r="AD34" s="75"/>
       <c r="AE34" s="40"/>
-      <c r="AF34" s="48">
+      <c r="AF34" s="75">
         <v>8</v>
       </c>
-      <c r="AG34" s="48"/>
+      <c r="AG34" s="75"/>
       <c r="AH34" s="40"/>
-      <c r="AI34" s="48">
+      <c r="AI34" s="75">
         <v>9</v>
       </c>
-      <c r="AJ34" s="48"/>
-      <c r="AK34" s="48"/>
+      <c r="AJ34" s="75"/>
+      <c r="AK34" s="75"/>
       <c r="AL34" s="41"/>
     </row>
     <row r="35" spans="1:38" ht="26.25">
       <c r="A35" s="31"/>
-      <c r="B35" s="49" t="s">
-        <v>243</v>
-      </c>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="49"/>
-      <c r="L35" s="49"/>
-      <c r="M35" s="49"/>
-      <c r="N35" s="49"/>
-      <c r="O35" s="49"/>
-      <c r="P35" s="49"/>
-      <c r="Q35" s="49"/>
-      <c r="R35" s="49"/>
-      <c r="S35" s="49"/>
-      <c r="T35" s="49"/>
-      <c r="U35" s="49"/>
-      <c r="V35" s="49"/>
-      <c r="W35" s="49"/>
-      <c r="X35" s="49"/>
-      <c r="Y35" s="49"/>
-      <c r="Z35" s="49"/>
-      <c r="AA35" s="49"/>
-      <c r="AB35" s="49"/>
-      <c r="AC35" s="49"/>
-      <c r="AD35" s="49"/>
-      <c r="AE35" s="49"/>
-      <c r="AF35" s="49"/>
-      <c r="AG35" s="49"/>
-      <c r="AH35" s="49"/>
-      <c r="AI35" s="49"/>
-      <c r="AJ35" s="49"/>
-      <c r="AK35" s="49"/>
+      <c r="B35" s="76" t="s">
+        <v>242</v>
+      </c>
+      <c r="C35" s="76"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="76"/>
+      <c r="F35" s="76"/>
+      <c r="G35" s="76"/>
+      <c r="H35" s="76"/>
+      <c r="I35" s="76"/>
+      <c r="J35" s="76"/>
+      <c r="K35" s="76"/>
+      <c r="L35" s="76"/>
+      <c r="M35" s="76"/>
+      <c r="N35" s="76"/>
+      <c r="O35" s="76"/>
+      <c r="P35" s="76"/>
+      <c r="Q35" s="76"/>
+      <c r="R35" s="76"/>
+      <c r="S35" s="76"/>
+      <c r="T35" s="76"/>
+      <c r="U35" s="76"/>
+      <c r="V35" s="76"/>
+      <c r="W35" s="76"/>
+      <c r="X35" s="76"/>
+      <c r="Y35" s="76"/>
+      <c r="Z35" s="76"/>
+      <c r="AA35" s="76"/>
+      <c r="AB35" s="76"/>
+      <c r="AC35" s="76"/>
+      <c r="AD35" s="76"/>
+      <c r="AE35" s="76"/>
+      <c r="AF35" s="76"/>
+      <c r="AG35" s="76"/>
+      <c r="AH35" s="76"/>
+      <c r="AI35" s="76"/>
+      <c r="AJ35" s="76"/>
+      <c r="AK35" s="76"/>
       <c r="AL35" s="43"/>
     </row>
     <row r="36" spans="1:38">
@@ -5135,33 +5132,6 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B1:AK1"/>
-    <mergeCell ref="AB2:AK2"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="X11:Z11"/>
-    <mergeCell ref="AB11:AD11"/>
-    <mergeCell ref="AF11:AG11"/>
-    <mergeCell ref="AI11:AK11"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="T18:V18"/>
-    <mergeCell ref="X18:Z18"/>
-    <mergeCell ref="AB18:AD18"/>
-    <mergeCell ref="AF18:AG18"/>
-    <mergeCell ref="AI18:AK18"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="Q25:R25"/>
     <mergeCell ref="T25:V25"/>
     <mergeCell ref="B35:AK35"/>
     <mergeCell ref="X25:Z25"/>
@@ -5178,6 +5148,33 @@
     <mergeCell ref="AB34:AD34"/>
     <mergeCell ref="AF34:AG34"/>
     <mergeCell ref="AI34:AK34"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="X18:Z18"/>
+    <mergeCell ref="AB18:AD18"/>
+    <mergeCell ref="AF18:AG18"/>
+    <mergeCell ref="AI18:AK18"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="B1:AK1"/>
+    <mergeCell ref="AB2:AK2"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="X11:Z11"/>
+    <mergeCell ref="AB11:AD11"/>
+    <mergeCell ref="AF11:AG11"/>
+    <mergeCell ref="AI11:AK11"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -5218,44 +5215,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="21">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="59"/>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="59"/>
-      <c r="AJ1" s="60"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
+      <c r="W1" s="83"/>
+      <c r="X1" s="83"/>
+      <c r="Y1" s="83"/>
+      <c r="Z1" s="83"/>
+      <c r="AA1" s="83"/>
+      <c r="AB1" s="83"/>
+      <c r="AC1" s="83"/>
+      <c r="AD1" s="83"/>
+      <c r="AE1" s="83"/>
+      <c r="AF1" s="83"/>
+      <c r="AG1" s="83"/>
+      <c r="AH1" s="83"/>
+      <c r="AI1" s="83"/>
+      <c r="AJ1" s="84"/>
     </row>
     <row r="2" spans="1:38" ht="15.75">
       <c r="A2" s="4" t="s">
@@ -5286,18 +5283,18 @@
       <c r="X2" s="16"/>
       <c r="Y2" s="16"/>
       <c r="Z2" s="16"/>
-      <c r="AA2" s="61" t="s">
+      <c r="AA2" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="AB2" s="61"/>
-      <c r="AC2" s="61"/>
-      <c r="AD2" s="61"/>
-      <c r="AE2" s="61"/>
-      <c r="AF2" s="61"/>
-      <c r="AG2" s="61"/>
-      <c r="AH2" s="61"/>
-      <c r="AI2" s="61"/>
-      <c r="AJ2" s="62"/>
+      <c r="AB2" s="85"/>
+      <c r="AC2" s="85"/>
+      <c r="AD2" s="85"/>
+      <c r="AE2" s="85"/>
+      <c r="AF2" s="85"/>
+      <c r="AG2" s="85"/>
+      <c r="AH2" s="85"/>
+      <c r="AI2" s="85"/>
+      <c r="AJ2" s="86"/>
     </row>
     <row r="3" spans="1:38" ht="15.75">
       <c r="A3" s="8"/>
@@ -5611,7 +5608,7 @@
         <v>5</v>
       </c>
       <c r="AL6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="9.9499999999999993" customHeight="1">
@@ -5984,61 +5981,61 @@
     </row>
     <row r="11" spans="1:38" ht="15.75">
       <c r="A11" s="12"/>
-      <c r="B11" s="52">
+      <c r="B11" s="77">
         <v>0</v>
       </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="52">
+      <c r="F11" s="77">
         <v>1</v>
       </c>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="52">
+      <c r="J11" s="77">
         <v>2</v>
       </c>
-      <c r="K11" s="52"/>
+      <c r="K11" s="77"/>
       <c r="L11" s="6"/>
-      <c r="M11" s="52">
+      <c r="M11" s="77">
         <v>3</v>
       </c>
-      <c r="N11" s="52"/>
+      <c r="N11" s="77"/>
       <c r="O11" s="6"/>
-      <c r="P11" s="52">
+      <c r="P11" s="77">
         <v>4</v>
       </c>
-      <c r="Q11" s="52"/>
+      <c r="Q11" s="77"/>
       <c r="R11" s="6"/>
-      <c r="S11" s="52">
+      <c r="S11" s="77">
         <v>5</v>
       </c>
-      <c r="T11" s="52"/>
-      <c r="U11" s="52"/>
+      <c r="T11" s="77"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="6"/>
-      <c r="W11" s="52">
+      <c r="W11" s="77">
         <v>6</v>
       </c>
-      <c r="X11" s="52"/>
-      <c r="Y11" s="52"/>
+      <c r="X11" s="77"/>
+      <c r="Y11" s="77"/>
       <c r="Z11" s="6"/>
-      <c r="AA11" s="52">
+      <c r="AA11" s="77">
         <v>7</v>
       </c>
-      <c r="AB11" s="52"/>
-      <c r="AC11" s="52"/>
+      <c r="AB11" s="77"/>
+      <c r="AC11" s="77"/>
       <c r="AD11" s="6"/>
-      <c r="AE11" s="52">
+      <c r="AE11" s="77">
         <v>8</v>
       </c>
-      <c r="AF11" s="52"/>
+      <c r="AF11" s="77"/>
       <c r="AG11" s="6"/>
-      <c r="AH11" s="52">
+      <c r="AH11" s="77">
         <v>9</v>
       </c>
-      <c r="AI11" s="52"/>
-      <c r="AJ11" s="57"/>
+      <c r="AI11" s="77"/>
+      <c r="AJ11" s="78"/>
     </row>
     <row r="12" spans="1:38" ht="9.9499999999999993" customHeight="1">
       <c r="A12" s="20" t="s">
@@ -6595,61 +6592,61 @@
     </row>
     <row r="18" spans="1:37" ht="15.75">
       <c r="A18" s="10"/>
-      <c r="B18" s="52">
+      <c r="B18" s="77">
         <v>0</v>
       </c>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="52">
+      <c r="F18" s="77">
         <v>1</v>
       </c>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="77"/>
       <c r="I18" s="6"/>
-      <c r="J18" s="52">
+      <c r="J18" s="77">
         <v>2</v>
       </c>
-      <c r="K18" s="52"/>
+      <c r="K18" s="77"/>
       <c r="L18" s="6"/>
-      <c r="M18" s="52">
+      <c r="M18" s="77">
         <v>3</v>
       </c>
-      <c r="N18" s="52"/>
+      <c r="N18" s="77"/>
       <c r="O18" s="6"/>
-      <c r="P18" s="52">
+      <c r="P18" s="77">
         <v>4</v>
       </c>
-      <c r="Q18" s="52"/>
+      <c r="Q18" s="77"/>
       <c r="R18" s="6"/>
-      <c r="S18" s="52">
+      <c r="S18" s="77">
         <v>5</v>
       </c>
-      <c r="T18" s="52"/>
-      <c r="U18" s="52"/>
+      <c r="T18" s="77"/>
+      <c r="U18" s="77"/>
       <c r="V18" s="6"/>
-      <c r="W18" s="52">
+      <c r="W18" s="77">
         <v>6</v>
       </c>
-      <c r="X18" s="52"/>
-      <c r="Y18" s="52"/>
+      <c r="X18" s="77"/>
+      <c r="Y18" s="77"/>
       <c r="Z18" s="6"/>
-      <c r="AA18" s="52">
+      <c r="AA18" s="77">
         <v>7</v>
       </c>
-      <c r="AB18" s="52"/>
-      <c r="AC18" s="52"/>
+      <c r="AB18" s="77"/>
+      <c r="AC18" s="77"/>
       <c r="AD18" s="6"/>
-      <c r="AE18" s="52">
+      <c r="AE18" s="77">
         <v>8</v>
       </c>
-      <c r="AF18" s="52"/>
+      <c r="AF18" s="77"/>
       <c r="AG18" s="6"/>
-      <c r="AH18" s="52">
+      <c r="AH18" s="77">
         <v>9</v>
       </c>
-      <c r="AI18" s="52"/>
-      <c r="AJ18" s="57"/>
+      <c r="AI18" s="77"/>
+      <c r="AJ18" s="78"/>
     </row>
     <row r="19" spans="1:37" ht="9.9499999999999993" customHeight="1">
       <c r="A19" s="10" t="s">
@@ -7205,61 +7202,61 @@
     </row>
     <row r="25" spans="1:37" ht="15.75">
       <c r="A25" s="10"/>
-      <c r="B25" s="52">
+      <c r="B25" s="77">
         <v>0</v>
       </c>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="77"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="52">
+      <c r="F25" s="77">
         <v>1</v>
       </c>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="77"/>
       <c r="I25" s="6"/>
-      <c r="J25" s="52">
+      <c r="J25" s="77">
         <v>2</v>
       </c>
-      <c r="K25" s="52"/>
+      <c r="K25" s="77"/>
       <c r="L25" s="6"/>
-      <c r="M25" s="52">
+      <c r="M25" s="77">
         <v>3</v>
       </c>
-      <c r="N25" s="52"/>
+      <c r="N25" s="77"/>
       <c r="O25" s="6"/>
-      <c r="P25" s="52">
+      <c r="P25" s="77">
         <v>4</v>
       </c>
-      <c r="Q25" s="52"/>
+      <c r="Q25" s="77"/>
       <c r="R25" s="6"/>
-      <c r="S25" s="52">
+      <c r="S25" s="77">
         <v>5</v>
       </c>
-      <c r="T25" s="52"/>
-      <c r="U25" s="52"/>
+      <c r="T25" s="77"/>
+      <c r="U25" s="77"/>
       <c r="V25" s="6"/>
-      <c r="W25" s="52">
+      <c r="W25" s="77">
         <v>6</v>
       </c>
-      <c r="X25" s="52"/>
-      <c r="Y25" s="52"/>
+      <c r="X25" s="77"/>
+      <c r="Y25" s="77"/>
       <c r="Z25" s="6"/>
-      <c r="AA25" s="52">
+      <c r="AA25" s="77">
         <v>7</v>
       </c>
-      <c r="AB25" s="52"/>
-      <c r="AC25" s="52"/>
+      <c r="AB25" s="77"/>
+      <c r="AC25" s="77"/>
       <c r="AD25" s="6"/>
-      <c r="AE25" s="52">
+      <c r="AE25" s="77">
         <v>8</v>
       </c>
-      <c r="AF25" s="52"/>
+      <c r="AF25" s="77"/>
       <c r="AG25" s="6"/>
-      <c r="AH25" s="52">
+      <c r="AH25" s="77">
         <v>9</v>
       </c>
-      <c r="AI25" s="52"/>
-      <c r="AJ25" s="57"/>
+      <c r="AI25" s="77"/>
+      <c r="AJ25" s="78"/>
     </row>
     <row r="26" spans="1:37" ht="9.9499999999999993" customHeight="1">
       <c r="A26" s="10" t="s">
@@ -7907,217 +7904,217 @@
     </row>
     <row r="33" spans="1:36">
       <c r="A33" s="15"/>
-      <c r="B33" s="52">
+      <c r="B33" s="77">
         <v>0</v>
       </c>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
+      <c r="C33" s="77"/>
+      <c r="D33" s="77"/>
       <c r="E33" s="6"/>
-      <c r="F33" s="52">
+      <c r="F33" s="77">
         <v>1</v>
       </c>
-      <c r="G33" s="52"/>
-      <c r="H33" s="52"/>
+      <c r="G33" s="77"/>
+      <c r="H33" s="77"/>
       <c r="I33" s="6"/>
-      <c r="J33" s="52">
+      <c r="J33" s="77">
         <v>2</v>
       </c>
-      <c r="K33" s="52"/>
+      <c r="K33" s="77"/>
       <c r="L33" s="6"/>
-      <c r="M33" s="52">
+      <c r="M33" s="77">
         <v>3</v>
       </c>
-      <c r="N33" s="52"/>
+      <c r="N33" s="77"/>
       <c r="O33" s="6"/>
-      <c r="P33" s="52">
+      <c r="P33" s="77">
         <v>4</v>
       </c>
-      <c r="Q33" s="52"/>
+      <c r="Q33" s="77"/>
       <c r="R33" s="6"/>
-      <c r="S33" s="52">
+      <c r="S33" s="77">
         <v>5</v>
       </c>
-      <c r="T33" s="52"/>
-      <c r="U33" s="52"/>
+      <c r="T33" s="77"/>
+      <c r="U33" s="77"/>
       <c r="V33" s="6"/>
-      <c r="W33" s="52">
+      <c r="W33" s="77">
         <v>6</v>
       </c>
-      <c r="X33" s="52"/>
-      <c r="Y33" s="52"/>
+      <c r="X33" s="77"/>
+      <c r="Y33" s="77"/>
       <c r="Z33" s="6"/>
-      <c r="AA33" s="52">
+      <c r="AA33" s="77">
         <v>7</v>
       </c>
-      <c r="AB33" s="52"/>
-      <c r="AC33" s="52"/>
+      <c r="AB33" s="77"/>
+      <c r="AC33" s="77"/>
       <c r="AD33" s="6"/>
-      <c r="AE33" s="52">
+      <c r="AE33" s="77">
         <v>8</v>
       </c>
-      <c r="AF33" s="52"/>
+      <c r="AF33" s="77"/>
       <c r="AG33" s="6"/>
-      <c r="AH33" s="52">
+      <c r="AH33" s="77">
         <v>9</v>
       </c>
-      <c r="AI33" s="52"/>
-      <c r="AJ33" s="57"/>
+      <c r="AI33" s="77"/>
+      <c r="AJ33" s="78"/>
     </row>
     <row r="34" spans="1:36">
-      <c r="A34" s="63" t="s">
+      <c r="A34" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="64"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="64"/>
-      <c r="H34" s="64"/>
-      <c r="I34" s="64"/>
-      <c r="J34" s="64"/>
-      <c r="K34" s="64"/>
-      <c r="L34" s="64"/>
-      <c r="M34" s="64"/>
-      <c r="N34" s="64"/>
-      <c r="O34" s="64"/>
-      <c r="P34" s="64"/>
-      <c r="Q34" s="64"/>
-      <c r="R34" s="64"/>
-      <c r="S34" s="64"/>
-      <c r="T34" s="64"/>
-      <c r="U34" s="64"/>
-      <c r="V34" s="64"/>
-      <c r="W34" s="64"/>
-      <c r="X34" s="64"/>
-      <c r="Y34" s="64"/>
-      <c r="Z34" s="64"/>
-      <c r="AA34" s="64"/>
-      <c r="AB34" s="64"/>
-      <c r="AC34" s="64"/>
-      <c r="AD34" s="64"/>
-      <c r="AE34" s="64"/>
-      <c r="AF34" s="64"/>
-      <c r="AG34" s="64"/>
-      <c r="AH34" s="64"/>
-      <c r="AI34" s="64"/>
-      <c r="AJ34" s="65"/>
+      <c r="B34" s="80"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="80"/>
+      <c r="E34" s="80"/>
+      <c r="F34" s="80"/>
+      <c r="G34" s="80"/>
+      <c r="H34" s="80"/>
+      <c r="I34" s="80"/>
+      <c r="J34" s="80"/>
+      <c r="K34" s="80"/>
+      <c r="L34" s="80"/>
+      <c r="M34" s="80"/>
+      <c r="N34" s="80"/>
+      <c r="O34" s="80"/>
+      <c r="P34" s="80"/>
+      <c r="Q34" s="80"/>
+      <c r="R34" s="80"/>
+      <c r="S34" s="80"/>
+      <c r="T34" s="80"/>
+      <c r="U34" s="80"/>
+      <c r="V34" s="80"/>
+      <c r="W34" s="80"/>
+      <c r="X34" s="80"/>
+      <c r="Y34" s="80"/>
+      <c r="Z34" s="80"/>
+      <c r="AA34" s="80"/>
+      <c r="AB34" s="80"/>
+      <c r="AC34" s="80"/>
+      <c r="AD34" s="80"/>
+      <c r="AE34" s="80"/>
+      <c r="AF34" s="80"/>
+      <c r="AG34" s="80"/>
+      <c r="AH34" s="80"/>
+      <c r="AI34" s="80"/>
+      <c r="AJ34" s="81"/>
     </row>
     <row r="35" spans="1:36" ht="15" customHeight="1">
-      <c r="A35" s="55" t="s">
+      <c r="A35" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="55"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="55"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="55"/>
-      <c r="I35" s="55"/>
-      <c r="J35" s="55"/>
-      <c r="K35" s="55"/>
-      <c r="L35" s="55"/>
-      <c r="M35" s="55"/>
-      <c r="N35" s="55"/>
-      <c r="O35" s="55"/>
-      <c r="P35" s="55"/>
-      <c r="Q35" s="55"/>
-      <c r="R35" s="55"/>
-      <c r="S35" s="55"/>
-      <c r="T35" s="55"/>
-      <c r="U35" s="55"/>
-      <c r="V35" s="55"/>
-      <c r="W35" s="55"/>
-      <c r="X35" s="55"/>
-      <c r="Y35" s="55"/>
-      <c r="Z35" s="55"/>
-      <c r="AA35" s="55"/>
-      <c r="AB35" s="55"/>
-      <c r="AC35" s="55"/>
-      <c r="AD35" s="55"/>
-      <c r="AE35" s="55"/>
-      <c r="AF35" s="55"/>
-      <c r="AG35" s="55"/>
-      <c r="AH35" s="55"/>
-      <c r="AI35" s="55"/>
-      <c r="AJ35" s="55"/>
+      <c r="B35" s="89"/>
+      <c r="C35" s="89"/>
+      <c r="D35" s="89"/>
+      <c r="E35" s="89"/>
+      <c r="F35" s="89"/>
+      <c r="G35" s="89"/>
+      <c r="H35" s="89"/>
+      <c r="I35" s="89"/>
+      <c r="J35" s="89"/>
+      <c r="K35" s="89"/>
+      <c r="L35" s="89"/>
+      <c r="M35" s="89"/>
+      <c r="N35" s="89"/>
+      <c r="O35" s="89"/>
+      <c r="P35" s="89"/>
+      <c r="Q35" s="89"/>
+      <c r="R35" s="89"/>
+      <c r="S35" s="89"/>
+      <c r="T35" s="89"/>
+      <c r="U35" s="89"/>
+      <c r="V35" s="89"/>
+      <c r="W35" s="89"/>
+      <c r="X35" s="89"/>
+      <c r="Y35" s="89"/>
+      <c r="Z35" s="89"/>
+      <c r="AA35" s="89"/>
+      <c r="AB35" s="89"/>
+      <c r="AC35" s="89"/>
+      <c r="AD35" s="89"/>
+      <c r="AE35" s="89"/>
+      <c r="AF35" s="89"/>
+      <c r="AG35" s="89"/>
+      <c r="AH35" s="89"/>
+      <c r="AI35" s="89"/>
+      <c r="AJ35" s="89"/>
     </row>
     <row r="36" spans="1:36">
-      <c r="A36" s="56"/>
-      <c r="B36" s="56"/>
-      <c r="C36" s="56"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="56"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="56"/>
-      <c r="J36" s="56"/>
-      <c r="K36" s="56"/>
-      <c r="L36" s="56"/>
-      <c r="M36" s="56"/>
-      <c r="N36" s="56"/>
-      <c r="O36" s="56"/>
-      <c r="P36" s="56"/>
-      <c r="Q36" s="56"/>
-      <c r="R36" s="56"/>
-      <c r="S36" s="56"/>
-      <c r="T36" s="56"/>
-      <c r="U36" s="56"/>
-      <c r="V36" s="56"/>
-      <c r="W36" s="56"/>
-      <c r="X36" s="56"/>
-      <c r="Y36" s="56"/>
-      <c r="Z36" s="56"/>
-      <c r="AA36" s="56"/>
-      <c r="AB36" s="56"/>
-      <c r="AC36" s="56"/>
-      <c r="AD36" s="56"/>
-      <c r="AE36" s="56"/>
-      <c r="AF36" s="56"/>
-      <c r="AG36" s="56"/>
-      <c r="AH36" s="56"/>
-      <c r="AI36" s="56"/>
-      <c r="AJ36" s="56"/>
+      <c r="A36" s="90"/>
+      <c r="B36" s="90"/>
+      <c r="C36" s="90"/>
+      <c r="D36" s="90"/>
+      <c r="E36" s="90"/>
+      <c r="F36" s="90"/>
+      <c r="G36" s="90"/>
+      <c r="H36" s="90"/>
+      <c r="I36" s="90"/>
+      <c r="J36" s="90"/>
+      <c r="K36" s="90"/>
+      <c r="L36" s="90"/>
+      <c r="M36" s="90"/>
+      <c r="N36" s="90"/>
+      <c r="O36" s="90"/>
+      <c r="P36" s="90"/>
+      <c r="Q36" s="90"/>
+      <c r="R36" s="90"/>
+      <c r="S36" s="90"/>
+      <c r="T36" s="90"/>
+      <c r="U36" s="90"/>
+      <c r="V36" s="90"/>
+      <c r="W36" s="90"/>
+      <c r="X36" s="90"/>
+      <c r="Y36" s="90"/>
+      <c r="Z36" s="90"/>
+      <c r="AA36" s="90"/>
+      <c r="AB36" s="90"/>
+      <c r="AC36" s="90"/>
+      <c r="AD36" s="90"/>
+      <c r="AE36" s="90"/>
+      <c r="AF36" s="90"/>
+      <c r="AG36" s="90"/>
+      <c r="AH36" s="90"/>
+      <c r="AI36" s="90"/>
+      <c r="AJ36" s="90"/>
     </row>
     <row r="37" spans="1:36">
-      <c r="A37" s="56"/>
-      <c r="B37" s="56"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="56"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="56"/>
-      <c r="J37" s="56"/>
-      <c r="K37" s="56"/>
-      <c r="L37" s="56"/>
-      <c r="M37" s="56"/>
-      <c r="N37" s="56"/>
-      <c r="O37" s="56"/>
-      <c r="P37" s="56"/>
-      <c r="Q37" s="56"/>
-      <c r="R37" s="56"/>
-      <c r="S37" s="56"/>
-      <c r="T37" s="56"/>
-      <c r="U37" s="56"/>
-      <c r="V37" s="56"/>
-      <c r="W37" s="56"/>
-      <c r="X37" s="56"/>
-      <c r="Y37" s="56"/>
-      <c r="Z37" s="56"/>
-      <c r="AA37" s="56"/>
-      <c r="AB37" s="56"/>
-      <c r="AC37" s="56"/>
-      <c r="AD37" s="56"/>
-      <c r="AE37" s="56"/>
-      <c r="AF37" s="56"/>
-      <c r="AG37" s="56"/>
-      <c r="AH37" s="56"/>
-      <c r="AI37" s="56"/>
-      <c r="AJ37" s="56"/>
+      <c r="A37" s="90"/>
+      <c r="B37" s="90"/>
+      <c r="C37" s="90"/>
+      <c r="D37" s="90"/>
+      <c r="E37" s="90"/>
+      <c r="F37" s="90"/>
+      <c r="G37" s="90"/>
+      <c r="H37" s="90"/>
+      <c r="I37" s="90"/>
+      <c r="J37" s="90"/>
+      <c r="K37" s="90"/>
+      <c r="L37" s="90"/>
+      <c r="M37" s="90"/>
+      <c r="N37" s="90"/>
+      <c r="O37" s="90"/>
+      <c r="P37" s="90"/>
+      <c r="Q37" s="90"/>
+      <c r="R37" s="90"/>
+      <c r="S37" s="90"/>
+      <c r="T37" s="90"/>
+      <c r="U37" s="90"/>
+      <c r="V37" s="90"/>
+      <c r="W37" s="90"/>
+      <c r="X37" s="90"/>
+      <c r="Y37" s="90"/>
+      <c r="Z37" s="90"/>
+      <c r="AA37" s="90"/>
+      <c r="AB37" s="90"/>
+      <c r="AC37" s="90"/>
+      <c r="AD37" s="90"/>
+      <c r="AE37" s="90"/>
+      <c r="AF37" s="90"/>
+      <c r="AG37" s="90"/>
+      <c r="AH37" s="90"/>
+      <c r="AI37" s="90"/>
+      <c r="AJ37" s="90"/>
     </row>
     <row r="38" spans="1:36">
       <c r="O38" s="7"/>
@@ -8129,40 +8126,40 @@
       <c r="O39" s="22"/>
     </row>
     <row r="40" spans="1:36">
-      <c r="A40" s="54" t="s">
+      <c r="A40" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="54"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="54"/>
-      <c r="H40" s="54"/>
-      <c r="I40" s="54"/>
-      <c r="J40" s="54"/>
-      <c r="K40" s="54"/>
-      <c r="L40" s="54"/>
-      <c r="M40" s="54"/>
-      <c r="N40" s="54"/>
+      <c r="B40" s="88"/>
+      <c r="C40" s="88"/>
+      <c r="D40" s="88"/>
+      <c r="E40" s="88"/>
+      <c r="F40" s="88"/>
+      <c r="G40" s="88"/>
+      <c r="H40" s="88"/>
+      <c r="I40" s="88"/>
+      <c r="J40" s="88"/>
+      <c r="K40" s="88"/>
+      <c r="L40" s="88"/>
+      <c r="M40" s="88"/>
+      <c r="N40" s="88"/>
     </row>
     <row r="41" spans="1:36">
-      <c r="A41" s="53" t="s">
+      <c r="A41" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="53"/>
-      <c r="C41" s="53"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="53"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="53"/>
-      <c r="H41" s="53"/>
-      <c r="I41" s="53"/>
-      <c r="J41" s="53"/>
-      <c r="K41" s="53"/>
-      <c r="L41" s="53"/>
-      <c r="M41" s="53"/>
-      <c r="N41" s="53"/>
+      <c r="B41" s="87"/>
+      <c r="C41" s="87"/>
+      <c r="D41" s="87"/>
+      <c r="E41" s="87"/>
+      <c r="F41" s="87"/>
+      <c r="G41" s="87"/>
+      <c r="H41" s="87"/>
+      <c r="I41" s="87"/>
+      <c r="J41" s="87"/>
+      <c r="K41" s="87"/>
+      <c r="L41" s="87"/>
+      <c r="M41" s="87"/>
+      <c r="N41" s="87"/>
     </row>
     <row r="42" spans="1:36">
       <c r="A42" t="s">
@@ -8176,20 +8173,22 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="AE33:AF33"/>
-    <mergeCell ref="AH33:AJ33"/>
-    <mergeCell ref="A34:AJ34"/>
-    <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="AH25:AJ25"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="W33:Y33"/>
-    <mergeCell ref="AA33:AC33"/>
-    <mergeCell ref="AA25:AC25"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="A41:N41"/>
+    <mergeCell ref="A40:N40"/>
+    <mergeCell ref="A35:AJ37"/>
+    <mergeCell ref="W18:Y18"/>
+    <mergeCell ref="AA18:AC18"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="AH18:AJ18"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="W25:Y25"/>
     <mergeCell ref="F18:H18"/>
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="M18:N18"/>
@@ -8206,22 +8205,20 @@
     <mergeCell ref="AA11:AC11"/>
     <mergeCell ref="AE11:AF11"/>
     <mergeCell ref="AH11:AJ11"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="A41:N41"/>
-    <mergeCell ref="A40:N40"/>
-    <mergeCell ref="A35:AJ37"/>
-    <mergeCell ref="W18:Y18"/>
-    <mergeCell ref="AA18:AC18"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="AH18:AJ18"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="W25:Y25"/>
+    <mergeCell ref="AE33:AF33"/>
+    <mergeCell ref="AH33:AJ33"/>
+    <mergeCell ref="A34:AJ34"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="AH25:AJ25"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="W33:Y33"/>
+    <mergeCell ref="AA33:AC33"/>
+    <mergeCell ref="AA25:AC25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -8233,8 +8230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8264,248 +8261,248 @@
   <sheetData>
     <row r="1" spans="1:21" ht="35.25">
       <c r="A1" s="29"/>
-      <c r="B1" s="102" t="s">
+      <c r="B1" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="102"/>
-      <c r="O1" s="102"/>
-      <c r="P1" s="102"/>
-      <c r="Q1" s="102"/>
-      <c r="R1" s="102"/>
-      <c r="S1" s="102"/>
-      <c r="T1" s="103"/>
-      <c r="U1" s="104"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="69"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" thickBot="1">
       <c r="A2" s="31"/>
-      <c r="B2" s="105"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="105"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="70"/>
       <c r="F2" s="38"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="107"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="72"/>
       <c r="I2" s="38"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="107"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="72"/>
       <c r="L2" s="38"/>
       <c r="M2" s="38"/>
-      <c r="N2" s="107"/>
+      <c r="N2" s="72"/>
       <c r="O2" s="38"/>
-      <c r="P2" s="66" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
+      <c r="P2" s="92" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92"/>
+      <c r="S2" s="92"/>
       <c r="T2" s="38"/>
       <c r="U2" s="44"/>
     </row>
     <row r="3" spans="1:21" ht="18.75">
       <c r="A3" s="31"/>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="70" t="s">
+      <c r="C3" s="94"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="68"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="70" t="s">
+      <c r="F3" s="94"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="68"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="70" t="s">
+      <c r="I3" s="94"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="68"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="70" t="s">
+      <c r="L3" s="94"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="O3" s="68"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="70" t="s">
+      <c r="O3" s="94"/>
+      <c r="P3" s="95"/>
+      <c r="Q3" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="R3" s="68"/>
-      <c r="S3" s="71"/>
+      <c r="R3" s="94"/>
+      <c r="S3" s="97"/>
       <c r="T3" s="38"/>
       <c r="U3" s="44"/>
     </row>
     <row r="4" spans="1:21" ht="18.75">
       <c r="A4" s="31"/>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="75" t="s">
+      <c r="C4" s="99"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="75" t="s">
+      <c r="F4" s="99"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="73"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="75" t="s">
+      <c r="I4" s="99"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="98" t="s">
         <v>45</v>
       </c>
-      <c r="L4" s="73"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="75" t="s">
+      <c r="L4" s="99"/>
+      <c r="M4" s="102"/>
+      <c r="N4" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="O4" s="73"/>
-      <c r="P4" s="74"/>
-      <c r="Q4" s="75" t="s">
+      <c r="O4" s="99"/>
+      <c r="P4" s="102"/>
+      <c r="Q4" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="R4" s="73"/>
-      <c r="S4" s="76"/>
+      <c r="R4" s="99"/>
+      <c r="S4" s="100"/>
       <c r="T4" s="38"/>
       <c r="U4" s="44"/>
     </row>
     <row r="5" spans="1:21" ht="18.75">
       <c r="A5" s="31"/>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="75" t="s">
+      <c r="C5" s="99"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="98" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="73"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="75" t="s">
+      <c r="F5" s="99"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="I5" s="73"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="75" t="s">
+      <c r="I5" s="99"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="98" t="s">
         <v>51</v>
       </c>
-      <c r="L5" s="73"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="75" t="s">
+      <c r="L5" s="99"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="O5" s="73"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="75" t="s">
+      <c r="O5" s="99"/>
+      <c r="P5" s="102"/>
+      <c r="Q5" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="R5" s="73"/>
-      <c r="S5" s="76"/>
+      <c r="R5" s="99"/>
+      <c r="S5" s="100"/>
       <c r="T5" s="38"/>
       <c r="U5" s="44"/>
     </row>
     <row r="6" spans="1:21" ht="19.5" thickBot="1">
       <c r="A6" s="31"/>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="109" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="78"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="80" t="s">
+      <c r="C6" s="104"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="103" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="78"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="80" t="s">
+      <c r="F6" s="104"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="103" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="78"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="80" t="s">
+      <c r="I6" s="104"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="103" t="s">
         <v>57</v>
       </c>
-      <c r="L6" s="78"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="80" t="s">
+      <c r="L6" s="104"/>
+      <c r="M6" s="105"/>
+      <c r="N6" s="103" t="s">
         <v>58</v>
       </c>
-      <c r="O6" s="78"/>
-      <c r="P6" s="79"/>
-      <c r="Q6" s="80" t="s">
+      <c r="O6" s="104"/>
+      <c r="P6" s="105"/>
+      <c r="Q6" s="103" t="s">
         <v>59</v>
       </c>
-      <c r="R6" s="78"/>
-      <c r="S6" s="81"/>
+      <c r="R6" s="104"/>
+      <c r="S6" s="106"/>
       <c r="T6" s="38"/>
       <c r="U6" s="44"/>
     </row>
     <row r="7" spans="1:21" ht="18.75">
       <c r="A7" s="31"/>
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="84" t="s">
+      <c r="C7" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E7" s="85" t="s">
+      <c r="E7" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="F7" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" s="86" t="s">
+      <c r="F7" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="H7" s="87" t="s">
+      <c r="H7" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="J7" s="88" t="s">
+      <c r="I7" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" s="54" t="s">
         <v>222</v>
       </c>
-      <c r="K7" s="85" t="s">
+      <c r="K7" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="L7" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="M7" s="88" t="s">
+      <c r="L7" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="M7" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="N7" s="85" t="s">
+      <c r="N7" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="O7" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="P7" s="89" t="s">
+      <c r="O7" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="Q7" s="85" t="s">
+      <c r="Q7" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="R7" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="S7" s="90" t="s">
+      <c r="R7" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="S7" s="56" t="s">
         <v>111</v>
       </c>
       <c r="T7" s="38"/>
@@ -8513,58 +8510,58 @@
     </row>
     <row r="8" spans="1:21" ht="18.75">
       <c r="A8" s="31"/>
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="84" t="s">
+      <c r="C8" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="E8" s="85" t="s">
+      <c r="E8" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="F8" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" s="91" t="s">
+      <c r="F8" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="H8" s="87" t="s">
+      <c r="H8" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="I8" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="J8" s="88" t="s">
+      <c r="I8" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="J8" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="K8" s="85" t="s">
+      <c r="K8" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="L8" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="M8" s="88" t="s">
+      <c r="L8" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="M8" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="N8" s="85" t="s">
+      <c r="N8" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="O8" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="P8" s="88" t="s">
+      <c r="O8" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="Q8" s="85" t="s">
+      <c r="Q8" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="R8" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="S8" s="92" t="s">
+      <c r="R8" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="S8" s="58" t="s">
         <v>69</v>
       </c>
       <c r="T8" s="38"/>
@@ -8572,58 +8569,58 @@
     </row>
     <row r="9" spans="1:21" ht="18.75">
       <c r="A9" s="31"/>
-      <c r="B9" s="82" t="s">
+      <c r="B9" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="84" t="s">
+      <c r="C9" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="E9" s="85" t="s">
+      <c r="E9" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9" s="86" t="s">
+      <c r="F9" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="87" t="s">
+      <c r="H9" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="I9" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="J9" s="88" t="s">
+      <c r="I9" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="K9" s="85" t="s">
+      <c r="K9" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="L9" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="M9" s="89" t="s">
+      <c r="L9" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="M9" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="N9" s="85" t="s">
+      <c r="N9" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="O9" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="P9" s="88" t="s">
+      <c r="O9" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="Q9" s="85" t="s">
+      <c r="Q9" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="R9" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="S9" s="92" t="s">
+      <c r="R9" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="S9" s="58" t="s">
         <v>75</v>
       </c>
       <c r="T9" s="38"/>
@@ -8631,58 +8628,58 @@
     </row>
     <row r="10" spans="1:21" ht="18.75">
       <c r="A10" s="31"/>
-      <c r="B10" s="82" t="s">
+      <c r="B10" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="84" t="s">
+      <c r="C10" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="50" t="s">
         <v>185</v>
       </c>
-      <c r="E10" s="85" t="s">
+      <c r="E10" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="F10" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" s="86" t="s">
+      <c r="F10" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="H10" s="87" t="s">
+      <c r="H10" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="I10" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="J10" s="88" t="s">
+      <c r="I10" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="K10" s="85" t="s">
+      <c r="K10" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="L10" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="M10" s="88" t="s">
+      <c r="L10" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="M10" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="N10" s="85" t="s">
+      <c r="N10" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="O10" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="P10" s="88" t="s">
+      <c r="O10" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" s="54" t="s">
         <v>233</v>
       </c>
-      <c r="Q10" s="85" t="s">
+      <c r="Q10" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="R10" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="S10" s="92" t="s">
+      <c r="R10" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="S10" s="58" t="s">
         <v>81</v>
       </c>
       <c r="T10" s="38"/>
@@ -8690,58 +8687,58 @@
     </row>
     <row r="11" spans="1:21" ht="18.75">
       <c r="A11" s="31"/>
-      <c r="B11" s="82" t="s">
+      <c r="B11" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="84" t="s">
+      <c r="C11" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="E11" s="85" t="s">
+      <c r="E11" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="F11" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="86" t="s">
+      <c r="F11" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="H11" s="87" t="s">
+      <c r="H11" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="I11" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="J11" s="89" t="s">
+      <c r="I11" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="K11" s="85" t="s">
+      <c r="K11" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="L11" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="M11" s="88" t="s">
+      <c r="L11" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="M11" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="N11" s="85" t="s">
+      <c r="N11" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="O11" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="P11" s="88" t="s">
+      <c r="O11" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="Q11" s="85" t="s">
+      <c r="Q11" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="R11" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="S11" s="90" t="s">
+      <c r="R11" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="S11" s="56" t="s">
         <v>87</v>
       </c>
       <c r="T11" s="38"/>
@@ -8749,58 +8746,58 @@
     </row>
     <row r="12" spans="1:21" ht="18.75">
       <c r="A12" s="31"/>
-      <c r="B12" s="82" t="s">
+      <c r="B12" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="C12" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="84" t="s">
+      <c r="C12" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="85" t="s">
+      <c r="E12" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="F12" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12" s="86" t="s">
+      <c r="F12" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="52" t="s">
         <v>194</v>
       </c>
-      <c r="H12" s="87" t="s">
+      <c r="H12" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="I12" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="J12" s="88" t="s">
+      <c r="I12" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="K12" s="85" t="s">
+      <c r="K12" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="L12" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="M12" s="88" t="s">
+      <c r="L12" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="M12" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="N12" s="85" t="s">
+      <c r="N12" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="O12" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="P12" s="88" t="s">
+      <c r="O12" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="P12" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="Q12" s="85" t="s">
+      <c r="Q12" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="R12" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="S12" s="92" t="s">
+      <c r="R12" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="S12" s="58" t="s">
         <v>93</v>
       </c>
       <c r="T12" s="38"/>
@@ -8808,58 +8805,58 @@
     </row>
     <row r="13" spans="1:21" ht="18.75">
       <c r="A13" s="31"/>
-      <c r="B13" s="82" t="s">
+      <c r="B13" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="93" t="s">
+      <c r="C13" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="85" t="s">
+      <c r="E13" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="F13" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="G13" s="91" t="s">
+      <c r="F13" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="H13" s="87" t="s">
+      <c r="H13" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="I13" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="J13" s="88" t="s">
+      <c r="I13" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="J13" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="K13" s="85" t="s">
+      <c r="K13" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="L13" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="M13" s="88" t="s">
+      <c r="L13" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="M13" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="N13" s="85" t="s">
+      <c r="N13" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="O13" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="P13" s="88" t="s">
+      <c r="O13" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="P13" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="Q13" s="85" t="s">
+      <c r="Q13" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="R13" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="S13" s="90" t="s">
+      <c r="R13" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="S13" s="56" t="s">
         <v>99</v>
       </c>
       <c r="T13" s="38"/>
@@ -8867,58 +8864,58 @@
     </row>
     <row r="14" spans="1:21" ht="18.75">
       <c r="A14" s="31"/>
-      <c r="B14" s="82" t="s">
+      <c r="B14" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="C14" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="84" t="s">
+      <c r="C14" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="E14" s="85" t="s">
+      <c r="E14" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="F14" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14" s="86" t="s">
+      <c r="F14" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="52" t="s">
         <v>146</v>
       </c>
-      <c r="H14" s="87" t="s">
+      <c r="H14" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="I14" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="J14" s="89" t="s">
+      <c r="I14" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="J14" s="55" t="s">
         <v>144</v>
       </c>
-      <c r="K14" s="85" t="s">
+      <c r="K14" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="L14" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="M14" s="88" t="s">
+      <c r="L14" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="M14" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="N14" s="85" t="s">
+      <c r="N14" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="O14" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="P14" s="88" t="s">
+      <c r="O14" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="Q14" s="85" t="s">
+      <c r="Q14" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="R14" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="S14" s="92" t="s">
+      <c r="R14" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="S14" s="58" t="s">
         <v>105</v>
       </c>
       <c r="T14" s="38"/>
@@ -8926,58 +8923,58 @@
     </row>
     <row r="15" spans="1:21" ht="18.75">
       <c r="A15" s="31"/>
-      <c r="B15" s="82" t="s">
+      <c r="B15" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="84" t="s">
+      <c r="C15" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="E15" s="85" t="s">
+      <c r="E15" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="F15" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="G15" s="86" t="s">
+      <c r="F15" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="H15" s="87" t="s">
+      <c r="H15" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="I15" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="J15" s="89" t="s">
+      <c r="I15" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="J15" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="K15" s="85" t="s">
+      <c r="K15" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="L15" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="M15" s="88" t="s">
+      <c r="L15" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="M15" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="N15" s="85" t="s">
+      <c r="N15" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="O15" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="P15" s="88" t="s">
+      <c r="O15" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="P15" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="Q15" s="85" t="s">
+      <c r="Q15" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="R15" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="S15" s="92" t="s">
+      <c r="R15" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="S15" s="58" t="s">
         <v>177</v>
       </c>
       <c r="T15" s="38"/>
@@ -8985,58 +8982,58 @@
     </row>
     <row r="16" spans="1:21" ht="18.75">
       <c r="A16" s="31"/>
-      <c r="B16" s="82" t="s">
+      <c r="B16" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="C16" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="84" t="s">
+      <c r="C16" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="E16" s="85" t="s">
+      <c r="E16" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="F16" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="G16" s="91" t="s">
+      <c r="F16" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="H16" s="87" t="s">
+      <c r="H16" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="I16" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="J16" s="88" t="s">
+      <c r="I16" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="J16" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="K16" s="85" t="s">
+      <c r="K16" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="L16" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="M16" s="88" t="s">
+      <c r="L16" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="M16" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="N16" s="85" t="s">
+      <c r="N16" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="O16" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="P16" s="88" t="s">
+      <c r="O16" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="P16" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="Q16" s="85" t="s">
+      <c r="Q16" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="R16" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="S16" s="92" t="s">
+      <c r="R16" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="S16" s="58" t="s">
         <v>117</v>
       </c>
       <c r="T16" s="38"/>
@@ -9044,58 +9041,58 @@
     </row>
     <row r="17" spans="1:21" ht="18.75">
       <c r="A17" s="31"/>
-      <c r="B17" s="82" t="s">
+      <c r="B17" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="C17" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="84" t="s">
+      <c r="C17" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="E17" s="85" t="s">
+      <c r="E17" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="F17" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="G17" s="91" t="s">
+      <c r="F17" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="H17" s="87" t="s">
+      <c r="H17" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="I17" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="J17" s="88" t="s">
+      <c r="I17" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="J17" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="K17" s="85" t="s">
+      <c r="K17" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="L17" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="M17" s="88" t="s">
+      <c r="L17" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="M17" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="N17" s="85" t="s">
+      <c r="N17" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="O17" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="P17" s="88" t="s">
+      <c r="O17" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="P17" s="54" t="s">
         <v>125</v>
       </c>
-      <c r="Q17" s="85" t="s">
+      <c r="Q17" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="R17" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="S17" s="92" t="s">
+      <c r="R17" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="S17" s="58" t="s">
         <v>123</v>
       </c>
       <c r="T17" s="38"/>
@@ -9103,58 +9100,58 @@
     </row>
     <row r="18" spans="1:21" ht="18.75">
       <c r="A18" s="31"/>
-      <c r="B18" s="82" t="s">
+      <c r="B18" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="C18" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="84" t="s">
+      <c r="C18" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="E18" s="85" t="s">
+      <c r="E18" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="F18" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="G18" s="91" t="s">
+      <c r="F18" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="H18" s="87" t="s">
+      <c r="H18" s="53" t="s">
         <v>127</v>
       </c>
-      <c r="I18" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="J18" s="88" t="s">
+      <c r="I18" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="J18" s="54" t="s">
         <v>216</v>
       </c>
-      <c r="K18" s="85" t="s">
+      <c r="K18" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="L18" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="M18" s="88" t="s">
+      <c r="L18" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="M18" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="N18" s="85" t="s">
+      <c r="N18" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="O18" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="P18" s="88" t="s">
+      <c r="O18" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="P18" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="Q18" s="85" t="s">
+      <c r="Q18" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="R18" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="S18" s="92" t="s">
+      <c r="R18" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="S18" s="58" t="s">
         <v>129</v>
       </c>
       <c r="T18" s="38"/>
@@ -9162,58 +9159,58 @@
     </row>
     <row r="19" spans="1:21" ht="18.75">
       <c r="A19" s="31"/>
-      <c r="B19" s="82" t="s">
+      <c r="B19" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="C19" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="84" t="s">
+      <c r="C19" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="E19" s="85" t="s">
+      <c r="E19" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="F19" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="G19" s="86" t="s">
+      <c r="F19" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="H19" s="87" t="s">
+      <c r="H19" s="53" t="s">
         <v>133</v>
       </c>
-      <c r="I19" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="J19" s="89" t="s">
+      <c r="I19" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="J19" s="55" t="s">
         <v>138</v>
       </c>
-      <c r="K19" s="85" t="s">
+      <c r="K19" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="L19" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="M19" s="88" t="s">
+      <c r="L19" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="M19" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="N19" s="85" t="s">
+      <c r="N19" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="O19" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="P19" s="88" t="s">
+      <c r="O19" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="P19" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="Q19" s="85" t="s">
+      <c r="Q19" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="R19" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="S19" s="92" t="s">
+      <c r="R19" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="S19" s="58" t="s">
         <v>135</v>
       </c>
       <c r="T19" s="38"/>
@@ -9221,58 +9218,58 @@
     </row>
     <row r="20" spans="1:21" ht="18.75">
       <c r="A20" s="31"/>
-      <c r="B20" s="82" t="s">
+      <c r="B20" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="C20" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="93" t="s">
+      <c r="C20" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="E20" s="85" t="s">
+      <c r="E20" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="F20" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="G20" s="86" t="s">
+      <c r="F20" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="H20" s="87" t="s">
+      <c r="H20" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="I20" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="J20" s="88" t="s">
+      <c r="I20" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="J20" s="54" t="s">
         <v>168</v>
       </c>
-      <c r="K20" s="85" t="s">
+      <c r="K20" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="L20" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="M20" s="88" t="s">
+      <c r="L20" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="M20" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="N20" s="85" t="s">
+      <c r="N20" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="O20" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="P20" s="88" t="s">
+      <c r="O20" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="P20" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="Q20" s="85" t="s">
+      <c r="Q20" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="R20" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="S20" s="92" t="s">
+      <c r="R20" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="S20" s="58" t="s">
         <v>141</v>
       </c>
       <c r="T20" s="38"/>
@@ -9280,58 +9277,58 @@
     </row>
     <row r="21" spans="1:21" ht="18.75">
       <c r="A21" s="31"/>
-      <c r="B21" s="82" t="s">
+      <c r="B21" s="48" t="s">
         <v>145</v>
       </c>
-      <c r="C21" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="84" t="s">
+      <c r="C21" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="50" t="s">
         <v>149</v>
       </c>
-      <c r="E21" s="85" t="s">
+      <c r="E21" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="F21" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="G21" s="86" t="s">
+      <c r="F21" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="H21" s="87" t="s">
+      <c r="H21" s="53" t="s">
         <v>145</v>
       </c>
-      <c r="I21" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="J21" s="88" t="s">
+      <c r="I21" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="J21" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="K21" s="85" t="s">
+      <c r="K21" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="L21" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="M21" s="88" t="s">
+      <c r="L21" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="M21" s="54" t="s">
         <v>148</v>
       </c>
-      <c r="N21" s="85" t="s">
+      <c r="N21" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="O21" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="P21" s="88" t="s">
+      <c r="O21" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="P21" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="Q21" s="85" t="s">
+      <c r="Q21" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="R21" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="S21" s="90" t="s">
+      <c r="R21" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="S21" s="56" t="s">
         <v>63</v>
       </c>
       <c r="T21" s="38"/>
@@ -9339,58 +9336,58 @@
     </row>
     <row r="22" spans="1:21" ht="18.75">
       <c r="A22" s="31"/>
-      <c r="B22" s="82" t="s">
+      <c r="B22" s="48" t="s">
         <v>151</v>
       </c>
-      <c r="C22" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="84" t="s">
+      <c r="C22" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="50" t="s">
         <v>239</v>
       </c>
-      <c r="E22" s="85" t="s">
+      <c r="E22" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="F22" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="G22" s="86" t="s">
+      <c r="F22" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="H22" s="87" t="s">
+      <c r="H22" s="53" t="s">
         <v>151</v>
       </c>
-      <c r="I22" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="J22" s="88" t="s">
+      <c r="I22" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="J22" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="K22" s="85" t="s">
+      <c r="K22" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="L22" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="M22" s="88" t="s">
+      <c r="L22" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="M22" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="N22" s="85" t="s">
+      <c r="N22" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="O22" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="P22" s="89" t="s">
+      <c r="O22" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="P22" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="Q22" s="85" t="s">
+      <c r="Q22" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="R22" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="S22" s="92" t="s">
+      <c r="R22" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="S22" s="58" t="s">
         <v>153</v>
       </c>
       <c r="T22" s="38"/>
@@ -9398,58 +9395,58 @@
     </row>
     <row r="23" spans="1:21" ht="18.75">
       <c r="A23" s="31"/>
-      <c r="B23" s="82" t="s">
+      <c r="B23" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="C23" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="84" t="s">
+      <c r="C23" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="E23" s="85" t="s">
+      <c r="E23" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="F23" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="G23" s="86" t="s">
+      <c r="F23" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" s="52" t="s">
         <v>158</v>
       </c>
-      <c r="H23" s="87" t="s">
+      <c r="H23" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="I23" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="J23" s="88" t="s">
+      <c r="I23" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="J23" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="K23" s="85" t="s">
+      <c r="K23" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="L23" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="M23" s="88" t="s">
+      <c r="L23" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="M23" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="N23" s="85" t="s">
+      <c r="N23" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="O23" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="P23" s="88" t="s">
+      <c r="O23" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="P23" s="54" t="s">
         <v>161</v>
       </c>
-      <c r="Q23" s="85" t="s">
+      <c r="Q23" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="R23" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="S23" s="92" t="s">
+      <c r="R23" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="S23" s="58" t="s">
         <v>159</v>
       </c>
       <c r="T23" s="38"/>
@@ -9457,58 +9454,58 @@
     </row>
     <row r="24" spans="1:21" ht="18.75">
       <c r="A24" s="31"/>
-      <c r="B24" s="82" t="s">
+      <c r="B24" s="48" t="s">
         <v>163</v>
       </c>
-      <c r="C24" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="84" t="s">
+      <c r="C24" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="50" t="s">
         <v>167</v>
       </c>
-      <c r="E24" s="85" t="s">
+      <c r="E24" s="51" t="s">
         <v>163</v>
       </c>
-      <c r="F24" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="G24" s="86" t="s">
+      <c r="F24" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="H24" s="87" t="s">
+      <c r="H24" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="I24" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="J24" s="88" t="s">
+      <c r="I24" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="J24" s="54" t="s">
         <v>234</v>
       </c>
-      <c r="K24" s="85" t="s">
+      <c r="K24" s="51" t="s">
         <v>163</v>
       </c>
-      <c r="L24" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="M24" s="88" t="s">
+      <c r="L24" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="M24" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="N24" s="85" t="s">
+      <c r="N24" s="51" t="s">
         <v>163</v>
       </c>
-      <c r="O24" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="P24" s="88" t="s">
+      <c r="O24" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="P24" s="54" t="s">
         <v>167</v>
       </c>
-      <c r="Q24" s="85" t="s">
+      <c r="Q24" s="51" t="s">
         <v>163</v>
       </c>
-      <c r="R24" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="S24" s="92" t="s">
+      <c r="R24" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="S24" s="58" t="s">
         <v>165</v>
       </c>
       <c r="T24" s="38"/>
@@ -9516,58 +9513,58 @@
     </row>
     <row r="25" spans="1:21" ht="18.75">
       <c r="A25" s="31"/>
-      <c r="B25" s="82" t="s">
+      <c r="B25" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="C25" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="84" t="s">
+      <c r="C25" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="50" t="s">
         <v>173</v>
       </c>
-      <c r="E25" s="85" t="s">
+      <c r="E25" s="51" t="s">
         <v>169</v>
       </c>
-      <c r="F25" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="G25" s="91" t="s">
+      <c r="F25" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="G25" s="57" t="s">
         <v>170</v>
       </c>
-      <c r="H25" s="87" t="s">
+      <c r="H25" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="I25" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="J25" s="89" t="s">
+      <c r="I25" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="J25" s="55" t="s">
         <v>174</v>
       </c>
-      <c r="K25" s="85" t="s">
+      <c r="K25" s="51" t="s">
         <v>169</v>
       </c>
-      <c r="L25" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="M25" s="89" t="s">
+      <c r="L25" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="M25" s="55" t="s">
         <v>178</v>
       </c>
-      <c r="N25" s="85" t="s">
+      <c r="N25" s="51" t="s">
         <v>169</v>
       </c>
-      <c r="O25" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="P25" s="88" t="s">
+      <c r="O25" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="P25" s="54" t="s">
         <v>173</v>
       </c>
-      <c r="Q25" s="85" t="s">
+      <c r="Q25" s="51" t="s">
         <v>169</v>
       </c>
-      <c r="R25" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="S25" s="92" t="s">
+      <c r="R25" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="S25" s="58" t="s">
         <v>171</v>
       </c>
       <c r="T25" s="38"/>
@@ -9575,58 +9572,58 @@
     </row>
     <row r="26" spans="1:21" ht="18.75">
       <c r="A26" s="31"/>
-      <c r="B26" s="82" t="s">
+      <c r="B26" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="C26" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" s="84" t="s">
+      <c r="C26" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="50" t="s">
         <v>179</v>
       </c>
-      <c r="E26" s="85" t="s">
+      <c r="E26" s="51" t="s">
         <v>175</v>
       </c>
-      <c r="F26" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="G26" s="86" t="s">
+      <c r="F26" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="G26" s="52" t="s">
         <v>176</v>
       </c>
-      <c r="H26" s="87" t="s">
+      <c r="H26" s="53" t="s">
         <v>175</v>
       </c>
-      <c r="I26" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="J26" s="88" t="s">
+      <c r="I26" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="J26" s="54" t="s">
         <v>180</v>
       </c>
-      <c r="K26" s="85" t="s">
+      <c r="K26" s="51" t="s">
         <v>175</v>
       </c>
-      <c r="L26" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="M26" s="88" t="s">
+      <c r="L26" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="M26" s="54" t="s">
         <v>172</v>
       </c>
-      <c r="N26" s="85" t="s">
+      <c r="N26" s="51" t="s">
         <v>175</v>
       </c>
-      <c r="O26" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="P26" s="88" t="s">
+      <c r="O26" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="P26" s="54" t="s">
         <v>179</v>
       </c>
-      <c r="Q26" s="85" t="s">
+      <c r="Q26" s="51" t="s">
         <v>175</v>
       </c>
-      <c r="R26" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="S26" s="92" t="s">
+      <c r="R26" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="S26" s="58" t="s">
         <v>207</v>
       </c>
       <c r="T26" s="38"/>
@@ -9634,58 +9631,58 @@
     </row>
     <row r="27" spans="1:21" ht="18.75">
       <c r="A27" s="31"/>
-      <c r="B27" s="82" t="s">
+      <c r="B27" s="48" t="s">
         <v>181</v>
       </c>
-      <c r="C27" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" s="84" t="s">
+      <c r="C27" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="85" t="s">
+      <c r="E27" s="51" t="s">
         <v>181</v>
       </c>
-      <c r="F27" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="G27" s="86" t="s">
+      <c r="F27" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" s="52" t="s">
         <v>182</v>
       </c>
-      <c r="H27" s="87" t="s">
+      <c r="H27" s="53" t="s">
         <v>181</v>
       </c>
-      <c r="I27" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="J27" s="89" t="s">
+      <c r="I27" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="J27" s="55" t="s">
         <v>198</v>
       </c>
-      <c r="K27" s="85" t="s">
+      <c r="K27" s="51" t="s">
         <v>181</v>
       </c>
-      <c r="L27" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="M27" s="88" t="s">
+      <c r="L27" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="M27" s="54" t="s">
         <v>184</v>
       </c>
-      <c r="N27" s="85" t="s">
+      <c r="N27" s="51" t="s">
         <v>181</v>
       </c>
-      <c r="O27" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="P27" s="88" t="s">
+      <c r="O27" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="P27" s="54" t="s">
         <v>185</v>
       </c>
-      <c r="Q27" s="85" t="s">
+      <c r="Q27" s="51" t="s">
         <v>181</v>
       </c>
-      <c r="R27" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="S27" s="92" t="s">
+      <c r="R27" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="S27" s="58" t="s">
         <v>183</v>
       </c>
       <c r="T27" s="38"/>
@@ -9693,58 +9690,58 @@
     </row>
     <row r="28" spans="1:21" ht="18.75">
       <c r="A28" s="31"/>
-      <c r="B28" s="82" t="s">
+      <c r="B28" s="48" t="s">
         <v>187</v>
       </c>
-      <c r="C28" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="84" t="s">
+      <c r="C28" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="50" t="s">
         <v>191</v>
       </c>
-      <c r="E28" s="85" t="s">
+      <c r="E28" s="51" t="s">
         <v>187</v>
       </c>
-      <c r="F28" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="G28" s="91" t="s">
+      <c r="F28" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="G28" s="57" t="s">
         <v>188</v>
       </c>
-      <c r="H28" s="87" t="s">
+      <c r="H28" s="53" t="s">
         <v>187</v>
       </c>
-      <c r="I28" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="J28" s="88" t="s">
+      <c r="I28" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="J28" s="54" t="s">
         <v>192</v>
       </c>
-      <c r="K28" s="85" t="s">
+      <c r="K28" s="51" t="s">
         <v>187</v>
       </c>
-      <c r="L28" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="M28" s="88" t="s">
+      <c r="L28" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="M28" s="54" t="s">
         <v>190</v>
       </c>
-      <c r="N28" s="85" t="s">
+      <c r="N28" s="51" t="s">
         <v>187</v>
       </c>
-      <c r="O28" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="P28" s="88" t="s">
+      <c r="O28" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="P28" s="54" t="s">
         <v>191</v>
       </c>
-      <c r="Q28" s="85" t="s">
+      <c r="Q28" s="51" t="s">
         <v>187</v>
       </c>
-      <c r="R28" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="S28" s="90" t="s">
+      <c r="R28" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="S28" s="56" t="s">
         <v>189</v>
       </c>
       <c r="T28" s="38"/>
@@ -9752,58 +9749,58 @@
     </row>
     <row r="29" spans="1:21" ht="18.75">
       <c r="A29" s="31"/>
-      <c r="B29" s="82" t="s">
+      <c r="B29" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="C29" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="84" t="s">
+      <c r="C29" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="50" t="s">
         <v>197</v>
       </c>
-      <c r="E29" s="85" t="s">
+      <c r="E29" s="51" t="s">
         <v>193</v>
       </c>
-      <c r="F29" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="G29" s="86" t="s">
+      <c r="F29" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="G29" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="H29" s="87" t="s">
+      <c r="H29" s="53" t="s">
         <v>193</v>
       </c>
-      <c r="I29" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="J29" s="88" t="s">
+      <c r="I29" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="J29" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="K29" s="85" t="s">
+      <c r="K29" s="51" t="s">
         <v>193</v>
       </c>
-      <c r="L29" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="M29" s="88" t="s">
+      <c r="L29" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="M29" s="54" t="s">
         <v>196</v>
       </c>
-      <c r="N29" s="85" t="s">
+      <c r="N29" s="51" t="s">
         <v>193</v>
       </c>
-      <c r="O29" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="P29" s="89" t="s">
+      <c r="O29" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="P29" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="Q29" s="85" t="s">
+      <c r="Q29" s="51" t="s">
         <v>193</v>
       </c>
-      <c r="R29" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="S29" s="92" t="s">
+      <c r="R29" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="S29" s="58" t="s">
         <v>195</v>
       </c>
       <c r="T29" s="38"/>
@@ -9811,58 +9808,58 @@
     </row>
     <row r="30" spans="1:21" ht="18.75">
       <c r="A30" s="31"/>
-      <c r="B30" s="82" t="s">
+      <c r="B30" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="C30" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="84" t="s">
+      <c r="C30" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="50" t="s">
         <v>203</v>
       </c>
-      <c r="E30" s="85" t="s">
+      <c r="E30" s="51" t="s">
         <v>199</v>
       </c>
-      <c r="F30" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="G30" s="86" t="s">
+      <c r="F30" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="G30" s="52" t="s">
         <v>200</v>
       </c>
-      <c r="H30" s="87" t="s">
+      <c r="H30" s="53" t="s">
         <v>199</v>
       </c>
-      <c r="I30" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="J30" s="88" t="s">
+      <c r="I30" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="J30" s="54" t="s">
         <v>204</v>
       </c>
-      <c r="K30" s="85" t="s">
+      <c r="K30" s="51" t="s">
         <v>199</v>
       </c>
-      <c r="L30" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="M30" s="88" t="s">
+      <c r="L30" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="M30" s="54" t="s">
         <v>226</v>
       </c>
-      <c r="N30" s="85" t="s">
+      <c r="N30" s="51" t="s">
         <v>199</v>
       </c>
-      <c r="O30" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="P30" s="88" t="s">
+      <c r="O30" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="P30" s="54" t="s">
         <v>203</v>
       </c>
-      <c r="Q30" s="85" t="s">
+      <c r="Q30" s="51" t="s">
         <v>199</v>
       </c>
-      <c r="R30" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="S30" s="92" t="s">
+      <c r="R30" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="S30" s="58" t="s">
         <v>201</v>
       </c>
       <c r="T30" s="38"/>
@@ -9870,58 +9867,58 @@
     </row>
     <row r="31" spans="1:21" ht="18.75">
       <c r="A31" s="31"/>
-      <c r="B31" s="82" t="s">
+      <c r="B31" s="48" t="s">
         <v>205</v>
       </c>
-      <c r="C31" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" s="84" t="s">
+      <c r="C31" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="50" t="s">
         <v>209</v>
       </c>
-      <c r="E31" s="85" t="s">
+      <c r="E31" s="51" t="s">
         <v>205</v>
       </c>
-      <c r="F31" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="G31" s="86" t="s">
+      <c r="F31" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="G31" s="52" t="s">
         <v>224</v>
       </c>
-      <c r="H31" s="87" t="s">
+      <c r="H31" s="53" t="s">
         <v>205</v>
       </c>
-      <c r="I31" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="J31" s="88" t="s">
+      <c r="I31" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="J31" s="54" t="s">
         <v>210</v>
       </c>
-      <c r="K31" s="85" t="s">
+      <c r="K31" s="51" t="s">
         <v>205</v>
       </c>
-      <c r="L31" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="M31" s="88" t="s">
+      <c r="L31" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="M31" s="54" t="s">
         <v>208</v>
       </c>
-      <c r="N31" s="85" t="s">
+      <c r="N31" s="51" t="s">
         <v>205</v>
       </c>
-      <c r="O31" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="P31" s="88" t="s">
+      <c r="O31" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="P31" s="54" t="s">
         <v>209</v>
       </c>
-      <c r="Q31" s="85" t="s">
+      <c r="Q31" s="51" t="s">
         <v>205</v>
       </c>
-      <c r="R31" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="S31" s="92" t="s">
+      <c r="R31" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="S31" s="58" t="s">
         <v>219</v>
       </c>
       <c r="T31" s="38"/>
@@ -9929,58 +9926,58 @@
     </row>
     <row r="32" spans="1:21" ht="18.75">
       <c r="A32" s="31"/>
-      <c r="B32" s="82" t="s">
+      <c r="B32" s="48" t="s">
         <v>211</v>
       </c>
-      <c r="C32" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="D32" s="84" t="s">
+      <c r="C32" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="50" t="s">
         <v>215</v>
       </c>
-      <c r="E32" s="85" t="s">
+      <c r="E32" s="51" t="s">
         <v>211</v>
       </c>
-      <c r="F32" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="G32" s="86" t="s">
+      <c r="F32" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="G32" s="52" t="s">
         <v>212</v>
       </c>
-      <c r="H32" s="87" t="s">
+      <c r="H32" s="53" t="s">
         <v>211</v>
       </c>
-      <c r="I32" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="J32" s="88" t="s">
+      <c r="I32" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="J32" s="54" t="s">
         <v>186</v>
       </c>
-      <c r="K32" s="85" t="s">
+      <c r="K32" s="51" t="s">
         <v>211</v>
       </c>
-      <c r="L32" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="M32" s="88" t="s">
+      <c r="L32" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="M32" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="N32" s="85" t="s">
+      <c r="N32" s="51" t="s">
         <v>211</v>
       </c>
-      <c r="O32" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="P32" s="88" t="s">
+      <c r="O32" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="P32" s="54" t="s">
         <v>215</v>
       </c>
-      <c r="Q32" s="85" t="s">
+      <c r="Q32" s="51" t="s">
         <v>211</v>
       </c>
-      <c r="R32" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="S32" s="92" t="s">
+      <c r="R32" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="S32" s="58" t="s">
         <v>213</v>
       </c>
       <c r="T32" s="38"/>
@@ -9988,58 +9985,58 @@
     </row>
     <row r="33" spans="1:21" ht="18.75">
       <c r="A33" s="31"/>
-      <c r="B33" s="82" t="s">
+      <c r="B33" s="48" t="s">
         <v>217</v>
       </c>
-      <c r="C33" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="D33" s="93" t="s">
+      <c r="C33" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="59" t="s">
         <v>221</v>
       </c>
-      <c r="E33" s="85" t="s">
+      <c r="E33" s="51" t="s">
         <v>217</v>
       </c>
-      <c r="F33" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="G33" s="86" t="s">
+      <c r="F33" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="G33" s="52" t="s">
         <v>218</v>
       </c>
-      <c r="H33" s="87" t="s">
+      <c r="H33" s="53" t="s">
         <v>217</v>
       </c>
-      <c r="I33" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="J33" s="88" t="s">
+      <c r="I33" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="J33" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="K33" s="85" t="s">
+      <c r="K33" s="51" t="s">
         <v>217</v>
       </c>
-      <c r="L33" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="M33" s="88" t="s">
+      <c r="L33" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="M33" s="54" t="s">
         <v>220</v>
       </c>
-      <c r="N33" s="85" t="s">
+      <c r="N33" s="51" t="s">
         <v>217</v>
       </c>
-      <c r="O33" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="P33" s="89" t="s">
+      <c r="O33" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="P33" s="55" t="s">
         <v>221</v>
       </c>
-      <c r="Q33" s="85" t="s">
+      <c r="Q33" s="51" t="s">
         <v>217</v>
       </c>
-      <c r="R33" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="S33" s="92" t="s">
+      <c r="R33" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="S33" s="58" t="s">
         <v>147</v>
       </c>
       <c r="T33" s="38"/>
@@ -10047,58 +10044,58 @@
     </row>
     <row r="34" spans="1:21" ht="18.75">
       <c r="A34" s="31"/>
-      <c r="B34" s="82" t="s">
+      <c r="B34" s="48" t="s">
         <v>223</v>
       </c>
-      <c r="C34" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="D34" s="84" t="s">
+      <c r="C34" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="50" t="s">
         <v>227</v>
       </c>
-      <c r="E34" s="85" t="s">
+      <c r="E34" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="F34" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="G34" s="86" t="s">
+      <c r="F34" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="G34" s="52" t="s">
         <v>236</v>
       </c>
-      <c r="H34" s="87" t="s">
+      <c r="H34" s="53" t="s">
         <v>223</v>
       </c>
-      <c r="I34" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="J34" s="88" t="s">
+      <c r="I34" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="J34" s="54" t="s">
         <v>228</v>
       </c>
-      <c r="K34" s="85" t="s">
+      <c r="K34" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="L34" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="M34" s="88" t="s">
+      <c r="L34" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="M34" s="54" t="s">
         <v>202</v>
       </c>
-      <c r="N34" s="85" t="s">
+      <c r="N34" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="O34" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="P34" s="88" t="s">
+      <c r="O34" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="P34" s="54" t="s">
         <v>227</v>
       </c>
-      <c r="Q34" s="85" t="s">
+      <c r="Q34" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="R34" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="S34" s="92" t="s">
+      <c r="R34" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="S34" s="58" t="s">
         <v>225</v>
       </c>
       <c r="T34" s="38"/>
@@ -10106,58 +10103,58 @@
     </row>
     <row r="35" spans="1:21" ht="18.75">
       <c r="A35" s="31"/>
-      <c r="B35" s="82" t="s">
+      <c r="B35" s="48" t="s">
         <v>229</v>
       </c>
-      <c r="C35" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="D35" s="84" t="s">
+      <c r="C35" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="50" t="s">
         <v>233</v>
       </c>
-      <c r="E35" s="85" t="s">
+      <c r="E35" s="51" t="s">
         <v>229</v>
       </c>
-      <c r="F35" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="G35" s="91" t="s">
+      <c r="F35" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="G35" s="57" t="s">
         <v>230</v>
       </c>
-      <c r="H35" s="87" t="s">
+      <c r="H35" s="53" t="s">
         <v>229</v>
       </c>
-      <c r="I35" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="J35" s="88" t="s">
+      <c r="I35" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="J35" s="54" t="s">
         <v>162</v>
       </c>
-      <c r="K35" s="85" t="s">
+      <c r="K35" s="51" t="s">
         <v>229</v>
       </c>
-      <c r="L35" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="M35" s="89" t="s">
+      <c r="L35" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="M35" s="55" t="s">
         <v>232</v>
       </c>
-      <c r="N35" s="85" t="s">
+      <c r="N35" s="51" t="s">
         <v>229</v>
       </c>
-      <c r="O35" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="P35" s="88" t="s">
+      <c r="O35" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="P35" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="Q35" s="85" t="s">
+      <c r="Q35" s="51" t="s">
         <v>229</v>
       </c>
-      <c r="R35" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="S35" s="92" t="s">
+      <c r="R35" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="S35" s="58" t="s">
         <v>231</v>
       </c>
       <c r="T35" s="38"/>
@@ -10165,58 +10162,58 @@
     </row>
     <row r="36" spans="1:21" ht="19.5" thickBot="1">
       <c r="A36" s="31"/>
-      <c r="B36" s="94" t="s">
+      <c r="B36" s="60" t="s">
         <v>235</v>
       </c>
-      <c r="C36" s="95" t="s">
-        <v>61</v>
-      </c>
-      <c r="D36" s="96" t="s">
+      <c r="C36" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="E36" s="97" t="s">
+      <c r="E36" s="63" t="s">
         <v>235</v>
       </c>
-      <c r="F36" s="95" t="s">
-        <v>61</v>
-      </c>
-      <c r="G36" s="98" t="s">
+      <c r="F36" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="G36" s="64" t="s">
         <v>206</v>
       </c>
-      <c r="H36" s="99" t="s">
+      <c r="H36" s="65" t="s">
         <v>235</v>
       </c>
-      <c r="I36" s="95" t="s">
-        <v>61</v>
-      </c>
-      <c r="J36" s="100" t="s">
+      <c r="I36" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="J36" s="66" t="s">
         <v>240</v>
       </c>
-      <c r="K36" s="97" t="s">
+      <c r="K36" s="63" t="s">
         <v>235</v>
       </c>
-      <c r="L36" s="95" t="s">
-        <v>61</v>
-      </c>
-      <c r="M36" s="100" t="s">
+      <c r="L36" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="M36" s="66" t="s">
         <v>238</v>
       </c>
-      <c r="N36" s="97" t="s">
+      <c r="N36" s="63" t="s">
         <v>235</v>
       </c>
-      <c r="O36" s="95" t="s">
-        <v>61</v>
-      </c>
-      <c r="P36" s="100" t="s">
+      <c r="O36" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="P36" s="66" t="s">
         <v>239</v>
       </c>
-      <c r="Q36" s="97" t="s">
+      <c r="Q36" s="63" t="s">
         <v>235</v>
       </c>
-      <c r="R36" s="95" t="s">
-        <v>61</v>
-      </c>
-      <c r="S36" s="101" t="s">
+      <c r="R36" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="S36" s="67" t="s">
         <v>237</v>
       </c>
       <c r="T36" s="38"/>
@@ -10249,22 +10246,22 @@
     </row>
     <row r="38" spans="1:21">
       <c r="A38" s="31"/>
-      <c r="B38" s="105"/>
-      <c r="C38" s="106"/>
-      <c r="D38" s="106"/>
-      <c r="E38" s="105"/>
+      <c r="B38" s="70"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="70"/>
       <c r="F38" s="38"/>
-      <c r="G38" s="106"/>
-      <c r="H38" s="107"/>
+      <c r="G38" s="71"/>
+      <c r="H38" s="72"/>
       <c r="I38" s="38"/>
-      <c r="J38" s="106"/>
-      <c r="K38" s="107"/>
+      <c r="J38" s="71"/>
+      <c r="K38" s="72"/>
       <c r="L38" s="38"/>
       <c r="M38" s="38"/>
-      <c r="N38" s="107"/>
+      <c r="N38" s="72"/>
       <c r="O38" s="38"/>
       <c r="P38" s="38"/>
-      <c r="Q38" s="107"/>
+      <c r="Q38" s="72"/>
       <c r="R38" s="38"/>
       <c r="S38" s="38"/>
       <c r="T38" s="38"/>
@@ -10272,26 +10269,26 @@
     </row>
     <row r="39" spans="1:21">
       <c r="A39" s="31"/>
-      <c r="B39" s="109" t="s">
-        <v>243</v>
-      </c>
-      <c r="C39" s="109"/>
-      <c r="D39" s="109"/>
-      <c r="E39" s="109"/>
-      <c r="F39" s="109"/>
-      <c r="G39" s="109"/>
-      <c r="H39" s="109"/>
-      <c r="I39" s="109"/>
-      <c r="J39" s="109"/>
-      <c r="K39" s="109"/>
-      <c r="L39" s="109"/>
-      <c r="M39" s="109"/>
-      <c r="N39" s="109"/>
-      <c r="O39" s="109"/>
-      <c r="P39" s="109"/>
-      <c r="Q39" s="109"/>
-      <c r="R39" s="109"/>
-      <c r="S39" s="109"/>
+      <c r="B39" s="107" t="s">
+        <v>242</v>
+      </c>
+      <c r="C39" s="107"/>
+      <c r="D39" s="107"/>
+      <c r="E39" s="107"/>
+      <c r="F39" s="107"/>
+      <c r="G39" s="107"/>
+      <c r="H39" s="107"/>
+      <c r="I39" s="107"/>
+      <c r="J39" s="107"/>
+      <c r="K39" s="107"/>
+      <c r="L39" s="107"/>
+      <c r="M39" s="107"/>
+      <c r="N39" s="107"/>
+      <c r="O39" s="107"/>
+      <c r="P39" s="107"/>
+      <c r="Q39" s="107"/>
+      <c r="R39" s="107"/>
+      <c r="S39" s="107"/>
       <c r="T39" s="38"/>
       <c r="U39" s="44"/>
     </row>
@@ -10458,14 +10455,14 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B1:S1"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="B39:S39"/>
+    <mergeCell ref="B37:S37"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
     <mergeCell ref="Q5:S5"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E4:G4"/>
@@ -10478,14 +10475,14 @@
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="K5:M5"/>
     <mergeCell ref="N5:P5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="B39:S39"/>
-    <mergeCell ref="B37:S37"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="B1:S1"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="Q3:S3"/>
   </mergeCells>
   <pageMargins left="0.11811023622047245" right="0.15748031496062992" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/UNDER DEVELOPMENT/ADMIN DOCUMENTS TTPs OPAR 2.0/AUTHENTICATION TABLE.xlsx
+++ b/UNDER DEVELOPMENT/ADMIN DOCUMENTS TTPs OPAR 2.0/AUTHENTICATION TABLE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="20730" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="AET-100 (2)" sheetId="6" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1984" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1984" uniqueCount="246">
   <si>
     <t>A</t>
   </si>
@@ -754,13 +754,16 @@
   </si>
   <si>
     <t>https://www.yurgon.de/uploads/dcs/dryad-generator.php</t>
+  </si>
+  <si>
+    <t>Version 2.2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -864,6 +867,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1117,10 +1127,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1280,31 +1294,34 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1322,52 +1339,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1391,8 +1369,52 @@
     <xf numFmtId="49" fontId="6" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperkobling" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2010,10 +2032,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL40"/>
+  <dimension ref="A1:CB40"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2040,51 +2062,86 @@
     <col min="34" max="34" width="2.5703125" customWidth="1"/>
     <col min="35" max="36" width="3" customWidth="1"/>
     <col min="37" max="38" width="3.42578125" customWidth="1"/>
+    <col min="39" max="39" width="4.85546875" customWidth="1"/>
+    <col min="40" max="40" width="5.140625" customWidth="1"/>
+    <col min="41" max="41" width="5.5703125" customWidth="1"/>
+    <col min="42" max="42" width="4.42578125" customWidth="1"/>
+    <col min="43" max="43" width="2" customWidth="1"/>
+    <col min="44" max="45" width="7.5703125" customWidth="1"/>
+    <col min="46" max="46" width="6.140625" customWidth="1"/>
+    <col min="47" max="47" width="4.7109375" customWidth="1"/>
+    <col min="48" max="48" width="5.28515625" customWidth="1"/>
+    <col min="49" max="49" width="6.7109375" customWidth="1"/>
+    <col min="50" max="50" width="3.28515625" customWidth="1"/>
+    <col min="51" max="52" width="3.42578125" customWidth="1"/>
+    <col min="54" max="54" width="3.28515625" customWidth="1"/>
+    <col min="55" max="55" width="3.85546875" customWidth="1"/>
+    <col min="56" max="56" width="8" customWidth="1"/>
+    <col min="57" max="57" width="4.28515625" customWidth="1"/>
+    <col min="58" max="58" width="4.42578125" customWidth="1"/>
+    <col min="59" max="59" width="6.7109375" customWidth="1"/>
+    <col min="60" max="60" width="3.85546875" customWidth="1"/>
+    <col min="61" max="61" width="4.140625" customWidth="1"/>
+    <col min="62" max="62" width="5.85546875" customWidth="1"/>
+    <col min="63" max="63" width="3.85546875" customWidth="1"/>
+    <col min="64" max="64" width="4.42578125" customWidth="1"/>
+    <col min="65" max="65" width="5.28515625" customWidth="1"/>
+    <col min="67" max="67" width="3.85546875" customWidth="1"/>
+    <col min="68" max="68" width="3.7109375" customWidth="1"/>
+    <col min="69" max="69" width="3.28515625" customWidth="1"/>
+    <col min="71" max="71" width="3.7109375" customWidth="1"/>
+    <col min="72" max="72" width="3.28515625" customWidth="1"/>
+    <col min="73" max="73" width="4.140625" customWidth="1"/>
+    <col min="75" max="75" width="3.42578125" customWidth="1"/>
+    <col min="76" max="76" width="3.28515625" customWidth="1"/>
+    <col min="78" max="78" width="3.28515625" customWidth="1"/>
+    <col min="79" max="79" width="4.140625" customWidth="1"/>
+    <col min="80" max="80" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="46.5">
+    <row r="1" spans="1:80" ht="46.5">
       <c r="A1" s="29"/>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
-      <c r="X1" s="73"/>
-      <c r="Y1" s="73"/>
-      <c r="Z1" s="73"/>
-      <c r="AA1" s="73"/>
-      <c r="AB1" s="73"/>
-      <c r="AC1" s="73"/>
-      <c r="AD1" s="73"/>
-      <c r="AE1" s="73"/>
-      <c r="AF1" s="73"/>
-      <c r="AG1" s="73"/>
-      <c r="AH1" s="73"/>
-      <c r="AI1" s="73"/>
-      <c r="AJ1" s="73"/>
-      <c r="AK1" s="73"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
+      <c r="W1" s="75"/>
+      <c r="X1" s="75"/>
+      <c r="Y1" s="75"/>
+      <c r="Z1" s="75"/>
+      <c r="AA1" s="75"/>
+      <c r="AB1" s="75"/>
+      <c r="AC1" s="75"/>
+      <c r="AD1" s="75"/>
+      <c r="AE1" s="75"/>
+      <c r="AF1" s="75"/>
+      <c r="AG1" s="75"/>
+      <c r="AH1" s="75"/>
+      <c r="AI1" s="75"/>
+      <c r="AJ1" s="75"/>
+      <c r="AK1" s="75"/>
       <c r="AL1" s="30"/>
     </row>
-    <row r="2" spans="1:38" ht="26.25">
+    <row r="2" spans="1:80" ht="26.25">
       <c r="A2" s="31"/>
       <c r="B2" s="32"/>
       <c r="C2" s="32"/>
@@ -2112,21 +2169,21 @@
       <c r="Y2" s="33"/>
       <c r="Z2" s="33"/>
       <c r="AA2" s="33"/>
-      <c r="AB2" s="74" t="s">
-        <v>243</v>
-      </c>
-      <c r="AC2" s="74"/>
-      <c r="AD2" s="74"/>
-      <c r="AE2" s="74"/>
-      <c r="AF2" s="74"/>
-      <c r="AG2" s="74"/>
-      <c r="AH2" s="74"/>
-      <c r="AI2" s="74"/>
-      <c r="AJ2" s="74"/>
-      <c r="AK2" s="74"/>
+      <c r="AB2" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="AC2" s="76"/>
+      <c r="AD2" s="76"/>
+      <c r="AE2" s="76"/>
+      <c r="AF2" s="76"/>
+      <c r="AG2" s="76"/>
+      <c r="AH2" s="76"/>
+      <c r="AI2" s="76"/>
+      <c r="AJ2" s="76"/>
+      <c r="AK2" s="76"/>
       <c r="AL2" s="34"/>
     </row>
-    <row r="3" spans="1:38" ht="23.25">
+    <row r="3" spans="1:80" ht="23.25">
       <c r="A3" s="31"/>
       <c r="B3" s="35"/>
       <c r="C3" s="36" t="s">
@@ -2218,7 +2275,7 @@
       </c>
       <c r="AL3" s="37"/>
     </row>
-    <row r="4" spans="1:38" ht="5.25" customHeight="1">
+    <row r="4" spans="1:80" ht="5.25" customHeight="1">
       <c r="A4" s="31"/>
       <c r="B4" s="35"/>
       <c r="C4" s="36"/>
@@ -2258,1443 +2315,2035 @@
       <c r="AK4" s="36"/>
       <c r="AL4" s="37"/>
     </row>
-    <row r="5" spans="1:38" ht="18.75" customHeight="1">
+    <row r="5" spans="1:80" ht="18.75" customHeight="1">
       <c r="A5" s="31"/>
       <c r="B5" s="36" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F5" s="35"/>
       <c r="G5" s="35" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H5" s="35" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I5" s="35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J5" s="35"/>
       <c r="K5" s="35" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="L5" s="35" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M5" s="35"/>
       <c r="N5" s="35" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="O5" s="35" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="P5" s="35"/>
       <c r="Q5" s="35" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="R5" s="35" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="S5" s="35"/>
       <c r="T5" s="35" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="U5" s="35" t="s">
         <v>4</v>
       </c>
       <c r="V5" s="35" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="W5" s="35"/>
       <c r="X5" s="35" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="Y5" s="35" t="s">
         <v>10</v>
       </c>
       <c r="Z5" s="35" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AA5" s="35"/>
       <c r="AB5" s="35" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AC5" s="35" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="AD5" s="35" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AE5" s="35"/>
       <c r="AF5" s="35" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AG5" s="35" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AH5" s="35"/>
       <c r="AI5" s="35" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ5" s="35" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="AK5" s="35" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AL5" s="39"/>
-    </row>
-    <row r="6" spans="1:38" ht="23.25">
+      <c r="AR5" s="111"/>
+      <c r="AS5" s="111"/>
+      <c r="AT5" s="111"/>
+      <c r="AU5" s="111"/>
+      <c r="AV5" s="111"/>
+      <c r="AW5" s="111"/>
+      <c r="AX5" s="111"/>
+      <c r="AY5" s="111"/>
+      <c r="AZ5" s="111"/>
+      <c r="BA5" s="111"/>
+      <c r="BB5" s="111"/>
+      <c r="BC5" s="111"/>
+      <c r="BD5" s="111"/>
+      <c r="BE5" s="111"/>
+      <c r="BF5" s="111"/>
+      <c r="BG5" s="111"/>
+      <c r="BH5" s="111"/>
+      <c r="BI5" s="111"/>
+      <c r="BJ5" s="111"/>
+      <c r="BK5" s="111"/>
+      <c r="BL5" s="111"/>
+      <c r="BM5" s="111"/>
+      <c r="BN5" s="111"/>
+      <c r="BO5" s="111"/>
+      <c r="BP5" s="111"/>
+      <c r="BQ5" s="111"/>
+      <c r="BR5" s="111"/>
+      <c r="BS5" s="111"/>
+      <c r="BT5" s="111"/>
+      <c r="BU5" s="111"/>
+      <c r="BV5" s="111"/>
+      <c r="BW5" s="111"/>
+      <c r="BX5" s="111"/>
+      <c r="BY5" s="111"/>
+      <c r="BZ5" s="111"/>
+      <c r="CA5" s="111"/>
+      <c r="CB5" s="111"/>
+    </row>
+    <row r="6" spans="1:80" ht="23.25">
       <c r="A6" s="31"/>
       <c r="B6" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F6" s="35"/>
       <c r="G6" s="35" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H6" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="35" t="s">
         <v>15</v>
-      </c>
-      <c r="I6" s="35" t="s">
-        <v>3</v>
       </c>
       <c r="J6" s="35"/>
       <c r="K6" s="35" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="L6" s="35" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="M6" s="35"/>
       <c r="N6" s="35" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O6" s="35" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="P6" s="35"/>
       <c r="Q6" s="35" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="R6" s="35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S6" s="35"/>
       <c r="T6" s="35" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="U6" s="35" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="V6" s="35" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="W6" s="35"/>
       <c r="X6" s="35" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Y6" s="35" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="Z6" s="35" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="AA6" s="35"/>
       <c r="AB6" s="35" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AC6" s="35" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AD6" s="35" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AE6" s="35"/>
       <c r="AF6" s="35" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="AG6" s="35" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AH6" s="35"/>
       <c r="AI6" s="35" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="AJ6" s="35" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AK6" s="35" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AL6" s="39"/>
-    </row>
-    <row r="7" spans="1:38" ht="23.25">
+      <c r="AR6" s="111"/>
+      <c r="AS6" s="111"/>
+      <c r="AT6" s="111"/>
+      <c r="AU6" s="111"/>
+      <c r="AV6" s="111"/>
+      <c r="AW6" s="111"/>
+      <c r="AX6" s="111"/>
+      <c r="AY6" s="111"/>
+      <c r="AZ6" s="111"/>
+      <c r="BA6" s="111"/>
+      <c r="BB6" s="111"/>
+      <c r="BC6" s="111"/>
+      <c r="BD6" s="111"/>
+      <c r="BE6" s="111"/>
+      <c r="BF6" s="111"/>
+      <c r="BG6" s="111"/>
+      <c r="BH6" s="111"/>
+      <c r="BI6" s="111"/>
+      <c r="BJ6" s="111"/>
+      <c r="BK6" s="111"/>
+      <c r="BL6" s="111"/>
+      <c r="BM6" s="111"/>
+      <c r="BN6" s="111"/>
+      <c r="BO6" s="111"/>
+      <c r="BP6" s="111"/>
+      <c r="BQ6" s="111"/>
+      <c r="BR6" s="111"/>
+      <c r="BS6" s="111"/>
+      <c r="BT6" s="111"/>
+      <c r="BU6" s="111"/>
+      <c r="BV6" s="111"/>
+      <c r="BW6" s="111"/>
+      <c r="BX6" s="111"/>
+      <c r="BY6" s="111"/>
+      <c r="BZ6" s="111"/>
+      <c r="CA6" s="111"/>
+      <c r="CB6" s="111"/>
+    </row>
+    <row r="7" spans="1:80" ht="23.25">
       <c r="A7" s="31"/>
       <c r="B7" s="36" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F7" s="35"/>
       <c r="G7" s="35" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H7" s="35" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I7" s="35" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="J7" s="35"/>
       <c r="K7" s="35" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L7" s="35" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M7" s="35"/>
       <c r="N7" s="35" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="O7" s="35" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="P7" s="35"/>
       <c r="Q7" s="35" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R7" s="35" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="S7" s="35"/>
       <c r="T7" s="35" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U7" s="35" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="V7" s="35" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="W7" s="35"/>
       <c r="X7" s="35" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="35" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="Z7" s="35" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AA7" s="35"/>
       <c r="AB7" s="35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC7" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD7" s="35" t="s">
         <v>2</v>
-      </c>
-      <c r="AD7" s="35" t="s">
-        <v>21</v>
       </c>
       <c r="AE7" s="35"/>
       <c r="AF7" s="35" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AG7" s="35" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AH7" s="35"/>
       <c r="AI7" s="35" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AJ7" s="35" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="AK7" s="35" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="AL7" s="39"/>
-    </row>
-    <row r="8" spans="1:38" ht="23.25">
+      <c r="AR7" s="111"/>
+      <c r="AS7" s="111"/>
+      <c r="AT7" s="111"/>
+      <c r="AU7" s="111"/>
+      <c r="AV7" s="111"/>
+      <c r="AW7" s="111"/>
+      <c r="AX7" s="111"/>
+      <c r="AY7" s="111"/>
+      <c r="AZ7" s="111"/>
+      <c r="BA7" s="111"/>
+      <c r="BB7" s="111"/>
+      <c r="BC7" s="111"/>
+      <c r="BD7" s="111"/>
+      <c r="BE7" s="111"/>
+      <c r="BF7" s="111"/>
+      <c r="BG7" s="111"/>
+      <c r="BH7" s="111"/>
+      <c r="BI7" s="111"/>
+      <c r="BJ7" s="111"/>
+      <c r="BK7" s="111"/>
+      <c r="BL7" s="111"/>
+      <c r="BM7" s="111"/>
+      <c r="BN7" s="111"/>
+      <c r="BO7" s="111"/>
+      <c r="BP7" s="111"/>
+      <c r="BQ7" s="111"/>
+      <c r="BR7" s="111"/>
+      <c r="BS7" s="111"/>
+      <c r="BT7" s="111"/>
+      <c r="BU7" s="111"/>
+      <c r="BV7" s="111"/>
+      <c r="BW7" s="111"/>
+      <c r="BX7" s="111"/>
+      <c r="BY7" s="111"/>
+      <c r="BZ7" s="111"/>
+      <c r="CA7" s="111"/>
+      <c r="CB7" s="111"/>
+    </row>
+    <row r="8" spans="1:80" ht="23.25">
       <c r="A8" s="31"/>
       <c r="B8" s="36" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="F8" s="35"/>
       <c r="G8" s="35" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H8" s="35" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="I8" s="35" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="J8" s="35"/>
       <c r="K8" s="35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L8" s="35" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M8" s="35"/>
       <c r="N8" s="35" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O8" s="35" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="P8" s="35"/>
       <c r="Q8" s="35" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="R8" s="35" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="S8" s="35"/>
       <c r="T8" s="35" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="U8" s="35" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="V8" s="35" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="W8" s="35"/>
       <c r="X8" s="35" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="Y8" s="35" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="Z8" s="35" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="AA8" s="35"/>
       <c r="AB8" s="35" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC8" s="35" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AD8" s="35" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AE8" s="35"/>
       <c r="AF8" s="35" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="AG8" s="35" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="AH8" s="35"/>
       <c r="AI8" s="35" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AJ8" s="35" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AK8" s="35" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AL8" s="39"/>
-    </row>
-    <row r="9" spans="1:38" ht="23.25">
+      <c r="AR8" s="111"/>
+      <c r="AS8" s="111"/>
+      <c r="AT8" s="111"/>
+      <c r="AU8" s="111"/>
+      <c r="AV8" s="111"/>
+      <c r="AW8" s="111"/>
+      <c r="AX8" s="111"/>
+      <c r="AY8" s="111"/>
+      <c r="AZ8" s="111"/>
+      <c r="BA8" s="111"/>
+      <c r="BB8" s="111"/>
+      <c r="BC8" s="111"/>
+      <c r="BD8" s="111"/>
+      <c r="BE8" s="111"/>
+      <c r="BF8" s="111"/>
+      <c r="BG8" s="111"/>
+      <c r="BH8" s="111"/>
+      <c r="BI8" s="111"/>
+      <c r="BJ8" s="111"/>
+      <c r="BK8" s="111"/>
+      <c r="BL8" s="111"/>
+      <c r="BM8" s="111"/>
+      <c r="BN8" s="111"/>
+      <c r="BO8" s="111"/>
+      <c r="BP8" s="111"/>
+      <c r="BQ8" s="111"/>
+      <c r="BR8" s="111"/>
+      <c r="BS8" s="111"/>
+      <c r="BT8" s="111"/>
+      <c r="BU8" s="111"/>
+      <c r="BV8" s="111"/>
+      <c r="BW8" s="111"/>
+      <c r="BX8" s="111"/>
+      <c r="BY8" s="111"/>
+      <c r="BZ8" s="111"/>
+      <c r="CA8" s="111"/>
+      <c r="CB8" s="111"/>
+    </row>
+    <row r="9" spans="1:80" ht="23.25">
       <c r="A9" s="31"/>
       <c r="B9" s="36" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D9" s="35" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F9" s="35"/>
       <c r="G9" s="35" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H9" s="35" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I9" s="35" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J9" s="35"/>
       <c r="K9" s="35" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="L9" s="35" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M9" s="35"/>
       <c r="N9" s="35" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="O9" s="35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P9" s="35"/>
       <c r="Q9" s="35" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R9" s="35" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="S9" s="35"/>
       <c r="T9" s="35" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="U9" s="35" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="V9" s="35" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="W9" s="35"/>
       <c r="X9" s="35" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="Y9" s="35" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="Z9" s="35" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AA9" s="35"/>
       <c r="AB9" s="35" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AC9" s="35" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AD9" s="35" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AE9" s="35"/>
       <c r="AF9" s="35" t="s">
         <v>12</v>
       </c>
       <c r="AG9" s="35" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="AH9" s="35"/>
       <c r="AI9" s="35" t="s">
         <v>1</v>
       </c>
       <c r="AJ9" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK9" s="35" t="s">
         <v>23</v>
       </c>
       <c r="AL9" s="39"/>
-    </row>
-    <row r="10" spans="1:38" ht="23.25">
+      <c r="AR9" s="111"/>
+      <c r="AS9" s="111"/>
+      <c r="AT9" s="111"/>
+      <c r="AU9" s="111"/>
+      <c r="AV9" s="111"/>
+      <c r="AW9" s="111"/>
+      <c r="AX9" s="111"/>
+      <c r="AY9" s="111"/>
+      <c r="AZ9" s="111"/>
+      <c r="BA9" s="111"/>
+      <c r="BB9" s="111"/>
+      <c r="BC9" s="111"/>
+      <c r="BD9" s="111"/>
+      <c r="BE9" s="111"/>
+      <c r="BF9" s="111"/>
+      <c r="BG9" s="111"/>
+      <c r="BH9" s="111"/>
+      <c r="BI9" s="111"/>
+      <c r="BJ9" s="111"/>
+      <c r="BK9" s="111"/>
+      <c r="BL9" s="111"/>
+      <c r="BM9" s="111"/>
+      <c r="BN9" s="111"/>
+      <c r="BO9" s="111"/>
+      <c r="BP9" s="111"/>
+      <c r="BQ9" s="111"/>
+      <c r="BR9" s="111"/>
+      <c r="BS9" s="111"/>
+      <c r="BT9" s="111"/>
+      <c r="BU9" s="111"/>
+      <c r="BV9" s="111"/>
+      <c r="BW9" s="111"/>
+      <c r="BX9" s="111"/>
+      <c r="BY9" s="111"/>
+      <c r="BZ9" s="111"/>
+      <c r="CA9" s="111"/>
+      <c r="CB9" s="111"/>
+    </row>
+    <row r="10" spans="1:80" ht="23.25">
       <c r="A10" s="31"/>
       <c r="B10" s="36" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F10" s="35"/>
       <c r="G10" s="35" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H10" s="35" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I10" s="35" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J10" s="35"/>
       <c r="K10" s="35" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="L10" s="35" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="M10" s="35"/>
       <c r="N10" s="35" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="O10" s="35" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="P10" s="35"/>
       <c r="Q10" s="35" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="R10" s="35" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="S10" s="35"/>
       <c r="T10" s="35" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="U10" s="35" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="V10" s="35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W10" s="35"/>
       <c r="X10" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y10" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="35" t="s">
         <v>6</v>
-      </c>
-      <c r="Y10" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z10" s="35" t="s">
-        <v>5</v>
       </c>
       <c r="AA10" s="35"/>
       <c r="AB10" s="35" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="AC10" s="35" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AD10" s="35" t="s">
         <v>2</v>
       </c>
       <c r="AE10" s="35"/>
       <c r="AF10" s="35" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AG10" s="35" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AH10" s="35"/>
       <c r="AI10" s="35" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ10" s="35" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AK10" s="35" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="AL10" s="39"/>
-    </row>
-    <row r="11" spans="1:38" ht="23.25">
+      <c r="AR10" s="111"/>
+      <c r="AS10" s="111"/>
+      <c r="AT10" s="111"/>
+      <c r="AU10" s="111"/>
+      <c r="AV10" s="111"/>
+      <c r="AW10" s="111"/>
+      <c r="AX10" s="111"/>
+      <c r="AY10" s="111"/>
+      <c r="AZ10" s="111"/>
+      <c r="BA10" s="111"/>
+      <c r="BB10" s="111"/>
+      <c r="BC10" s="111"/>
+      <c r="BD10" s="111"/>
+      <c r="BE10" s="111"/>
+      <c r="BF10" s="111"/>
+      <c r="BG10" s="111"/>
+      <c r="BH10" s="111"/>
+      <c r="BI10" s="111"/>
+      <c r="BJ10" s="111"/>
+      <c r="BK10" s="111"/>
+      <c r="BL10" s="111"/>
+      <c r="BM10" s="111"/>
+      <c r="BN10" s="111"/>
+      <c r="BO10" s="111"/>
+      <c r="BP10" s="111"/>
+      <c r="BQ10" s="111"/>
+      <c r="BR10" s="111"/>
+      <c r="BS10" s="111"/>
+      <c r="BT10" s="111"/>
+      <c r="BU10" s="111"/>
+      <c r="BV10" s="111"/>
+      <c r="BW10" s="111"/>
+      <c r="BX10" s="111"/>
+      <c r="BY10" s="111"/>
+      <c r="BZ10" s="111"/>
+      <c r="CA10" s="111"/>
+      <c r="CB10" s="111"/>
+    </row>
+    <row r="11" spans="1:80" ht="23.25">
       <c r="A11" s="31"/>
       <c r="B11" s="40"/>
-      <c r="C11" s="75">
+      <c r="C11" s="73">
         <v>5</v>
       </c>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
       <c r="F11" s="40"/>
-      <c r="G11" s="75">
+      <c r="G11" s="73">
         <v>7</v>
       </c>
-      <c r="H11" s="75"/>
-      <c r="I11" s="75"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
       <c r="J11" s="40"/>
-      <c r="K11" s="75">
+      <c r="K11" s="73">
         <v>2</v>
       </c>
-      <c r="L11" s="75"/>
+      <c r="L11" s="73"/>
       <c r="M11" s="40"/>
-      <c r="N11" s="75">
+      <c r="N11" s="73">
         <v>3</v>
       </c>
-      <c r="O11" s="75"/>
+      <c r="O11" s="73"/>
       <c r="P11" s="40"/>
-      <c r="Q11" s="75">
+      <c r="Q11" s="73">
         <v>4</v>
       </c>
-      <c r="R11" s="75"/>
+      <c r="R11" s="73"/>
       <c r="S11" s="40"/>
-      <c r="T11" s="75">
+      <c r="T11" s="73">
         <v>1</v>
       </c>
-      <c r="U11" s="75"/>
-      <c r="V11" s="75"/>
+      <c r="U11" s="73"/>
+      <c r="V11" s="73"/>
       <c r="W11" s="40"/>
-      <c r="X11" s="75">
+      <c r="X11" s="73">
         <v>6</v>
       </c>
-      <c r="Y11" s="75"/>
-      <c r="Z11" s="75"/>
+      <c r="Y11" s="73"/>
+      <c r="Z11" s="73"/>
       <c r="AA11" s="40"/>
-      <c r="AB11" s="75">
+      <c r="AB11" s="73">
         <v>0</v>
       </c>
-      <c r="AC11" s="75"/>
-      <c r="AD11" s="75"/>
+      <c r="AC11" s="73"/>
+      <c r="AD11" s="73"/>
       <c r="AE11" s="40"/>
-      <c r="AF11" s="75">
+      <c r="AF11" s="73">
         <v>8</v>
       </c>
-      <c r="AG11" s="75"/>
+      <c r="AG11" s="73"/>
       <c r="AH11" s="40"/>
-      <c r="AI11" s="75">
+      <c r="AI11" s="73">
         <v>9</v>
       </c>
-      <c r="AJ11" s="75"/>
-      <c r="AK11" s="75"/>
+      <c r="AJ11" s="73"/>
+      <c r="AK11" s="73"/>
       <c r="AL11" s="41"/>
-    </row>
-    <row r="12" spans="1:38" ht="23.25">
+      <c r="AR11" s="112"/>
+      <c r="AS11" s="112"/>
+      <c r="AT11" s="112"/>
+      <c r="AU11" s="112"/>
+      <c r="AV11" s="112"/>
+      <c r="AW11" s="111"/>
+      <c r="AX11" s="112"/>
+      <c r="AY11" s="112"/>
+      <c r="AZ11" s="112"/>
+      <c r="BA11" s="111"/>
+      <c r="BB11" s="112"/>
+      <c r="BC11" s="112"/>
+      <c r="BD11" s="111"/>
+      <c r="BE11" s="112"/>
+      <c r="BF11" s="112"/>
+      <c r="BG11" s="111"/>
+      <c r="BH11" s="112"/>
+      <c r="BI11" s="112"/>
+      <c r="BJ11" s="111"/>
+      <c r="BK11" s="112"/>
+      <c r="BL11" s="112"/>
+      <c r="BM11" s="112"/>
+      <c r="BN11" s="111"/>
+      <c r="BO11" s="112"/>
+      <c r="BP11" s="112"/>
+      <c r="BQ11" s="112"/>
+      <c r="BR11" s="111"/>
+      <c r="BS11" s="112"/>
+      <c r="BT11" s="112"/>
+      <c r="BU11" s="112"/>
+      <c r="BV11" s="111"/>
+      <c r="BW11" s="112"/>
+      <c r="BX11" s="112"/>
+      <c r="BY11" s="111"/>
+      <c r="BZ11" s="112"/>
+      <c r="CA11" s="112"/>
+      <c r="CB11" s="112"/>
+    </row>
+    <row r="12" spans="1:80" ht="23.25">
       <c r="A12" s="31"/>
       <c r="B12" s="36" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F12" s="35"/>
       <c r="G12" s="35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H12" s="35" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="I12" s="35" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="J12" s="35"/>
       <c r="K12" s="35" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L12" s="35" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="M12" s="35"/>
       <c r="N12" s="35" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O12" s="35" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="P12" s="35"/>
       <c r="Q12" s="35" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="R12" s="35" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="S12" s="35"/>
       <c r="T12" s="35" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U12" s="35" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="V12" s="35" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="W12" s="35"/>
       <c r="X12" s="35" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="Y12" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z12" s="35" t="s">
         <v>19</v>
-      </c>
-      <c r="Z12" s="35" t="s">
-        <v>13</v>
       </c>
       <c r="AA12" s="35"/>
       <c r="AB12" s="35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AC12" s="35" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AD12" s="35" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AE12" s="35"/>
       <c r="AF12" s="35" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="AG12" s="35" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="AH12" s="35"/>
       <c r="AI12" s="35" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AJ12" s="35" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK12" s="35" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="AL12" s="39"/>
-    </row>
-    <row r="13" spans="1:38" ht="23.25">
+      <c r="AR12" s="111"/>
+      <c r="AS12" s="111"/>
+      <c r="AT12" s="111"/>
+      <c r="AU12" s="111"/>
+      <c r="AV12" s="111"/>
+      <c r="AW12" s="111"/>
+      <c r="AX12" s="111"/>
+      <c r="AY12" s="111"/>
+      <c r="AZ12" s="111"/>
+      <c r="BA12" s="111"/>
+      <c r="BB12" s="111"/>
+      <c r="BC12" s="111"/>
+      <c r="BD12" s="111"/>
+      <c r="BE12" s="111"/>
+      <c r="BF12" s="111"/>
+      <c r="BG12" s="111"/>
+      <c r="BH12" s="111"/>
+      <c r="BI12" s="111"/>
+      <c r="BJ12" s="111"/>
+      <c r="BK12" s="111"/>
+      <c r="BL12" s="111"/>
+      <c r="BM12" s="111"/>
+      <c r="BN12" s="111"/>
+      <c r="BO12" s="111"/>
+      <c r="BP12" s="111"/>
+      <c r="BQ12" s="111"/>
+      <c r="BR12" s="111"/>
+      <c r="BS12" s="111"/>
+      <c r="BT12" s="111"/>
+      <c r="BU12" s="111"/>
+      <c r="BV12" s="111"/>
+      <c r="BW12" s="111"/>
+      <c r="BX12" s="111"/>
+      <c r="BY12" s="111"/>
+      <c r="BZ12" s="111"/>
+      <c r="CA12" s="111"/>
+      <c r="CB12" s="111"/>
+    </row>
+    <row r="13" spans="1:80" ht="23.25">
       <c r="A13" s="31"/>
       <c r="B13" s="36" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F13" s="35"/>
       <c r="G13" s="35" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H13" s="35" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="I13" s="35" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="J13" s="35"/>
       <c r="K13" s="35" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="L13" s="35" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="M13" s="35"/>
       <c r="N13" s="35" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O13" s="35" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="P13" s="35"/>
       <c r="Q13" s="35" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="R13" s="35" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S13" s="35"/>
       <c r="T13" s="35" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="U13" s="35" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="V13" s="35" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="W13" s="35"/>
       <c r="X13" s="35" t="s">
         <v>4</v>
       </c>
       <c r="Y13" s="35" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="Z13" s="35" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA13" s="35"/>
       <c r="AB13" s="35" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AC13" s="35" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AD13" s="35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE13" s="35"/>
       <c r="AF13" s="35" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AG13" s="35" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AH13" s="35"/>
       <c r="AI13" s="35" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AJ13" s="35" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="AK13" s="35" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AL13" s="39"/>
-    </row>
-    <row r="14" spans="1:38" ht="23.25">
+      <c r="AR13" s="111"/>
+      <c r="AS13" s="111"/>
+      <c r="AT13" s="111"/>
+      <c r="AU13" s="111"/>
+      <c r="AV13" s="111"/>
+      <c r="AW13" s="111"/>
+      <c r="AX13" s="111"/>
+      <c r="AY13" s="111"/>
+      <c r="AZ13" s="111"/>
+      <c r="BA13" s="111"/>
+      <c r="BB13" s="111"/>
+      <c r="BC13" s="111"/>
+      <c r="BD13" s="111"/>
+      <c r="BE13" s="111"/>
+      <c r="BF13" s="111"/>
+      <c r="BG13" s="111"/>
+      <c r="BH13" s="111"/>
+      <c r="BI13" s="111"/>
+      <c r="BJ13" s="111"/>
+      <c r="BK13" s="111"/>
+      <c r="BL13" s="111"/>
+      <c r="BM13" s="111"/>
+      <c r="BN13" s="111"/>
+      <c r="BO13" s="111"/>
+      <c r="BP13" s="111"/>
+      <c r="BQ13" s="111"/>
+      <c r="BR13" s="111"/>
+      <c r="BS13" s="111"/>
+      <c r="BT13" s="111"/>
+      <c r="BU13" s="111"/>
+      <c r="BV13" s="111"/>
+      <c r="BW13" s="111"/>
+      <c r="BX13" s="111"/>
+      <c r="BY13" s="111"/>
+      <c r="BZ13" s="111"/>
+      <c r="CA13" s="111"/>
+      <c r="CB13" s="111"/>
+    </row>
+    <row r="14" spans="1:80" ht="23.25">
       <c r="A14" s="31"/>
       <c r="B14" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F14" s="35"/>
       <c r="G14" s="35" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H14" s="35" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I14" s="35" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J14" s="35"/>
       <c r="K14" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" s="35" t="s">
         <v>21</v>
-      </c>
-      <c r="L14" s="35" t="s">
-        <v>7</v>
       </c>
       <c r="M14" s="35"/>
       <c r="N14" s="35" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="O14" s="35" t="s">
         <v>1</v>
       </c>
       <c r="P14" s="35"/>
       <c r="Q14" s="35" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="R14" s="35" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S14" s="35"/>
       <c r="T14" s="35" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="U14" s="35" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="V14" s="35" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W14" s="35"/>
       <c r="X14" s="35" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="Y14" s="35" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Z14" s="35" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="AA14" s="35"/>
       <c r="AB14" s="35" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AC14" s="35" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AD14" s="35" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="AE14" s="35"/>
       <c r="AF14" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG14" s="35" t="s">
         <v>4</v>
-      </c>
-      <c r="AG14" s="35" t="s">
-        <v>2</v>
       </c>
       <c r="AH14" s="35"/>
       <c r="AI14" s="35" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AJ14" s="35" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AK14" s="35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL14" s="39"/>
-    </row>
-    <row r="15" spans="1:38" ht="23.25">
+      <c r="AR14" s="111"/>
+      <c r="AS14" s="111"/>
+      <c r="AT14" s="111"/>
+      <c r="AU14" s="111"/>
+      <c r="AV14" s="111"/>
+      <c r="AW14" s="111"/>
+      <c r="AX14" s="111"/>
+      <c r="AY14" s="111"/>
+      <c r="AZ14" s="111"/>
+      <c r="BA14" s="111"/>
+      <c r="BB14" s="111"/>
+      <c r="BC14" s="111"/>
+      <c r="BD14" s="111"/>
+      <c r="BE14" s="111"/>
+      <c r="BF14" s="111"/>
+      <c r="BG14" s="111"/>
+      <c r="BH14" s="111"/>
+      <c r="BI14" s="111"/>
+      <c r="BJ14" s="111"/>
+      <c r="BK14" s="111"/>
+      <c r="BL14" s="111"/>
+      <c r="BM14" s="111"/>
+      <c r="BN14" s="111"/>
+      <c r="BO14" s="111"/>
+      <c r="BP14" s="111"/>
+      <c r="BQ14" s="111"/>
+      <c r="BR14" s="111"/>
+      <c r="BS14" s="111"/>
+      <c r="BT14" s="111"/>
+      <c r="BU14" s="111"/>
+      <c r="BV14" s="111"/>
+      <c r="BW14" s="111"/>
+      <c r="BX14" s="111"/>
+      <c r="BY14" s="111"/>
+      <c r="BZ14" s="111"/>
+      <c r="CA14" s="111"/>
+      <c r="CB14" s="111"/>
+    </row>
+    <row r="15" spans="1:80" ht="23.25">
       <c r="A15" s="31"/>
       <c r="B15" s="36" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F15" s="35"/>
       <c r="G15" s="35" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="H15" s="35" t="s">
         <v>7</v>
       </c>
       <c r="I15" s="35" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="J15" s="35"/>
       <c r="K15" s="35" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L15" s="35" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M15" s="35"/>
       <c r="N15" s="35" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="O15" s="35" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="P15" s="35"/>
       <c r="Q15" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="R15" s="35" t="s">
         <v>3</v>
-      </c>
-      <c r="R15" s="35" t="s">
-        <v>23</v>
       </c>
       <c r="S15" s="35"/>
       <c r="T15" s="35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U15" s="35" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="V15" s="35" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="W15" s="35"/>
       <c r="X15" s="35" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="Y15" s="35" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Z15" s="35" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="AA15" s="35"/>
       <c r="AB15" s="35" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AC15" s="35" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="AD15" s="35" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE15" s="35"/>
       <c r="AF15" s="35" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AG15" s="35" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AH15" s="35"/>
       <c r="AI15" s="35" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AJ15" s="35" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="AK15" s="35" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AL15" s="39"/>
-    </row>
-    <row r="16" spans="1:38" ht="23.25">
+      <c r="AR15" s="111"/>
+      <c r="AS15" s="111"/>
+      <c r="AT15" s="111"/>
+      <c r="AU15" s="111"/>
+      <c r="AV15" s="111"/>
+      <c r="AW15" s="111"/>
+      <c r="AX15" s="111"/>
+      <c r="AY15" s="111"/>
+      <c r="AZ15" s="111"/>
+      <c r="BA15" s="111"/>
+      <c r="BB15" s="111"/>
+      <c r="BC15" s="111"/>
+      <c r="BD15" s="111"/>
+      <c r="BE15" s="111"/>
+      <c r="BF15" s="111"/>
+      <c r="BG15" s="111"/>
+      <c r="BH15" s="111"/>
+      <c r="BI15" s="111"/>
+      <c r="BJ15" s="111"/>
+      <c r="BK15" s="111"/>
+      <c r="BL15" s="111"/>
+      <c r="BM15" s="111"/>
+      <c r="BN15" s="111"/>
+      <c r="BO15" s="111"/>
+      <c r="BP15" s="111"/>
+      <c r="BQ15" s="111"/>
+      <c r="BR15" s="111"/>
+      <c r="BS15" s="111"/>
+      <c r="BT15" s="111"/>
+      <c r="BU15" s="111"/>
+      <c r="BV15" s="111"/>
+      <c r="BW15" s="111"/>
+      <c r="BX15" s="111"/>
+      <c r="BY15" s="111"/>
+      <c r="BZ15" s="111"/>
+      <c r="CA15" s="111"/>
+      <c r="CB15" s="111"/>
+    </row>
+    <row r="16" spans="1:80" ht="23.25">
       <c r="A16" s="31"/>
       <c r="B16" s="36" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="E16" s="35" t="s">
         <v>18</v>
-      </c>
-      <c r="E16" s="35" t="s">
-        <v>15</v>
       </c>
       <c r="F16" s="35"/>
       <c r="G16" s="35" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="H16" s="35" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I16" s="35" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J16" s="35"/>
       <c r="K16" s="35" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="L16" s="35" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="M16" s="35"/>
       <c r="N16" s="35" t="s">
         <v>24</v>
       </c>
       <c r="O16" s="35" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="P16" s="35"/>
       <c r="Q16" s="35" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="R16" s="35" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="S16" s="35"/>
       <c r="T16" s="35" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="U16" s="35" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V16" s="35" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="W16" s="35"/>
       <c r="X16" s="35" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Y16" s="35" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Z16" s="35" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AA16" s="35"/>
       <c r="AB16" s="35" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="AC16" s="35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD16" s="35" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="AE16" s="35"/>
       <c r="AF16" s="35" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="AG16" s="35" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AH16" s="35"/>
       <c r="AI16" s="35" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="AJ16" s="35" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AK16" s="35" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AL16" s="39"/>
-    </row>
-    <row r="17" spans="1:38" ht="23.25">
+      <c r="AR16" s="111"/>
+      <c r="AS16" s="111"/>
+      <c r="AT16" s="111"/>
+      <c r="AU16" s="111"/>
+      <c r="AV16" s="111"/>
+      <c r="AW16" s="111"/>
+      <c r="AX16" s="111"/>
+      <c r="AY16" s="111"/>
+      <c r="AZ16" s="111"/>
+      <c r="BA16" s="111"/>
+      <c r="BB16" s="111"/>
+      <c r="BC16" s="111"/>
+      <c r="BD16" s="111"/>
+      <c r="BE16" s="111"/>
+      <c r="BF16" s="111"/>
+      <c r="BG16" s="111"/>
+      <c r="BH16" s="111"/>
+      <c r="BI16" s="111"/>
+      <c r="BJ16" s="111"/>
+      <c r="BK16" s="111"/>
+      <c r="BL16" s="111"/>
+      <c r="BM16" s="111"/>
+      <c r="BN16" s="111"/>
+      <c r="BO16" s="111"/>
+      <c r="BP16" s="111"/>
+      <c r="BQ16" s="111"/>
+      <c r="BR16" s="111"/>
+      <c r="BS16" s="111"/>
+      <c r="BT16" s="111"/>
+      <c r="BU16" s="111"/>
+      <c r="BV16" s="111"/>
+      <c r="BW16" s="111"/>
+      <c r="BX16" s="111"/>
+      <c r="BY16" s="111"/>
+      <c r="BZ16" s="111"/>
+      <c r="CA16" s="111"/>
+      <c r="CB16" s="111"/>
+    </row>
+    <row r="17" spans="1:80" ht="23.25">
       <c r="A17" s="31"/>
       <c r="B17" s="36" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F17" s="35"/>
       <c r="G17" s="35" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H17" s="35" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I17" s="35" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="J17" s="35"/>
       <c r="K17" s="35" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="L17" s="35" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="M17" s="35"/>
       <c r="N17" s="35" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="O17" s="35" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="P17" s="35"/>
       <c r="Q17" s="35" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R17" s="35" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="S17" s="35"/>
       <c r="T17" s="35" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="U17" s="35" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="V17" s="35" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="W17" s="35"/>
       <c r="X17" s="35" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Y17" s="35" t="s">
         <v>3</v>
       </c>
       <c r="Z17" s="35" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="AA17" s="35"/>
       <c r="AB17" s="35" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="AC17" s="35" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="AD17" s="35" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="AE17" s="35"/>
       <c r="AF17" s="35" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AG17" s="35" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AH17" s="35"/>
       <c r="AI17" s="35" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AJ17" s="35" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="AK17" s="35" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AL17" s="39"/>
-    </row>
-    <row r="18" spans="1:38" ht="23.25">
+      <c r="AR17" s="111"/>
+      <c r="AS17" s="111"/>
+      <c r="AT17" s="111"/>
+      <c r="AU17" s="111"/>
+      <c r="AV17" s="111"/>
+      <c r="AW17" s="111"/>
+      <c r="AX17" s="111"/>
+      <c r="AY17" s="111"/>
+      <c r="AZ17" s="111"/>
+      <c r="BA17" s="111"/>
+      <c r="BB17" s="111"/>
+      <c r="BC17" s="111"/>
+      <c r="BD17" s="111"/>
+      <c r="BE17" s="111"/>
+      <c r="BF17" s="111"/>
+      <c r="BG17" s="111"/>
+      <c r="BH17" s="111"/>
+      <c r="BI17" s="111"/>
+      <c r="BJ17" s="111"/>
+      <c r="BK17" s="111"/>
+      <c r="BL17" s="111"/>
+      <c r="BM17" s="111"/>
+      <c r="BN17" s="111"/>
+      <c r="BO17" s="111"/>
+      <c r="BP17" s="111"/>
+      <c r="BQ17" s="111"/>
+      <c r="BR17" s="111"/>
+      <c r="BS17" s="111"/>
+      <c r="BT17" s="111"/>
+      <c r="BU17" s="111"/>
+      <c r="BV17" s="111"/>
+      <c r="BW17" s="111"/>
+      <c r="BX17" s="111"/>
+      <c r="BY17" s="111"/>
+      <c r="BZ17" s="111"/>
+      <c r="CA17" s="111"/>
+      <c r="CB17" s="111"/>
+    </row>
+    <row r="18" spans="1:80" ht="23.25">
       <c r="A18" s="31"/>
       <c r="B18" s="36"/>
-      <c r="C18" s="75">
+      <c r="C18" s="73">
         <v>5</v>
       </c>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
       <c r="F18" s="40"/>
-      <c r="G18" s="75">
+      <c r="G18" s="73">
         <v>7</v>
       </c>
-      <c r="H18" s="75"/>
-      <c r="I18" s="75"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="73"/>
       <c r="J18" s="40"/>
-      <c r="K18" s="75">
+      <c r="K18" s="73">
         <v>2</v>
       </c>
-      <c r="L18" s="75"/>
+      <c r="L18" s="73"/>
       <c r="M18" s="40"/>
-      <c r="N18" s="75">
+      <c r="N18" s="73">
         <v>3</v>
       </c>
-      <c r="O18" s="75"/>
+      <c r="O18" s="73"/>
       <c r="P18" s="40"/>
-      <c r="Q18" s="75">
+      <c r="Q18" s="73">
         <v>4</v>
       </c>
-      <c r="R18" s="75"/>
+      <c r="R18" s="73"/>
       <c r="S18" s="40"/>
-      <c r="T18" s="75">
+      <c r="T18" s="73">
         <v>1</v>
       </c>
-      <c r="U18" s="75"/>
-      <c r="V18" s="75"/>
+      <c r="U18" s="73"/>
+      <c r="V18" s="73"/>
       <c r="W18" s="40"/>
-      <c r="X18" s="75">
+      <c r="X18" s="73">
         <v>6</v>
       </c>
-      <c r="Y18" s="75"/>
-      <c r="Z18" s="75"/>
+      <c r="Y18" s="73"/>
+      <c r="Z18" s="73"/>
       <c r="AA18" s="40"/>
-      <c r="AB18" s="75">
+      <c r="AB18" s="73">
         <v>0</v>
       </c>
-      <c r="AC18" s="75"/>
-      <c r="AD18" s="75"/>
+      <c r="AC18" s="73"/>
+      <c r="AD18" s="73"/>
       <c r="AE18" s="40"/>
-      <c r="AF18" s="75">
+      <c r="AF18" s="73">
         <v>8</v>
       </c>
-      <c r="AG18" s="75"/>
+      <c r="AG18" s="73"/>
       <c r="AH18" s="40"/>
-      <c r="AI18" s="75">
+      <c r="AI18" s="73">
         <v>9</v>
       </c>
-      <c r="AJ18" s="75"/>
-      <c r="AK18" s="75"/>
+      <c r="AJ18" s="73"/>
+      <c r="AK18" s="73"/>
       <c r="AL18" s="41"/>
-    </row>
-    <row r="19" spans="1:38" ht="23.25">
+      <c r="AR18" s="112"/>
+      <c r="AS18" s="112"/>
+      <c r="AT18" s="112"/>
+      <c r="AU18" s="112"/>
+      <c r="AV18" s="112"/>
+      <c r="AW18" s="111"/>
+      <c r="AX18" s="112"/>
+      <c r="AY18" s="112"/>
+      <c r="AZ18" s="112"/>
+      <c r="BA18" s="111"/>
+      <c r="BB18" s="112"/>
+      <c r="BC18" s="112"/>
+      <c r="BD18" s="111"/>
+      <c r="BE18" s="112"/>
+      <c r="BF18" s="112"/>
+      <c r="BG18" s="111"/>
+      <c r="BH18" s="112"/>
+      <c r="BI18" s="112"/>
+      <c r="BJ18" s="111"/>
+      <c r="BK18" s="112"/>
+      <c r="BL18" s="112"/>
+      <c r="BM18" s="112"/>
+      <c r="BN18" s="111"/>
+      <c r="BO18" s="112"/>
+      <c r="BP18" s="112"/>
+      <c r="BQ18" s="112"/>
+      <c r="BR18" s="111"/>
+      <c r="BS18" s="112"/>
+      <c r="BT18" s="112"/>
+      <c r="BU18" s="112"/>
+      <c r="BV18" s="111"/>
+      <c r="BW18" s="112"/>
+      <c r="BX18" s="112"/>
+      <c r="BY18" s="111"/>
+      <c r="BZ18" s="112"/>
+      <c r="CA18" s="112"/>
+      <c r="CB18" s="112"/>
+    </row>
+    <row r="19" spans="1:80" ht="23.25">
       <c r="A19" s="31"/>
       <c r="B19" s="36" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E19" s="35" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="35"/>
       <c r="G19" s="35" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H19" s="35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I19" s="35" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J19" s="35"/>
       <c r="K19" s="35" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="L19" s="35" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="M19" s="35"/>
       <c r="N19" s="35" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="O19" s="35" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="P19" s="35"/>
       <c r="Q19" s="35" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R19" s="35" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="S19" s="35"/>
       <c r="T19" s="35" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="U19" s="35" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="V19" s="35" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="W19" s="35"/>
       <c r="X19" s="35" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Y19" s="35" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z19" s="35" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AA19" s="35"/>
       <c r="AB19" s="35" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="AC19" s="35" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="AD19" s="35" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="AE19" s="35"/>
       <c r="AF19" s="35" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AG19" s="35" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AH19" s="35"/>
       <c r="AI19" s="35" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AJ19" s="35" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="AK19" s="35" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AL19" s="39"/>
-    </row>
-    <row r="20" spans="1:38" ht="23.25">
+      <c r="AR19" s="111"/>
+      <c r="AS19" s="111"/>
+      <c r="AT19" s="111"/>
+      <c r="AU19" s="111"/>
+      <c r="AV19" s="111"/>
+      <c r="AW19" s="111"/>
+      <c r="AX19" s="111"/>
+      <c r="AY19" s="111"/>
+      <c r="AZ19" s="111"/>
+      <c r="BA19" s="111"/>
+      <c r="BB19" s="111"/>
+      <c r="BC19" s="111"/>
+      <c r="BD19" s="111"/>
+      <c r="BE19" s="111"/>
+      <c r="BF19" s="111"/>
+      <c r="BG19" s="111"/>
+      <c r="BH19" s="111"/>
+      <c r="BI19" s="111"/>
+      <c r="BJ19" s="111"/>
+      <c r="BK19" s="111"/>
+      <c r="BL19" s="111"/>
+      <c r="BM19" s="111"/>
+      <c r="BN19" s="111"/>
+      <c r="BO19" s="111"/>
+      <c r="BP19" s="111"/>
+      <c r="BQ19" s="111"/>
+      <c r="BR19" s="111"/>
+      <c r="BS19" s="111"/>
+      <c r="BT19" s="111"/>
+      <c r="BU19" s="111"/>
+      <c r="BV19" s="111"/>
+      <c r="BW19" s="111"/>
+      <c r="BX19" s="111"/>
+      <c r="BY19" s="111"/>
+      <c r="BZ19" s="111"/>
+      <c r="CA19" s="111"/>
+      <c r="CB19" s="111"/>
+    </row>
+    <row r="20" spans="1:80" ht="23.25">
       <c r="A20" s="31"/>
       <c r="B20" s="36" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E20" s="35" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F20" s="35"/>
       <c r="G20" s="35" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H20" s="35" t="s">
         <v>24</v>
       </c>
       <c r="I20" s="35" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J20" s="35"/>
       <c r="K20" s="35" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="L20" s="35" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="M20" s="35"/>
       <c r="N20" s="35" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O20" s="35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P20" s="35"/>
       <c r="Q20" s="35" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="R20" s="35" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="S20" s="35"/>
       <c r="T20" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="U20" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="V20" s="35" t="s">
         <v>4</v>
-      </c>
-      <c r="U20" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="V20" s="35" t="s">
-        <v>25</v>
       </c>
       <c r="W20" s="35"/>
       <c r="X20" s="35" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y20" s="35" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="Z20" s="35" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AA20" s="35"/>
       <c r="AB20" s="35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC20" s="35" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="AD20" s="35" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="AE20" s="35"/>
       <c r="AF20" s="35" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="AG20" s="35" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AH20" s="35"/>
       <c r="AI20" s="35" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="35" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="AK20" s="35" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="AL20" s="39"/>
-    </row>
-    <row r="21" spans="1:38" ht="23.25">
+      <c r="AR20" s="111"/>
+      <c r="AS20" s="111"/>
+      <c r="AT20" s="111"/>
+      <c r="AU20" s="111"/>
+      <c r="AV20" s="111"/>
+      <c r="AW20" s="111"/>
+      <c r="AX20" s="111"/>
+      <c r="AY20" s="111"/>
+      <c r="AZ20" s="111"/>
+      <c r="BA20" s="111"/>
+      <c r="BB20" s="111"/>
+      <c r="BC20" s="111"/>
+      <c r="BD20" s="111"/>
+      <c r="BE20" s="111"/>
+      <c r="BF20" s="111"/>
+      <c r="BG20" s="111"/>
+      <c r="BH20" s="111"/>
+      <c r="BI20" s="111"/>
+      <c r="BJ20" s="111"/>
+      <c r="BK20" s="111"/>
+      <c r="BL20" s="111"/>
+      <c r="BM20" s="111"/>
+      <c r="BN20" s="111"/>
+      <c r="BO20" s="111"/>
+      <c r="BP20" s="111"/>
+      <c r="BQ20" s="111"/>
+      <c r="BR20" s="111"/>
+      <c r="BS20" s="111"/>
+      <c r="BT20" s="111"/>
+      <c r="BU20" s="111"/>
+      <c r="BV20" s="111"/>
+      <c r="BW20" s="111"/>
+      <c r="BX20" s="111"/>
+      <c r="BY20" s="111"/>
+      <c r="BZ20" s="111"/>
+      <c r="CA20" s="111"/>
+      <c r="CB20" s="111"/>
+    </row>
+    <row r="21" spans="1:80" ht="23.25">
       <c r="A21" s="31"/>
       <c r="B21" s="36" t="s">
         <v>14</v>
@@ -3703,1090 +4352,1534 @@
         <v>12</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="F21" s="35"/>
       <c r="G21" s="35" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H21" s="35" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I21" s="35" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="J21" s="35"/>
       <c r="K21" s="35" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L21" s="35" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="M21" s="35"/>
       <c r="N21" s="35" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="O21" s="35" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P21" s="35"/>
       <c r="Q21" s="35" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="R21" s="35" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="S21" s="35"/>
       <c r="T21" s="35" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U21" s="35" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="V21" s="35" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="W21" s="35"/>
       <c r="X21" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y21" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="Y21" s="35" t="s">
-        <v>19</v>
-      </c>
       <c r="Z21" s="35" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AA21" s="35"/>
       <c r="AB21" s="35" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC21" s="35" t="s">
         <v>11</v>
       </c>
       <c r="AD21" s="35" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="AE21" s="35"/>
       <c r="AF21" s="35" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="AG21" s="35" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH21" s="35"/>
       <c r="AI21" s="35" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AJ21" s="35" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AK21" s="35" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AL21" s="39"/>
-    </row>
-    <row r="22" spans="1:38" ht="23.25">
+      <c r="AR21" s="111"/>
+      <c r="AS21" s="111"/>
+      <c r="AT21" s="111"/>
+      <c r="AU21" s="111"/>
+      <c r="AV21" s="111"/>
+      <c r="AW21" s="111"/>
+      <c r="AX21" s="111"/>
+      <c r="AY21" s="111"/>
+      <c r="AZ21" s="111"/>
+      <c r="BA21" s="111"/>
+      <c r="BB21" s="111"/>
+      <c r="BC21" s="111"/>
+      <c r="BD21" s="111"/>
+      <c r="BE21" s="111"/>
+      <c r="BF21" s="111"/>
+      <c r="BG21" s="111"/>
+      <c r="BH21" s="111"/>
+      <c r="BI21" s="111"/>
+      <c r="BJ21" s="111"/>
+      <c r="BK21" s="111"/>
+      <c r="BL21" s="111"/>
+      <c r="BM21" s="111"/>
+      <c r="BN21" s="111"/>
+      <c r="BO21" s="111"/>
+      <c r="BP21" s="111"/>
+      <c r="BQ21" s="111"/>
+      <c r="BR21" s="111"/>
+      <c r="BS21" s="111"/>
+      <c r="BT21" s="111"/>
+      <c r="BU21" s="111"/>
+      <c r="BV21" s="111"/>
+      <c r="BW21" s="111"/>
+      <c r="BX21" s="111"/>
+      <c r="BY21" s="111"/>
+      <c r="BZ21" s="111"/>
+      <c r="CA21" s="111"/>
+      <c r="CB21" s="111"/>
+    </row>
+    <row r="22" spans="1:80" ht="23.25">
       <c r="A22" s="31"/>
       <c r="B22" s="36" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E22" s="35" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F22" s="35"/>
       <c r="G22" s="35" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="H22" s="35" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I22" s="35" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J22" s="35"/>
       <c r="K22" s="35" t="s">
         <v>19</v>
       </c>
       <c r="L22" s="35" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="M22" s="35"/>
       <c r="N22" s="35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O22" s="35" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="P22" s="35"/>
       <c r="Q22" s="35" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="R22" s="35" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="S22" s="35"/>
       <c r="T22" s="35" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U22" s="35" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="V22" s="35" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="W22" s="35"/>
       <c r="X22" s="35" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="Y22" s="35" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="Z22" s="35" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="AA22" s="35"/>
       <c r="AB22" s="35" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AC22" s="35" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AD22" s="35" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="AE22" s="35"/>
       <c r="AF22" s="35" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AG22" s="35" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AH22" s="35"/>
       <c r="AI22" s="35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ22" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK22" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="AK22" s="35" t="s">
-        <v>23</v>
-      </c>
       <c r="AL22" s="39"/>
-    </row>
-    <row r="23" spans="1:38" ht="23.25">
+      <c r="AR22" s="111"/>
+      <c r="AS22" s="111"/>
+      <c r="AT22" s="111"/>
+      <c r="AU22" s="111"/>
+      <c r="AV22" s="111"/>
+      <c r="AW22" s="111"/>
+      <c r="AX22" s="111"/>
+      <c r="AY22" s="111"/>
+      <c r="AZ22" s="111"/>
+      <c r="BA22" s="111"/>
+      <c r="BB22" s="111"/>
+      <c r="BC22" s="111"/>
+      <c r="BD22" s="111"/>
+      <c r="BE22" s="111"/>
+      <c r="BF22" s="111"/>
+      <c r="BG22" s="111"/>
+      <c r="BH22" s="111"/>
+      <c r="BI22" s="111"/>
+      <c r="BJ22" s="111"/>
+      <c r="BK22" s="111"/>
+      <c r="BL22" s="111"/>
+      <c r="BM22" s="111"/>
+      <c r="BN22" s="111"/>
+      <c r="BO22" s="111"/>
+      <c r="BP22" s="111"/>
+      <c r="BQ22" s="111"/>
+      <c r="BR22" s="111"/>
+      <c r="BS22" s="111"/>
+      <c r="BT22" s="111"/>
+      <c r="BU22" s="111"/>
+      <c r="BV22" s="111"/>
+      <c r="BW22" s="111"/>
+      <c r="BX22" s="111"/>
+      <c r="BY22" s="111"/>
+      <c r="BZ22" s="111"/>
+      <c r="CA22" s="111"/>
+      <c r="CB22" s="111"/>
+    </row>
+    <row r="23" spans="1:80" ht="23.25">
       <c r="A23" s="31"/>
       <c r="B23" s="36" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="F23" s="35"/>
       <c r="G23" s="35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H23" s="35" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I23" s="35" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J23" s="35"/>
       <c r="K23" s="35" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="L23" s="35" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M23" s="35"/>
       <c r="N23" s="35" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O23" s="35" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="P23" s="35"/>
       <c r="Q23" s="35" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="R23" s="35" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="S23" s="35"/>
       <c r="T23" s="35" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="U23" s="35" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="V23" s="35" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="W23" s="35"/>
       <c r="X23" s="35" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="Y23" s="35" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Z23" s="35" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="AA23" s="35"/>
       <c r="AB23" s="35" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AC23" s="35" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AD23" s="35" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AE23" s="35"/>
       <c r="AF23" s="35" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AG23" s="35" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AH23" s="35"/>
       <c r="AI23" s="35" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AJ23" s="35" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AK23" s="35" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL23" s="39"/>
-    </row>
-    <row r="24" spans="1:38" ht="23.25">
+      <c r="AR23" s="111"/>
+      <c r="AS23" s="111"/>
+      <c r="AT23" s="111"/>
+      <c r="AU23" s="111"/>
+      <c r="AV23" s="111"/>
+      <c r="AW23" s="111"/>
+      <c r="AX23" s="111"/>
+      <c r="AY23" s="111"/>
+      <c r="AZ23" s="111"/>
+      <c r="BA23" s="111"/>
+      <c r="BB23" s="111"/>
+      <c r="BC23" s="111"/>
+      <c r="BD23" s="111"/>
+      <c r="BE23" s="111"/>
+      <c r="BF23" s="111"/>
+      <c r="BG23" s="111"/>
+      <c r="BH23" s="111"/>
+      <c r="BI23" s="111"/>
+      <c r="BJ23" s="111"/>
+      <c r="BK23" s="111"/>
+      <c r="BL23" s="111"/>
+      <c r="BM23" s="111"/>
+      <c r="BN23" s="111"/>
+      <c r="BO23" s="111"/>
+      <c r="BP23" s="111"/>
+      <c r="BQ23" s="111"/>
+      <c r="BR23" s="111"/>
+      <c r="BS23" s="111"/>
+      <c r="BT23" s="111"/>
+      <c r="BU23" s="111"/>
+      <c r="BV23" s="111"/>
+      <c r="BW23" s="111"/>
+      <c r="BX23" s="111"/>
+      <c r="BY23" s="111"/>
+      <c r="BZ23" s="111"/>
+      <c r="CA23" s="111"/>
+      <c r="CB23" s="111"/>
+    </row>
+    <row r="24" spans="1:80" ht="23.25">
       <c r="A24" s="31"/>
       <c r="B24" s="36" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D24" s="35" t="s">
         <v>16</v>
       </c>
       <c r="E24" s="35" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F24" s="35"/>
       <c r="G24" s="35" t="s">
         <v>21</v>
       </c>
       <c r="H24" s="35" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I24" s="35" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J24" s="35"/>
       <c r="K24" s="35" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L24" s="35" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="M24" s="35"/>
       <c r="N24" s="35" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="O24" s="35" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="P24" s="35"/>
       <c r="Q24" s="35" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R24" s="35" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="S24" s="35"/>
       <c r="T24" s="35" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="U24" s="35" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="V24" s="35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="W24" s="35"/>
       <c r="X24" s="35" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="Y24" s="35" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="Z24" s="35" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="AA24" s="35"/>
       <c r="AB24" s="35" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC24" s="35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AD24" s="35" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE24" s="35"/>
       <c r="AF24" s="35" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AG24" s="35" t="s">
         <v>4</v>
       </c>
       <c r="AH24" s="35"/>
       <c r="AI24" s="35" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AJ24" s="35" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AK24" s="35" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="AL24" s="39"/>
-    </row>
-    <row r="25" spans="1:38" ht="23.25">
+      <c r="AR24" s="111"/>
+      <c r="AS24" s="111"/>
+      <c r="AT24" s="111"/>
+      <c r="AU24" s="111"/>
+      <c r="AV24" s="111"/>
+      <c r="AW24" s="111"/>
+      <c r="AX24" s="111"/>
+      <c r="AY24" s="111"/>
+      <c r="AZ24" s="111"/>
+      <c r="BA24" s="111"/>
+      <c r="BB24" s="111"/>
+      <c r="BC24" s="111"/>
+      <c r="BD24" s="111"/>
+      <c r="BE24" s="111"/>
+      <c r="BF24" s="111"/>
+      <c r="BG24" s="111"/>
+      <c r="BH24" s="111"/>
+      <c r="BI24" s="111"/>
+      <c r="BJ24" s="111"/>
+      <c r="BK24" s="111"/>
+      <c r="BL24" s="111"/>
+      <c r="BM24" s="111"/>
+      <c r="BN24" s="111"/>
+      <c r="BO24" s="111"/>
+      <c r="BP24" s="111"/>
+      <c r="BQ24" s="111"/>
+      <c r="BR24" s="111"/>
+      <c r="BS24" s="111"/>
+      <c r="BT24" s="111"/>
+      <c r="BU24" s="111"/>
+      <c r="BV24" s="111"/>
+      <c r="BW24" s="111"/>
+      <c r="BX24" s="111"/>
+      <c r="BY24" s="111"/>
+      <c r="BZ24" s="111"/>
+      <c r="CA24" s="111"/>
+      <c r="CB24" s="111"/>
+    </row>
+    <row r="25" spans="1:80" ht="23.25">
       <c r="A25" s="31"/>
       <c r="B25" s="36"/>
-      <c r="C25" s="75">
+      <c r="C25" s="73">
         <v>5</v>
       </c>
-      <c r="D25" s="75"/>
-      <c r="E25" s="75"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
       <c r="F25" s="40"/>
-      <c r="G25" s="75">
+      <c r="G25" s="73">
         <v>7</v>
       </c>
-      <c r="H25" s="75"/>
-      <c r="I25" s="75"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="73"/>
       <c r="J25" s="40"/>
-      <c r="K25" s="75">
+      <c r="K25" s="73">
         <v>2</v>
       </c>
-      <c r="L25" s="75"/>
+      <c r="L25" s="73"/>
       <c r="M25" s="40"/>
-      <c r="N25" s="75">
+      <c r="N25" s="73">
         <v>3</v>
       </c>
-      <c r="O25" s="75"/>
+      <c r="O25" s="73"/>
       <c r="P25" s="40"/>
-      <c r="Q25" s="75">
+      <c r="Q25" s="73">
         <v>4</v>
       </c>
-      <c r="R25" s="75"/>
+      <c r="R25" s="73"/>
       <c r="S25" s="40"/>
-      <c r="T25" s="75">
+      <c r="T25" s="73">
         <v>1</v>
       </c>
-      <c r="U25" s="75"/>
-      <c r="V25" s="75"/>
+      <c r="U25" s="73"/>
+      <c r="V25" s="73"/>
       <c r="W25" s="40"/>
-      <c r="X25" s="75">
+      <c r="X25" s="73">
         <v>6</v>
       </c>
-      <c r="Y25" s="75"/>
-      <c r="Z25" s="75"/>
+      <c r="Y25" s="73"/>
+      <c r="Z25" s="73"/>
       <c r="AA25" s="40"/>
-      <c r="AB25" s="75">
+      <c r="AB25" s="73">
         <v>0</v>
       </c>
-      <c r="AC25" s="75"/>
-      <c r="AD25" s="75"/>
+      <c r="AC25" s="73"/>
+      <c r="AD25" s="73"/>
       <c r="AE25" s="40"/>
-      <c r="AF25" s="75">
+      <c r="AF25" s="73">
         <v>8</v>
       </c>
-      <c r="AG25" s="75"/>
+      <c r="AG25" s="73"/>
       <c r="AH25" s="40"/>
-      <c r="AI25" s="75">
+      <c r="AI25" s="73">
         <v>9</v>
       </c>
-      <c r="AJ25" s="75"/>
-      <c r="AK25" s="75"/>
+      <c r="AJ25" s="73"/>
+      <c r="AK25" s="73"/>
       <c r="AL25" s="41"/>
-    </row>
-    <row r="26" spans="1:38" ht="23.25">
+      <c r="AR25" s="112"/>
+      <c r="AS25" s="112"/>
+      <c r="AT25" s="112"/>
+      <c r="AU25" s="112"/>
+      <c r="AV25" s="112"/>
+      <c r="AW25" s="111"/>
+      <c r="AX25" s="112"/>
+      <c r="AY25" s="112"/>
+      <c r="AZ25" s="112"/>
+      <c r="BA25" s="111"/>
+      <c r="BB25" s="112"/>
+      <c r="BC25" s="112"/>
+      <c r="BD25" s="111"/>
+      <c r="BE25" s="112"/>
+      <c r="BF25" s="112"/>
+      <c r="BG25" s="111"/>
+      <c r="BH25" s="112"/>
+      <c r="BI25" s="112"/>
+      <c r="BJ25" s="111"/>
+      <c r="BK25" s="112"/>
+      <c r="BL25" s="112"/>
+      <c r="BM25" s="112"/>
+      <c r="BN25" s="111"/>
+      <c r="BO25" s="112"/>
+      <c r="BP25" s="112"/>
+      <c r="BQ25" s="112"/>
+      <c r="BR25" s="111"/>
+      <c r="BS25" s="112"/>
+      <c r="BT25" s="112"/>
+      <c r="BU25" s="112"/>
+      <c r="BV25" s="111"/>
+      <c r="BW25" s="112"/>
+      <c r="BX25" s="112"/>
+      <c r="BY25" s="111"/>
+      <c r="BZ25" s="112"/>
+      <c r="CA25" s="112"/>
+      <c r="CB25" s="112"/>
+    </row>
+    <row r="26" spans="1:80" ht="23.25">
       <c r="A26" s="31"/>
       <c r="B26" s="36" t="s">
         <v>18</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E26" s="35" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F26" s="35"/>
       <c r="G26" s="35" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H26" s="35" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I26" s="35" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="J26" s="35"/>
       <c r="K26" s="35" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="L26" s="35" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="M26" s="35"/>
       <c r="N26" s="35" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="O26" s="35" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="P26" s="35"/>
       <c r="Q26" s="35" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R26" s="35" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="S26" s="35"/>
       <c r="T26" s="35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U26" s="35" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="V26" s="35" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="W26" s="35"/>
       <c r="X26" s="35" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="Y26" s="35" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="Z26" s="35" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AA26" s="35"/>
       <c r="AB26" s="35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AC26" s="35" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AD26" s="35" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="AE26" s="35"/>
       <c r="AF26" s="35" t="s">
         <v>11</v>
       </c>
       <c r="AG26" s="35" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="AH26" s="35"/>
       <c r="AI26" s="35" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AJ26" s="35" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AK26" s="35" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="AL26" s="39"/>
-    </row>
-    <row r="27" spans="1:38" ht="23.25">
+      <c r="AR26" s="111"/>
+      <c r="AS26" s="111"/>
+      <c r="AT26" s="111"/>
+      <c r="AU26" s="111"/>
+      <c r="AV26" s="111"/>
+      <c r="AW26" s="111"/>
+      <c r="AX26" s="111"/>
+      <c r="AY26" s="111"/>
+      <c r="AZ26" s="111"/>
+      <c r="BA26" s="111"/>
+      <c r="BB26" s="111"/>
+      <c r="BC26" s="111"/>
+      <c r="BD26" s="111"/>
+      <c r="BE26" s="111"/>
+      <c r="BF26" s="111"/>
+      <c r="BG26" s="111"/>
+      <c r="BH26" s="111"/>
+      <c r="BI26" s="111"/>
+      <c r="BJ26" s="111"/>
+      <c r="BK26" s="111"/>
+      <c r="BL26" s="111"/>
+      <c r="BM26" s="111"/>
+      <c r="BN26" s="111"/>
+      <c r="BO26" s="111"/>
+      <c r="BP26" s="111"/>
+      <c r="BQ26" s="111"/>
+      <c r="BR26" s="111"/>
+      <c r="BS26" s="111"/>
+      <c r="BT26" s="111"/>
+      <c r="BU26" s="111"/>
+      <c r="BV26" s="111"/>
+      <c r="BW26" s="111"/>
+      <c r="BX26" s="111"/>
+      <c r="BY26" s="111"/>
+      <c r="BZ26" s="111"/>
+      <c r="CA26" s="111"/>
+      <c r="CB26" s="111"/>
+    </row>
+    <row r="27" spans="1:80" ht="23.25">
       <c r="A27" s="31"/>
       <c r="B27" s="36" t="s">
         <v>19</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E27" s="35" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="F27" s="35"/>
       <c r="G27" s="35" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H27" s="35" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I27" s="35" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J27" s="35"/>
       <c r="K27" s="35" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L27" s="35" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M27" s="35"/>
       <c r="N27" s="35" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="O27" s="35" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="P27" s="35"/>
       <c r="Q27" s="35" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="R27" s="35" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="S27" s="35"/>
       <c r="T27" s="35" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U27" s="35" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="V27" s="35" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="W27" s="35"/>
       <c r="X27" s="35" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="Y27" s="35" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="Z27" s="35" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AA27" s="35"/>
       <c r="AB27" s="35" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="AC27" s="35" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="AD27" s="35" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE27" s="35"/>
       <c r="AF27" s="35" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AG27" s="35" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AH27" s="35"/>
       <c r="AI27" s="35" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ27" s="35" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AK27" s="35" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AL27" s="39"/>
-    </row>
-    <row r="28" spans="1:38" ht="23.25">
+      <c r="AR27" s="111"/>
+      <c r="AS27" s="111"/>
+      <c r="AT27" s="111"/>
+      <c r="AU27" s="111"/>
+      <c r="AV27" s="111"/>
+      <c r="AW27" s="111"/>
+      <c r="AX27" s="111"/>
+      <c r="AY27" s="111"/>
+      <c r="AZ27" s="111"/>
+      <c r="BA27" s="111"/>
+      <c r="BB27" s="111"/>
+      <c r="BC27" s="111"/>
+      <c r="BD27" s="111"/>
+      <c r="BE27" s="111"/>
+      <c r="BF27" s="111"/>
+      <c r="BG27" s="111"/>
+      <c r="BH27" s="111"/>
+      <c r="BI27" s="111"/>
+      <c r="BJ27" s="111"/>
+      <c r="BK27" s="111"/>
+      <c r="BL27" s="111"/>
+      <c r="BM27" s="111"/>
+      <c r="BN27" s="111"/>
+      <c r="BO27" s="111"/>
+      <c r="BP27" s="111"/>
+      <c r="BQ27" s="111"/>
+      <c r="BR27" s="111"/>
+      <c r="BS27" s="111"/>
+      <c r="BT27" s="111"/>
+      <c r="BU27" s="111"/>
+      <c r="BV27" s="111"/>
+      <c r="BW27" s="111"/>
+      <c r="BX27" s="111"/>
+      <c r="BY27" s="111"/>
+      <c r="BZ27" s="111"/>
+      <c r="CA27" s="111"/>
+      <c r="CB27" s="111"/>
+    </row>
+    <row r="28" spans="1:80" ht="23.25">
       <c r="A28" s="31"/>
       <c r="B28" s="36" t="s">
         <v>20</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D28" s="35" t="s">
         <v>7</v>
       </c>
       <c r="E28" s="35" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F28" s="35"/>
       <c r="G28" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="I28" s="35" t="s">
         <v>18</v>
-      </c>
-      <c r="H28" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="I28" s="35" t="s">
-        <v>1</v>
       </c>
       <c r="J28" s="35"/>
       <c r="K28" s="35" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="L28" s="35" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="M28" s="35"/>
       <c r="N28" s="35" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="O28" s="35" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="P28" s="35"/>
       <c r="Q28" s="35" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="R28" s="35" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="S28" s="35"/>
       <c r="T28" s="35" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="U28" s="35" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="V28" s="35" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="W28" s="35"/>
       <c r="X28" s="35" t="s">
         <v>11</v>
       </c>
       <c r="Y28" s="35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Z28" s="35" t="s">
         <v>20</v>
       </c>
       <c r="AA28" s="35"/>
       <c r="AB28" s="35" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AC28" s="35" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AD28" s="35" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="AE28" s="35"/>
       <c r="AF28" s="35" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AG28" s="35" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH28" s="35"/>
       <c r="AI28" s="35" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ28" s="35" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AK28" s="35" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AL28" s="39"/>
-    </row>
-    <row r="29" spans="1:38" ht="23.25">
+      <c r="AR28" s="111"/>
+      <c r="AS28" s="111"/>
+      <c r="AT28" s="111"/>
+      <c r="AU28" s="111"/>
+      <c r="AV28" s="111"/>
+      <c r="AW28" s="111"/>
+      <c r="AX28" s="111"/>
+      <c r="AY28" s="111"/>
+      <c r="AZ28" s="111"/>
+      <c r="BA28" s="111"/>
+      <c r="BB28" s="111"/>
+      <c r="BC28" s="111"/>
+      <c r="BD28" s="111"/>
+      <c r="BE28" s="111"/>
+      <c r="BF28" s="111"/>
+      <c r="BG28" s="111"/>
+      <c r="BH28" s="111"/>
+      <c r="BI28" s="111"/>
+      <c r="BJ28" s="111"/>
+      <c r="BK28" s="111"/>
+      <c r="BL28" s="111"/>
+      <c r="BM28" s="111"/>
+      <c r="BN28" s="111"/>
+      <c r="BO28" s="111"/>
+      <c r="BP28" s="111"/>
+      <c r="BQ28" s="111"/>
+      <c r="BR28" s="111"/>
+      <c r="BS28" s="111"/>
+      <c r="BT28" s="111"/>
+      <c r="BU28" s="111"/>
+      <c r="BV28" s="111"/>
+      <c r="BW28" s="111"/>
+      <c r="BX28" s="111"/>
+      <c r="BY28" s="111"/>
+      <c r="BZ28" s="111"/>
+      <c r="CA28" s="111"/>
+      <c r="CB28" s="111"/>
+    </row>
+    <row r="29" spans="1:80" ht="23.25">
       <c r="A29" s="31"/>
       <c r="B29" s="36" t="s">
         <v>21</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E29" s="35" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F29" s="35"/>
       <c r="G29" s="35" t="s">
         <v>5</v>
       </c>
       <c r="H29" s="35" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I29" s="35" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="J29" s="35"/>
       <c r="K29" s="35" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="L29" s="35" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M29" s="35"/>
       <c r="N29" s="35" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="O29" s="35" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="P29" s="35"/>
       <c r="Q29" s="35" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="R29" s="35" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="S29" s="35"/>
       <c r="T29" s="35" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="U29" s="35" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="V29" s="35" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="W29" s="35"/>
       <c r="X29" s="35" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="Y29" s="35" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Z29" s="35" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AA29" s="35"/>
       <c r="AB29" s="35" t="s">
         <v>18</v>
       </c>
       <c r="AC29" s="35" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AD29" s="35" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AE29" s="35"/>
       <c r="AF29" s="35" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AG29" s="35" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AH29" s="35"/>
       <c r="AI29" s="35" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AJ29" s="35" t="s">
         <v>12</v>
       </c>
       <c r="AK29" s="35" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AL29" s="39"/>
-    </row>
-    <row r="30" spans="1:38" ht="23.25">
+      <c r="AR29" s="111"/>
+      <c r="AS29" s="111"/>
+      <c r="AT29" s="111"/>
+      <c r="AU29" s="111"/>
+      <c r="AV29" s="111"/>
+      <c r="AW29" s="111"/>
+      <c r="AX29" s="111"/>
+      <c r="AY29" s="111"/>
+      <c r="AZ29" s="111"/>
+      <c r="BA29" s="111"/>
+      <c r="BB29" s="111"/>
+      <c r="BC29" s="111"/>
+      <c r="BD29" s="111"/>
+      <c r="BE29" s="111"/>
+      <c r="BF29" s="111"/>
+      <c r="BG29" s="111"/>
+      <c r="BH29" s="111"/>
+      <c r="BI29" s="111"/>
+      <c r="BJ29" s="111"/>
+      <c r="BK29" s="111"/>
+      <c r="BL29" s="111"/>
+      <c r="BM29" s="111"/>
+      <c r="BN29" s="111"/>
+      <c r="BO29" s="111"/>
+      <c r="BP29" s="111"/>
+      <c r="BQ29" s="111"/>
+      <c r="BR29" s="111"/>
+      <c r="BS29" s="111"/>
+      <c r="BT29" s="111"/>
+      <c r="BU29" s="111"/>
+      <c r="BV29" s="111"/>
+      <c r="BW29" s="111"/>
+      <c r="BX29" s="111"/>
+      <c r="BY29" s="111"/>
+      <c r="BZ29" s="111"/>
+      <c r="CA29" s="111"/>
+      <c r="CB29" s="111"/>
+    </row>
+    <row r="30" spans="1:80" ht="23.25">
       <c r="A30" s="31"/>
       <c r="B30" s="36" t="s">
         <v>22</v>
       </c>
       <c r="C30" s="35" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E30" s="35" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F30" s="35"/>
       <c r="G30" s="35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H30" s="35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I30" s="35" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J30" s="35"/>
       <c r="K30" s="35" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="L30" s="35" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M30" s="35"/>
       <c r="N30" s="35" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="O30" s="35" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="P30" s="35"/>
       <c r="Q30" s="35" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R30" s="35" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="S30" s="35"/>
       <c r="T30" s="35" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="U30" s="35" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="V30" s="35" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="W30" s="35"/>
       <c r="X30" s="35" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="Y30" s="35" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="Z30" s="35" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AA30" s="35"/>
       <c r="AB30" s="35" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="AC30" s="35" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="AD30" s="35" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE30" s="35"/>
       <c r="AF30" s="35" t="s">
         <v>10</v>
       </c>
       <c r="AG30" s="35" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AH30" s="35"/>
       <c r="AI30" s="35" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AJ30" s="35" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AK30" s="35" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="AL30" s="39"/>
-    </row>
-    <row r="31" spans="1:38" ht="23.25">
+      <c r="AR30" s="111"/>
+      <c r="AS30" s="111"/>
+      <c r="AT30" s="111"/>
+      <c r="AU30" s="111"/>
+      <c r="AV30" s="111"/>
+      <c r="AW30" s="111"/>
+      <c r="AX30" s="111"/>
+      <c r="AY30" s="111"/>
+      <c r="AZ30" s="111"/>
+      <c r="BA30" s="111"/>
+      <c r="BB30" s="111"/>
+      <c r="BC30" s="111"/>
+      <c r="BD30" s="111"/>
+      <c r="BE30" s="111"/>
+      <c r="BF30" s="111"/>
+      <c r="BG30" s="111"/>
+      <c r="BH30" s="111"/>
+      <c r="BI30" s="111"/>
+      <c r="BJ30" s="111"/>
+      <c r="BK30" s="111"/>
+      <c r="BL30" s="111"/>
+      <c r="BM30" s="111"/>
+      <c r="BN30" s="111"/>
+      <c r="BO30" s="111"/>
+      <c r="BP30" s="111"/>
+      <c r="BQ30" s="111"/>
+      <c r="BR30" s="111"/>
+      <c r="BS30" s="111"/>
+      <c r="BT30" s="111"/>
+      <c r="BU30" s="111"/>
+      <c r="BV30" s="111"/>
+      <c r="BW30" s="111"/>
+      <c r="BX30" s="111"/>
+      <c r="BY30" s="111"/>
+      <c r="BZ30" s="111"/>
+      <c r="CA30" s="111"/>
+      <c r="CB30" s="111"/>
+    </row>
+    <row r="31" spans="1:80" ht="23.25">
       <c r="A31" s="31"/>
       <c r="B31" s="36" t="s">
         <v>23</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E31" s="35" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="F31" s="35"/>
       <c r="G31" s="35" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H31" s="35" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="I31" s="35" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="J31" s="35"/>
       <c r="K31" s="35" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="L31" s="35" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="M31" s="35"/>
       <c r="N31" s="35" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O31" s="35" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="P31" s="35"/>
       <c r="Q31" s="35" t="s">
         <v>13</v>
       </c>
       <c r="R31" s="35" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S31" s="35"/>
       <c r="T31" s="35" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="U31" s="35" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="V31" s="35" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="W31" s="35"/>
       <c r="X31" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y31" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="Y31" s="35" t="s">
-        <v>9</v>
-      </c>
       <c r="Z31" s="35" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="AA31" s="35"/>
       <c r="AB31" s="35" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="AC31" s="35" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AD31" s="35" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AE31" s="35"/>
       <c r="AF31" s="35" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="AG31" s="35" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AH31" s="35"/>
       <c r="AI31" s="35" t="s">
         <v>17</v>
       </c>
       <c r="AJ31" s="35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK31" s="35" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="AL31" s="39"/>
-    </row>
-    <row r="32" spans="1:38" ht="23.25">
+      <c r="AR31" s="111"/>
+      <c r="AS31" s="111"/>
+      <c r="AT31" s="111"/>
+      <c r="AU31" s="111"/>
+      <c r="AV31" s="111"/>
+      <c r="AW31" s="111"/>
+      <c r="AX31" s="111"/>
+      <c r="AY31" s="111"/>
+      <c r="AZ31" s="111"/>
+      <c r="BA31" s="111"/>
+      <c r="BB31" s="111"/>
+      <c r="BC31" s="111"/>
+      <c r="BD31" s="111"/>
+      <c r="BE31" s="111"/>
+      <c r="BF31" s="111"/>
+      <c r="BG31" s="111"/>
+      <c r="BH31" s="111"/>
+      <c r="BI31" s="111"/>
+      <c r="BJ31" s="111"/>
+      <c r="BK31" s="111"/>
+      <c r="BL31" s="111"/>
+      <c r="BM31" s="111"/>
+      <c r="BN31" s="111"/>
+      <c r="BO31" s="111"/>
+      <c r="BP31" s="111"/>
+      <c r="BQ31" s="111"/>
+      <c r="BR31" s="111"/>
+      <c r="BS31" s="111"/>
+      <c r="BT31" s="111"/>
+      <c r="BU31" s="111"/>
+      <c r="BV31" s="111"/>
+      <c r="BW31" s="111"/>
+      <c r="BX31" s="111"/>
+      <c r="BY31" s="111"/>
+      <c r="BZ31" s="111"/>
+      <c r="CA31" s="111"/>
+      <c r="CB31" s="111"/>
+    </row>
+    <row r="32" spans="1:80" ht="23.25">
       <c r="A32" s="31"/>
       <c r="B32" s="36" t="s">
         <v>24</v>
       </c>
       <c r="C32" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="35" t="s">
         <v>5</v>
-      </c>
-      <c r="D32" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="35" t="s">
-        <v>0</v>
       </c>
       <c r="F32" s="35"/>
       <c r="G32" s="35" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H32" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" s="35" t="s">
         <v>9</v>
-      </c>
-      <c r="I32" s="35" t="s">
-        <v>25</v>
       </c>
       <c r="J32" s="35"/>
       <c r="K32" s="35" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L32" s="35" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M32" s="35"/>
       <c r="N32" s="35" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="O32" s="35" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="P32" s="35"/>
       <c r="Q32" s="35" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R32" s="35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S32" s="35"/>
       <c r="T32" s="35" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="U32" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="V32" s="35" t="s">
         <v>21</v>
-      </c>
-      <c r="V32" s="35" t="s">
-        <v>10</v>
       </c>
       <c r="W32" s="35"/>
       <c r="X32" s="35" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="Y32" s="35" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Z32" s="35" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AA32" s="35"/>
       <c r="AB32" s="35" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AC32" s="35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD32" s="35" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE32" s="35"/>
       <c r="AF32" s="35" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AG32" s="35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH32" s="35"/>
       <c r="AI32" s="35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ32" s="35" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="AK32" s="35" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="AL32" s="39"/>
+      <c r="AR32" s="111"/>
+      <c r="AS32" s="111"/>
+      <c r="AT32" s="111"/>
+      <c r="AU32" s="111"/>
+      <c r="AV32" s="111"/>
+      <c r="AW32" s="111"/>
+      <c r="AX32" s="111"/>
+      <c r="AY32" s="111"/>
+      <c r="AZ32" s="111"/>
+      <c r="BA32" s="111"/>
+      <c r="BB32" s="111"/>
+      <c r="BC32" s="111"/>
+      <c r="BD32" s="111"/>
+      <c r="BE32" s="111"/>
+      <c r="BF32" s="111"/>
+      <c r="BG32" s="111"/>
+      <c r="BH32" s="111"/>
+      <c r="BI32" s="111"/>
+      <c r="BJ32" s="111"/>
+      <c r="BK32" s="111"/>
+      <c r="BL32" s="111"/>
+      <c r="BM32" s="111"/>
+      <c r="BN32" s="111"/>
+      <c r="BO32" s="111"/>
+      <c r="BP32" s="111"/>
+      <c r="BQ32" s="111"/>
+      <c r="BR32" s="111"/>
+      <c r="BS32" s="111"/>
+      <c r="BT32" s="111"/>
+      <c r="BU32" s="111"/>
+      <c r="BV32" s="111"/>
+      <c r="BW32" s="111"/>
+      <c r="BX32" s="111"/>
+      <c r="BY32" s="111"/>
+      <c r="BZ32" s="111"/>
+      <c r="CA32" s="111"/>
+      <c r="CB32" s="111"/>
     </row>
     <row r="33" spans="1:38" ht="13.5" customHeight="1">
       <c r="A33" s="31"/>
@@ -4831,103 +5924,103 @@
     <row r="34" spans="1:38" ht="23.25">
       <c r="A34" s="31"/>
       <c r="B34" s="42"/>
-      <c r="C34" s="75">
+      <c r="C34" s="73">
         <v>0</v>
       </c>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="73"/>
       <c r="F34" s="40"/>
-      <c r="G34" s="75">
+      <c r="G34" s="73">
         <v>1</v>
       </c>
-      <c r="H34" s="75"/>
-      <c r="I34" s="75"/>
+      <c r="H34" s="73"/>
+      <c r="I34" s="73"/>
       <c r="J34" s="40"/>
-      <c r="K34" s="75">
+      <c r="K34" s="73">
         <v>2</v>
       </c>
-      <c r="L34" s="75"/>
+      <c r="L34" s="73"/>
       <c r="M34" s="40"/>
-      <c r="N34" s="75">
+      <c r="N34" s="73">
         <v>3</v>
       </c>
-      <c r="O34" s="75"/>
+      <c r="O34" s="73"/>
       <c r="P34" s="40"/>
-      <c r="Q34" s="75">
+      <c r="Q34" s="73">
         <v>4</v>
       </c>
-      <c r="R34" s="75"/>
+      <c r="R34" s="73"/>
       <c r="S34" s="40"/>
-      <c r="T34" s="75">
+      <c r="T34" s="73">
         <v>5</v>
       </c>
-      <c r="U34" s="75"/>
-      <c r="V34" s="75"/>
+      <c r="U34" s="73"/>
+      <c r="V34" s="73"/>
       <c r="W34" s="40"/>
-      <c r="X34" s="75">
+      <c r="X34" s="73">
         <v>6</v>
       </c>
-      <c r="Y34" s="75"/>
-      <c r="Z34" s="75"/>
+      <c r="Y34" s="73"/>
+      <c r="Z34" s="73"/>
       <c r="AA34" s="40"/>
-      <c r="AB34" s="75">
+      <c r="AB34" s="73">
         <v>7</v>
       </c>
-      <c r="AC34" s="75"/>
-      <c r="AD34" s="75"/>
+      <c r="AC34" s="73"/>
+      <c r="AD34" s="73"/>
       <c r="AE34" s="40"/>
-      <c r="AF34" s="75">
+      <c r="AF34" s="73">
         <v>8</v>
       </c>
-      <c r="AG34" s="75"/>
+      <c r="AG34" s="73"/>
       <c r="AH34" s="40"/>
-      <c r="AI34" s="75">
+      <c r="AI34" s="73">
         <v>9</v>
       </c>
-      <c r="AJ34" s="75"/>
-      <c r="AK34" s="75"/>
+      <c r="AJ34" s="73"/>
+      <c r="AK34" s="73"/>
       <c r="AL34" s="41"/>
     </row>
     <row r="35" spans="1:38" ht="26.25">
       <c r="A35" s="31"/>
-      <c r="B35" s="76" t="s">
+      <c r="B35" s="74" t="s">
         <v>242</v>
       </c>
-      <c r="C35" s="76"/>
-      <c r="D35" s="76"/>
-      <c r="E35" s="76"/>
-      <c r="F35" s="76"/>
-      <c r="G35" s="76"/>
-      <c r="H35" s="76"/>
-      <c r="I35" s="76"/>
-      <c r="J35" s="76"/>
-      <c r="K35" s="76"/>
-      <c r="L35" s="76"/>
-      <c r="M35" s="76"/>
-      <c r="N35" s="76"/>
-      <c r="O35" s="76"/>
-      <c r="P35" s="76"/>
-      <c r="Q35" s="76"/>
-      <c r="R35" s="76"/>
-      <c r="S35" s="76"/>
-      <c r="T35" s="76"/>
-      <c r="U35" s="76"/>
-      <c r="V35" s="76"/>
-      <c r="W35" s="76"/>
-      <c r="X35" s="76"/>
-      <c r="Y35" s="76"/>
-      <c r="Z35" s="76"/>
-      <c r="AA35" s="76"/>
-      <c r="AB35" s="76"/>
-      <c r="AC35" s="76"/>
-      <c r="AD35" s="76"/>
-      <c r="AE35" s="76"/>
-      <c r="AF35" s="76"/>
-      <c r="AG35" s="76"/>
-      <c r="AH35" s="76"/>
-      <c r="AI35" s="76"/>
-      <c r="AJ35" s="76"/>
-      <c r="AK35" s="76"/>
+      <c r="C35" s="74"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="74"/>
+      <c r="F35" s="74"/>
+      <c r="G35" s="74"/>
+      <c r="H35" s="74"/>
+      <c r="I35" s="74"/>
+      <c r="J35" s="74"/>
+      <c r="K35" s="74"/>
+      <c r="L35" s="74"/>
+      <c r="M35" s="74"/>
+      <c r="N35" s="74"/>
+      <c r="O35" s="74"/>
+      <c r="P35" s="74"/>
+      <c r="Q35" s="74"/>
+      <c r="R35" s="74"/>
+      <c r="S35" s="74"/>
+      <c r="T35" s="74"/>
+      <c r="U35" s="74"/>
+      <c r="V35" s="74"/>
+      <c r="W35" s="74"/>
+      <c r="X35" s="74"/>
+      <c r="Y35" s="74"/>
+      <c r="Z35" s="74"/>
+      <c r="AA35" s="74"/>
+      <c r="AB35" s="74"/>
+      <c r="AC35" s="74"/>
+      <c r="AD35" s="74"/>
+      <c r="AE35" s="74"/>
+      <c r="AF35" s="74"/>
+      <c r="AG35" s="74"/>
+      <c r="AH35" s="74"/>
+      <c r="AI35" s="74"/>
+      <c r="AJ35" s="74"/>
+      <c r="AK35" s="74"/>
       <c r="AL35" s="43"/>
     </row>
     <row r="36" spans="1:38">
@@ -5131,7 +6224,67 @@
       <c r="AL40" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
+  <mergeCells count="76">
+    <mergeCell ref="BZ25:CB25"/>
+    <mergeCell ref="BH25:BI25"/>
+    <mergeCell ref="BK25:BM25"/>
+    <mergeCell ref="BO25:BQ25"/>
+    <mergeCell ref="BS25:BU25"/>
+    <mergeCell ref="BW25:BX25"/>
+    <mergeCell ref="AR25:AS25"/>
+    <mergeCell ref="AT25:AV25"/>
+    <mergeCell ref="AX25:AZ25"/>
+    <mergeCell ref="BB25:BC25"/>
+    <mergeCell ref="BE25:BF25"/>
+    <mergeCell ref="BZ11:CB11"/>
+    <mergeCell ref="AR18:AS18"/>
+    <mergeCell ref="AT18:AV18"/>
+    <mergeCell ref="AX18:AZ18"/>
+    <mergeCell ref="BB18:BC18"/>
+    <mergeCell ref="BE18:BF18"/>
+    <mergeCell ref="BH18:BI18"/>
+    <mergeCell ref="BK18:BM18"/>
+    <mergeCell ref="BO18:BQ18"/>
+    <mergeCell ref="BS18:BU18"/>
+    <mergeCell ref="BW18:BX18"/>
+    <mergeCell ref="BZ18:CB18"/>
+    <mergeCell ref="BH11:BI11"/>
+    <mergeCell ref="BK11:BM11"/>
+    <mergeCell ref="BO11:BQ11"/>
+    <mergeCell ref="BS11:BU11"/>
+    <mergeCell ref="BW11:BX11"/>
+    <mergeCell ref="AR11:AS11"/>
+    <mergeCell ref="AT11:AV11"/>
+    <mergeCell ref="AX11:AZ11"/>
+    <mergeCell ref="BB11:BC11"/>
+    <mergeCell ref="BE11:BF11"/>
+    <mergeCell ref="B1:AK1"/>
+    <mergeCell ref="AB2:AK2"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="X11:Z11"/>
+    <mergeCell ref="AB11:AD11"/>
+    <mergeCell ref="AF11:AG11"/>
+    <mergeCell ref="AI11:AK11"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="X18:Z18"/>
+    <mergeCell ref="AB18:AD18"/>
+    <mergeCell ref="AF18:AG18"/>
+    <mergeCell ref="AI18:AK18"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="Q25:R25"/>
     <mergeCell ref="T25:V25"/>
     <mergeCell ref="B35:AK35"/>
     <mergeCell ref="X25:Z25"/>
@@ -5148,33 +6301,6 @@
     <mergeCell ref="AB34:AD34"/>
     <mergeCell ref="AF34:AG34"/>
     <mergeCell ref="AI34:AK34"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="T18:V18"/>
-    <mergeCell ref="X18:Z18"/>
-    <mergeCell ref="AB18:AD18"/>
-    <mergeCell ref="AF18:AG18"/>
-    <mergeCell ref="AI18:AK18"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="B1:AK1"/>
-    <mergeCell ref="AB2:AK2"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="X11:Z11"/>
-    <mergeCell ref="AB11:AD11"/>
-    <mergeCell ref="AF11:AG11"/>
-    <mergeCell ref="AI11:AK11"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -5187,7 +6313,7 @@
   <dimension ref="A1:AL43"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AL22" sqref="AL22"/>
+      <selection activeCell="AL6" sqref="AL6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5215,44 +6341,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="21">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
-      <c r="W1" s="83"/>
-      <c r="X1" s="83"/>
-      <c r="Y1" s="83"/>
-      <c r="Z1" s="83"/>
-      <c r="AA1" s="83"/>
-      <c r="AB1" s="83"/>
-      <c r="AC1" s="83"/>
-      <c r="AD1" s="83"/>
-      <c r="AE1" s="83"/>
-      <c r="AF1" s="83"/>
-      <c r="AG1" s="83"/>
-      <c r="AH1" s="83"/>
-      <c r="AI1" s="83"/>
-      <c r="AJ1" s="84"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
+      <c r="W1" s="84"/>
+      <c r="X1" s="84"/>
+      <c r="Y1" s="84"/>
+      <c r="Z1" s="84"/>
+      <c r="AA1" s="84"/>
+      <c r="AB1" s="84"/>
+      <c r="AC1" s="84"/>
+      <c r="AD1" s="84"/>
+      <c r="AE1" s="84"/>
+      <c r="AF1" s="84"/>
+      <c r="AG1" s="84"/>
+      <c r="AH1" s="84"/>
+      <c r="AI1" s="84"/>
+      <c r="AJ1" s="85"/>
     </row>
     <row r="2" spans="1:38" ht="15.75">
       <c r="A2" s="4" t="s">
@@ -5283,18 +6409,18 @@
       <c r="X2" s="16"/>
       <c r="Y2" s="16"/>
       <c r="Z2" s="16"/>
-      <c r="AA2" s="85" t="s">
+      <c r="AA2" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="AB2" s="85"/>
-      <c r="AC2" s="85"/>
-      <c r="AD2" s="85"/>
-      <c r="AE2" s="85"/>
-      <c r="AF2" s="85"/>
-      <c r="AG2" s="85"/>
-      <c r="AH2" s="85"/>
-      <c r="AI2" s="85"/>
-      <c r="AJ2" s="86"/>
+      <c r="AB2" s="86"/>
+      <c r="AC2" s="86"/>
+      <c r="AD2" s="86"/>
+      <c r="AE2" s="86"/>
+      <c r="AF2" s="86"/>
+      <c r="AG2" s="86"/>
+      <c r="AH2" s="86"/>
+      <c r="AI2" s="86"/>
+      <c r="AJ2" s="87"/>
     </row>
     <row r="3" spans="1:38" ht="15.75">
       <c r="A3" s="8"/>
@@ -5607,7 +6733,7 @@
       <c r="AJ6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="AL6" t="s">
+      <c r="AL6" s="110" t="s">
         <v>244</v>
       </c>
     </row>
@@ -6035,7 +7161,7 @@
         <v>9</v>
       </c>
       <c r="AI11" s="77"/>
-      <c r="AJ11" s="78"/>
+      <c r="AJ11" s="82"/>
     </row>
     <row r="12" spans="1:38" ht="9.9499999999999993" customHeight="1">
       <c r="A12" s="20" t="s">
@@ -6646,7 +7772,7 @@
         <v>9</v>
       </c>
       <c r="AI18" s="77"/>
-      <c r="AJ18" s="78"/>
+      <c r="AJ18" s="82"/>
     </row>
     <row r="19" spans="1:37" ht="9.9499999999999993" customHeight="1">
       <c r="A19" s="10" t="s">
@@ -7256,7 +8382,7 @@
         <v>9</v>
       </c>
       <c r="AI25" s="77"/>
-      <c r="AJ25" s="78"/>
+      <c r="AJ25" s="82"/>
     </row>
     <row r="26" spans="1:37" ht="9.9499999999999993" customHeight="1">
       <c r="A26" s="10" t="s">
@@ -7958,163 +9084,163 @@
         <v>9</v>
       </c>
       <c r="AI33" s="77"/>
-      <c r="AJ33" s="78"/>
+      <c r="AJ33" s="82"/>
     </row>
     <row r="34" spans="1:36">
-      <c r="A34" s="79" t="s">
+      <c r="A34" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="80"/>
-      <c r="C34" s="80"/>
-      <c r="D34" s="80"/>
-      <c r="E34" s="80"/>
-      <c r="F34" s="80"/>
-      <c r="G34" s="80"/>
-      <c r="H34" s="80"/>
-      <c r="I34" s="80"/>
-      <c r="J34" s="80"/>
-      <c r="K34" s="80"/>
-      <c r="L34" s="80"/>
-      <c r="M34" s="80"/>
-      <c r="N34" s="80"/>
-      <c r="O34" s="80"/>
-      <c r="P34" s="80"/>
-      <c r="Q34" s="80"/>
-      <c r="R34" s="80"/>
-      <c r="S34" s="80"/>
-      <c r="T34" s="80"/>
-      <c r="U34" s="80"/>
-      <c r="V34" s="80"/>
-      <c r="W34" s="80"/>
-      <c r="X34" s="80"/>
-      <c r="Y34" s="80"/>
-      <c r="Z34" s="80"/>
-      <c r="AA34" s="80"/>
-      <c r="AB34" s="80"/>
-      <c r="AC34" s="80"/>
-      <c r="AD34" s="80"/>
-      <c r="AE34" s="80"/>
-      <c r="AF34" s="80"/>
-      <c r="AG34" s="80"/>
-      <c r="AH34" s="80"/>
-      <c r="AI34" s="80"/>
-      <c r="AJ34" s="81"/>
+      <c r="B34" s="89"/>
+      <c r="C34" s="89"/>
+      <c r="D34" s="89"/>
+      <c r="E34" s="89"/>
+      <c r="F34" s="89"/>
+      <c r="G34" s="89"/>
+      <c r="H34" s="89"/>
+      <c r="I34" s="89"/>
+      <c r="J34" s="89"/>
+      <c r="K34" s="89"/>
+      <c r="L34" s="89"/>
+      <c r="M34" s="89"/>
+      <c r="N34" s="89"/>
+      <c r="O34" s="89"/>
+      <c r="P34" s="89"/>
+      <c r="Q34" s="89"/>
+      <c r="R34" s="89"/>
+      <c r="S34" s="89"/>
+      <c r="T34" s="89"/>
+      <c r="U34" s="89"/>
+      <c r="V34" s="89"/>
+      <c r="W34" s="89"/>
+      <c r="X34" s="89"/>
+      <c r="Y34" s="89"/>
+      <c r="Z34" s="89"/>
+      <c r="AA34" s="89"/>
+      <c r="AB34" s="89"/>
+      <c r="AC34" s="89"/>
+      <c r="AD34" s="89"/>
+      <c r="AE34" s="89"/>
+      <c r="AF34" s="89"/>
+      <c r="AG34" s="89"/>
+      <c r="AH34" s="89"/>
+      <c r="AI34" s="89"/>
+      <c r="AJ34" s="90"/>
     </row>
     <row r="35" spans="1:36" ht="15" customHeight="1">
-      <c r="A35" s="89" t="s">
+      <c r="A35" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="89"/>
-      <c r="C35" s="89"/>
-      <c r="D35" s="89"/>
-      <c r="E35" s="89"/>
-      <c r="F35" s="89"/>
-      <c r="G35" s="89"/>
-      <c r="H35" s="89"/>
-      <c r="I35" s="89"/>
-      <c r="J35" s="89"/>
-      <c r="K35" s="89"/>
-      <c r="L35" s="89"/>
-      <c r="M35" s="89"/>
-      <c r="N35" s="89"/>
-      <c r="O35" s="89"/>
-      <c r="P35" s="89"/>
-      <c r="Q35" s="89"/>
-      <c r="R35" s="89"/>
-      <c r="S35" s="89"/>
-      <c r="T35" s="89"/>
-      <c r="U35" s="89"/>
-      <c r="V35" s="89"/>
-      <c r="W35" s="89"/>
-      <c r="X35" s="89"/>
-      <c r="Y35" s="89"/>
-      <c r="Z35" s="89"/>
-      <c r="AA35" s="89"/>
-      <c r="AB35" s="89"/>
-      <c r="AC35" s="89"/>
-      <c r="AD35" s="89"/>
-      <c r="AE35" s="89"/>
-      <c r="AF35" s="89"/>
-      <c r="AG35" s="89"/>
-      <c r="AH35" s="89"/>
-      <c r="AI35" s="89"/>
-      <c r="AJ35" s="89"/>
+      <c r="B35" s="80"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="80"/>
+      <c r="F35" s="80"/>
+      <c r="G35" s="80"/>
+      <c r="H35" s="80"/>
+      <c r="I35" s="80"/>
+      <c r="J35" s="80"/>
+      <c r="K35" s="80"/>
+      <c r="L35" s="80"/>
+      <c r="M35" s="80"/>
+      <c r="N35" s="80"/>
+      <c r="O35" s="80"/>
+      <c r="P35" s="80"/>
+      <c r="Q35" s="80"/>
+      <c r="R35" s="80"/>
+      <c r="S35" s="80"/>
+      <c r="T35" s="80"/>
+      <c r="U35" s="80"/>
+      <c r="V35" s="80"/>
+      <c r="W35" s="80"/>
+      <c r="X35" s="80"/>
+      <c r="Y35" s="80"/>
+      <c r="Z35" s="80"/>
+      <c r="AA35" s="80"/>
+      <c r="AB35" s="80"/>
+      <c r="AC35" s="80"/>
+      <c r="AD35" s="80"/>
+      <c r="AE35" s="80"/>
+      <c r="AF35" s="80"/>
+      <c r="AG35" s="80"/>
+      <c r="AH35" s="80"/>
+      <c r="AI35" s="80"/>
+      <c r="AJ35" s="80"/>
     </row>
     <row r="36" spans="1:36">
-      <c r="A36" s="90"/>
-      <c r="B36" s="90"/>
-      <c r="C36" s="90"/>
-      <c r="D36" s="90"/>
-      <c r="E36" s="90"/>
-      <c r="F36" s="90"/>
-      <c r="G36" s="90"/>
-      <c r="H36" s="90"/>
-      <c r="I36" s="90"/>
-      <c r="J36" s="90"/>
-      <c r="K36" s="90"/>
-      <c r="L36" s="90"/>
-      <c r="M36" s="90"/>
-      <c r="N36" s="90"/>
-      <c r="O36" s="90"/>
-      <c r="P36" s="90"/>
-      <c r="Q36" s="90"/>
-      <c r="R36" s="90"/>
-      <c r="S36" s="90"/>
-      <c r="T36" s="90"/>
-      <c r="U36" s="90"/>
-      <c r="V36" s="90"/>
-      <c r="W36" s="90"/>
-      <c r="X36" s="90"/>
-      <c r="Y36" s="90"/>
-      <c r="Z36" s="90"/>
-      <c r="AA36" s="90"/>
-      <c r="AB36" s="90"/>
-      <c r="AC36" s="90"/>
-      <c r="AD36" s="90"/>
-      <c r="AE36" s="90"/>
-      <c r="AF36" s="90"/>
-      <c r="AG36" s="90"/>
-      <c r="AH36" s="90"/>
-      <c r="AI36" s="90"/>
-      <c r="AJ36" s="90"/>
+      <c r="A36" s="81"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="81"/>
+      <c r="D36" s="81"/>
+      <c r="E36" s="81"/>
+      <c r="F36" s="81"/>
+      <c r="G36" s="81"/>
+      <c r="H36" s="81"/>
+      <c r="I36" s="81"/>
+      <c r="J36" s="81"/>
+      <c r="K36" s="81"/>
+      <c r="L36" s="81"/>
+      <c r="M36" s="81"/>
+      <c r="N36" s="81"/>
+      <c r="O36" s="81"/>
+      <c r="P36" s="81"/>
+      <c r="Q36" s="81"/>
+      <c r="R36" s="81"/>
+      <c r="S36" s="81"/>
+      <c r="T36" s="81"/>
+      <c r="U36" s="81"/>
+      <c r="V36" s="81"/>
+      <c r="W36" s="81"/>
+      <c r="X36" s="81"/>
+      <c r="Y36" s="81"/>
+      <c r="Z36" s="81"/>
+      <c r="AA36" s="81"/>
+      <c r="AB36" s="81"/>
+      <c r="AC36" s="81"/>
+      <c r="AD36" s="81"/>
+      <c r="AE36" s="81"/>
+      <c r="AF36" s="81"/>
+      <c r="AG36" s="81"/>
+      <c r="AH36" s="81"/>
+      <c r="AI36" s="81"/>
+      <c r="AJ36" s="81"/>
     </row>
     <row r="37" spans="1:36">
-      <c r="A37" s="90"/>
-      <c r="B37" s="90"/>
-      <c r="C37" s="90"/>
-      <c r="D37" s="90"/>
-      <c r="E37" s="90"/>
-      <c r="F37" s="90"/>
-      <c r="G37" s="90"/>
-      <c r="H37" s="90"/>
-      <c r="I37" s="90"/>
-      <c r="J37" s="90"/>
-      <c r="K37" s="90"/>
-      <c r="L37" s="90"/>
-      <c r="M37" s="90"/>
-      <c r="N37" s="90"/>
-      <c r="O37" s="90"/>
-      <c r="P37" s="90"/>
-      <c r="Q37" s="90"/>
-      <c r="R37" s="90"/>
-      <c r="S37" s="90"/>
-      <c r="T37" s="90"/>
-      <c r="U37" s="90"/>
-      <c r="V37" s="90"/>
-      <c r="W37" s="90"/>
-      <c r="X37" s="90"/>
-      <c r="Y37" s="90"/>
-      <c r="Z37" s="90"/>
-      <c r="AA37" s="90"/>
-      <c r="AB37" s="90"/>
-      <c r="AC37" s="90"/>
-      <c r="AD37" s="90"/>
-      <c r="AE37" s="90"/>
-      <c r="AF37" s="90"/>
-      <c r="AG37" s="90"/>
-      <c r="AH37" s="90"/>
-      <c r="AI37" s="90"/>
-      <c r="AJ37" s="90"/>
+      <c r="A37" s="81"/>
+      <c r="B37" s="81"/>
+      <c r="C37" s="81"/>
+      <c r="D37" s="81"/>
+      <c r="E37" s="81"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="81"/>
+      <c r="H37" s="81"/>
+      <c r="I37" s="81"/>
+      <c r="J37" s="81"/>
+      <c r="K37" s="81"/>
+      <c r="L37" s="81"/>
+      <c r="M37" s="81"/>
+      <c r="N37" s="81"/>
+      <c r="O37" s="81"/>
+      <c r="P37" s="81"/>
+      <c r="Q37" s="81"/>
+      <c r="R37" s="81"/>
+      <c r="S37" s="81"/>
+      <c r="T37" s="81"/>
+      <c r="U37" s="81"/>
+      <c r="V37" s="81"/>
+      <c r="W37" s="81"/>
+      <c r="X37" s="81"/>
+      <c r="Y37" s="81"/>
+      <c r="Z37" s="81"/>
+      <c r="AA37" s="81"/>
+      <c r="AB37" s="81"/>
+      <c r="AC37" s="81"/>
+      <c r="AD37" s="81"/>
+      <c r="AE37" s="81"/>
+      <c r="AF37" s="81"/>
+      <c r="AG37" s="81"/>
+      <c r="AH37" s="81"/>
+      <c r="AI37" s="81"/>
+      <c r="AJ37" s="81"/>
     </row>
     <row r="38" spans="1:36">
       <c r="O38" s="7"/>
@@ -8126,40 +9252,40 @@
       <c r="O39" s="22"/>
     </row>
     <row r="40" spans="1:36">
-      <c r="A40" s="88" t="s">
+      <c r="A40" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="88"/>
-      <c r="C40" s="88"/>
-      <c r="D40" s="88"/>
-      <c r="E40" s="88"/>
-      <c r="F40" s="88"/>
-      <c r="G40" s="88"/>
-      <c r="H40" s="88"/>
-      <c r="I40" s="88"/>
-      <c r="J40" s="88"/>
-      <c r="K40" s="88"/>
-      <c r="L40" s="88"/>
-      <c r="M40" s="88"/>
-      <c r="N40" s="88"/>
+      <c r="B40" s="79"/>
+      <c r="C40" s="79"/>
+      <c r="D40" s="79"/>
+      <c r="E40" s="79"/>
+      <c r="F40" s="79"/>
+      <c r="G40" s="79"/>
+      <c r="H40" s="79"/>
+      <c r="I40" s="79"/>
+      <c r="J40" s="79"/>
+      <c r="K40" s="79"/>
+      <c r="L40" s="79"/>
+      <c r="M40" s="79"/>
+      <c r="N40" s="79"/>
     </row>
     <row r="41" spans="1:36">
-      <c r="A41" s="87" t="s">
+      <c r="A41" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="87"/>
-      <c r="C41" s="87"/>
-      <c r="D41" s="87"/>
-      <c r="E41" s="87"/>
-      <c r="F41" s="87"/>
-      <c r="G41" s="87"/>
-      <c r="H41" s="87"/>
-      <c r="I41" s="87"/>
-      <c r="J41" s="87"/>
-      <c r="K41" s="87"/>
-      <c r="L41" s="87"/>
-      <c r="M41" s="87"/>
-      <c r="N41" s="87"/>
+      <c r="B41" s="78"/>
+      <c r="C41" s="78"/>
+      <c r="D41" s="78"/>
+      <c r="E41" s="78"/>
+      <c r="F41" s="78"/>
+      <c r="G41" s="78"/>
+      <c r="H41" s="78"/>
+      <c r="I41" s="78"/>
+      <c r="J41" s="78"/>
+      <c r="K41" s="78"/>
+      <c r="L41" s="78"/>
+      <c r="M41" s="78"/>
+      <c r="N41" s="78"/>
     </row>
     <row r="42" spans="1:36">
       <c r="A42" t="s">
@@ -8173,6 +9299,36 @@
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="AE33:AF33"/>
+    <mergeCell ref="AH33:AJ33"/>
+    <mergeCell ref="A34:AJ34"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="AH25:AJ25"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="W33:Y33"/>
+    <mergeCell ref="AA33:AC33"/>
+    <mergeCell ref="AA25:AC25"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="A1:AJ1"/>
+    <mergeCell ref="AA2:AJ2"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="W11:Y11"/>
+    <mergeCell ref="AA11:AC11"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AH11:AJ11"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="S18:U18"/>
     <mergeCell ref="A41:N41"/>
@@ -8189,40 +9345,13 @@
     <mergeCell ref="P25:Q25"/>
     <mergeCell ref="S25:U25"/>
     <mergeCell ref="W25:Y25"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="A1:AJ1"/>
-    <mergeCell ref="AA2:AJ2"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="W11:Y11"/>
-    <mergeCell ref="AA11:AC11"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AH11:AJ11"/>
-    <mergeCell ref="AE33:AF33"/>
-    <mergeCell ref="AH33:AJ33"/>
-    <mergeCell ref="A34:AJ34"/>
-    <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="AH25:AJ25"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="W33:Y33"/>
-    <mergeCell ref="AA33:AC33"/>
-    <mergeCell ref="AA25:AC25"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="AL6" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -8230,7 +9359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
@@ -8261,26 +9390,26 @@
   <sheetData>
     <row r="1" spans="1:21" ht="35.25">
       <c r="A1" s="29"/>
-      <c r="B1" s="91" t="s">
+      <c r="B1" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="91"/>
-      <c r="S1" s="91"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
       <c r="T1" s="68"/>
       <c r="U1" s="69"/>
     </row>
@@ -8300,47 +9429,47 @@
       <c r="M2" s="38"/>
       <c r="N2" s="72"/>
       <c r="O2" s="38"/>
-      <c r="P2" s="92" t="s">
+      <c r="P2" s="104" t="s">
         <v>243</v>
       </c>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="92"/>
-      <c r="S2" s="92"/>
+      <c r="Q2" s="104"/>
+      <c r="R2" s="104"/>
+      <c r="S2" s="104"/>
       <c r="T2" s="38"/>
       <c r="U2" s="44"/>
     </row>
     <row r="3" spans="1:21" ht="18.75">
       <c r="A3" s="31"/>
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="94"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="96" t="s">
+      <c r="C3" s="106"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="94"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="96" t="s">
+      <c r="F3" s="106"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="94"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="96" t="s">
+      <c r="I3" s="106"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="94"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="96" t="s">
+      <c r="L3" s="106"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="O3" s="94"/>
-      <c r="P3" s="95"/>
-      <c r="Q3" s="96" t="s">
+      <c r="O3" s="106"/>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="108" t="s">
         <v>41</v>
       </c>
-      <c r="R3" s="94"/>
-      <c r="S3" s="97"/>
+      <c r="R3" s="106"/>
+      <c r="S3" s="109"/>
       <c r="T3" s="38"/>
       <c r="U3" s="44"/>
     </row>
@@ -8416,36 +9545,36 @@
     </row>
     <row r="6" spans="1:21" ht="19.5" thickBot="1">
       <c r="A6" s="31"/>
-      <c r="B6" s="109" t="s">
+      <c r="B6" s="97" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="104"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="103" t="s">
+      <c r="C6" s="92"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="104"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="103" t="s">
+      <c r="F6" s="92"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="91" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="104"/>
-      <c r="J6" s="105"/>
-      <c r="K6" s="103" t="s">
+      <c r="I6" s="92"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="L6" s="104"/>
-      <c r="M6" s="105"/>
-      <c r="N6" s="103" t="s">
+      <c r="L6" s="92"/>
+      <c r="M6" s="93"/>
+      <c r="N6" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="O6" s="104"/>
-      <c r="P6" s="105"/>
-      <c r="Q6" s="103" t="s">
+      <c r="O6" s="92"/>
+      <c r="P6" s="93"/>
+      <c r="Q6" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="R6" s="104"/>
-      <c r="S6" s="106"/>
+      <c r="R6" s="92"/>
+      <c r="S6" s="94"/>
       <c r="T6" s="38"/>
       <c r="U6" s="44"/>
     </row>
@@ -10221,26 +11350,26 @@
     </row>
     <row r="37" spans="1:21" ht="18.75">
       <c r="A37" s="31"/>
-      <c r="B37" s="108" t="s">
+      <c r="B37" s="96" t="s">
         <v>241</v>
       </c>
-      <c r="C37" s="108"/>
-      <c r="D37" s="108"/>
-      <c r="E37" s="108"/>
-      <c r="F37" s="108"/>
-      <c r="G37" s="108"/>
-      <c r="H37" s="108"/>
-      <c r="I37" s="108"/>
-      <c r="J37" s="108"/>
-      <c r="K37" s="108"/>
-      <c r="L37" s="108"/>
-      <c r="M37" s="108"/>
-      <c r="N37" s="108"/>
-      <c r="O37" s="108"/>
-      <c r="P37" s="108"/>
-      <c r="Q37" s="108"/>
-      <c r="R37" s="108"/>
-      <c r="S37" s="108"/>
+      <c r="C37" s="96"/>
+      <c r="D37" s="96"/>
+      <c r="E37" s="96"/>
+      <c r="F37" s="96"/>
+      <c r="G37" s="96"/>
+      <c r="H37" s="96"/>
+      <c r="I37" s="96"/>
+      <c r="J37" s="96"/>
+      <c r="K37" s="96"/>
+      <c r="L37" s="96"/>
+      <c r="M37" s="96"/>
+      <c r="N37" s="96"/>
+      <c r="O37" s="96"/>
+      <c r="P37" s="96"/>
+      <c r="Q37" s="96"/>
+      <c r="R37" s="96"/>
+      <c r="S37" s="96"/>
       <c r="T37" s="38"/>
       <c r="U37" s="44"/>
     </row>
@@ -10269,26 +11398,26 @@
     </row>
     <row r="39" spans="1:21">
       <c r="A39" s="31"/>
-      <c r="B39" s="107" t="s">
+      <c r="B39" s="95" t="s">
         <v>242</v>
       </c>
-      <c r="C39" s="107"/>
-      <c r="D39" s="107"/>
-      <c r="E39" s="107"/>
-      <c r="F39" s="107"/>
-      <c r="G39" s="107"/>
-      <c r="H39" s="107"/>
-      <c r="I39" s="107"/>
-      <c r="J39" s="107"/>
-      <c r="K39" s="107"/>
-      <c r="L39" s="107"/>
-      <c r="M39" s="107"/>
-      <c r="N39" s="107"/>
-      <c r="O39" s="107"/>
-      <c r="P39" s="107"/>
-      <c r="Q39" s="107"/>
-      <c r="R39" s="107"/>
-      <c r="S39" s="107"/>
+      <c r="C39" s="95"/>
+      <c r="D39" s="95"/>
+      <c r="E39" s="95"/>
+      <c r="F39" s="95"/>
+      <c r="G39" s="95"/>
+      <c r="H39" s="95"/>
+      <c r="I39" s="95"/>
+      <c r="J39" s="95"/>
+      <c r="K39" s="95"/>
+      <c r="L39" s="95"/>
+      <c r="M39" s="95"/>
+      <c r="N39" s="95"/>
+      <c r="O39" s="95"/>
+      <c r="P39" s="95"/>
+      <c r="Q39" s="95"/>
+      <c r="R39" s="95"/>
+      <c r="S39" s="95"/>
       <c r="T39" s="38"/>
       <c r="U39" s="44"/>
     </row>
@@ -10455,14 +11584,14 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="B39:S39"/>
-    <mergeCell ref="B37:S37"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="B1:S1"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="Q3:S3"/>
     <mergeCell ref="Q5:S5"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E4:G4"/>
@@ -10475,14 +11604,14 @@
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="K5:M5"/>
     <mergeCell ref="N5:P5"/>
-    <mergeCell ref="B1:S1"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="B39:S39"/>
+    <mergeCell ref="B37:S37"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
   </mergeCells>
   <pageMargins left="0.11811023622047245" right="0.15748031496062992" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/UNDER DEVELOPMENT/ADMIN DOCUMENTS TTPs OPAR 2.0/AUTHENTICATION TABLE.xlsx
+++ b/UNDER DEVELOPMENT/ADMIN DOCUMENTS TTPs OPAR 2.0/AUTHENTICATION TABLE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="20730" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="AET-100 (2)" sheetId="6" r:id="rId1"/>
@@ -1294,11 +1294,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1306,22 +1307,25 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1339,13 +1343,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1369,49 +1412,6 @@
     <xf numFmtId="49" fontId="6" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperkobling" xfId="1" builtinId="8"/>
@@ -1426,16 +1426,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>52282</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>188354</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>59662</xdr:rowOff>
+      <xdr:rowOff>73269</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>153050</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>258536</xdr:rowOff>
+      <xdr:colOff>54429</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>43674</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1453,8 +1453,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="297211" y="59662"/>
-          <a:ext cx="740303" cy="783981"/>
+          <a:off x="188354" y="73269"/>
+          <a:ext cx="845789" cy="895691"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1707,16 +1707,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>167631</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>27378</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1734,8 +1734,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="838200" y="0"/>
-          <a:ext cx="581025" cy="615306"/>
+          <a:off x="95250" y="57150"/>
+          <a:ext cx="827478" cy="876300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2034,13 +2034,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CB40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
     <col min="2" max="2" width="3.42578125" customWidth="1"/>
     <col min="3" max="5" width="3" customWidth="1"/>
     <col min="6" max="6" width="1.7109375" customWidth="1"/>
@@ -2061,7 +2061,8 @@
     <col min="32" max="33" width="3" customWidth="1"/>
     <col min="34" max="34" width="2.5703125" customWidth="1"/>
     <col min="35" max="36" width="3" customWidth="1"/>
-    <col min="37" max="38" width="3.42578125" customWidth="1"/>
+    <col min="37" max="37" width="3.42578125" customWidth="1"/>
+    <col min="38" max="38" width="7.140625" customWidth="1"/>
     <col min="39" max="39" width="4.85546875" customWidth="1"/>
     <col min="40" max="40" width="5.140625" customWidth="1"/>
     <col min="41" max="41" width="5.5703125" customWidth="1"/>
@@ -2101,44 +2102,44 @@
   <sheetData>
     <row r="1" spans="1:80" ht="46.5">
       <c r="A1" s="29"/>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
-      <c r="W1" s="75"/>
-      <c r="X1" s="75"/>
-      <c r="Y1" s="75"/>
-      <c r="Z1" s="75"/>
-      <c r="AA1" s="75"/>
-      <c r="AB1" s="75"/>
-      <c r="AC1" s="75"/>
-      <c r="AD1" s="75"/>
-      <c r="AE1" s="75"/>
-      <c r="AF1" s="75"/>
-      <c r="AG1" s="75"/>
-      <c r="AH1" s="75"/>
-      <c r="AI1" s="75"/>
-      <c r="AJ1" s="75"/>
-      <c r="AK1" s="75"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="76"/>
+      <c r="X1" s="76"/>
+      <c r="Y1" s="76"/>
+      <c r="Z1" s="76"/>
+      <c r="AA1" s="76"/>
+      <c r="AB1" s="76"/>
+      <c r="AC1" s="76"/>
+      <c r="AD1" s="76"/>
+      <c r="AE1" s="76"/>
+      <c r="AF1" s="76"/>
+      <c r="AG1" s="76"/>
+      <c r="AH1" s="76"/>
+      <c r="AI1" s="76"/>
+      <c r="AJ1" s="76"/>
+      <c r="AK1" s="76"/>
       <c r="AL1" s="30"/>
     </row>
     <row r="2" spans="1:80" ht="26.25">
@@ -2169,18 +2170,18 @@
       <c r="Y2" s="33"/>
       <c r="Z2" s="33"/>
       <c r="AA2" s="33"/>
-      <c r="AB2" s="76" t="s">
+      <c r="AB2" s="77" t="s">
         <v>245</v>
       </c>
-      <c r="AC2" s="76"/>
-      <c r="AD2" s="76"/>
-      <c r="AE2" s="76"/>
-      <c r="AF2" s="76"/>
-      <c r="AG2" s="76"/>
-      <c r="AH2" s="76"/>
-      <c r="AI2" s="76"/>
-      <c r="AJ2" s="76"/>
-      <c r="AK2" s="76"/>
+      <c r="AC2" s="77"/>
+      <c r="AD2" s="77"/>
+      <c r="AE2" s="77"/>
+      <c r="AF2" s="77"/>
+      <c r="AG2" s="77"/>
+      <c r="AH2" s="77"/>
+      <c r="AI2" s="77"/>
+      <c r="AJ2" s="77"/>
+      <c r="AK2" s="77"/>
       <c r="AL2" s="34"/>
     </row>
     <row r="3" spans="1:80" ht="23.25">
@@ -2408,43 +2409,43 @@
         <v>18</v>
       </c>
       <c r="AL5" s="39"/>
-      <c r="AR5" s="111"/>
-      <c r="AS5" s="111"/>
-      <c r="AT5" s="111"/>
-      <c r="AU5" s="111"/>
-      <c r="AV5" s="111"/>
-      <c r="AW5" s="111"/>
-      <c r="AX5" s="111"/>
-      <c r="AY5" s="111"/>
-      <c r="AZ5" s="111"/>
-      <c r="BA5" s="111"/>
-      <c r="BB5" s="111"/>
-      <c r="BC5" s="111"/>
-      <c r="BD5" s="111"/>
-      <c r="BE5" s="111"/>
-      <c r="BF5" s="111"/>
-      <c r="BG5" s="111"/>
-      <c r="BH5" s="111"/>
-      <c r="BI5" s="111"/>
-      <c r="BJ5" s="111"/>
-      <c r="BK5" s="111"/>
-      <c r="BL5" s="111"/>
-      <c r="BM5" s="111"/>
-      <c r="BN5" s="111"/>
-      <c r="BO5" s="111"/>
-      <c r="BP5" s="111"/>
-      <c r="BQ5" s="111"/>
-      <c r="BR5" s="111"/>
-      <c r="BS5" s="111"/>
-      <c r="BT5" s="111"/>
-      <c r="BU5" s="111"/>
-      <c r="BV5" s="111"/>
-      <c r="BW5" s="111"/>
-      <c r="BX5" s="111"/>
-      <c r="BY5" s="111"/>
-      <c r="BZ5" s="111"/>
-      <c r="CA5" s="111"/>
-      <c r="CB5" s="111"/>
+      <c r="AR5" s="74"/>
+      <c r="AS5" s="74"/>
+      <c r="AT5" s="74"/>
+      <c r="AU5" s="74"/>
+      <c r="AV5" s="74"/>
+      <c r="AW5" s="74"/>
+      <c r="AX5" s="74"/>
+      <c r="AY5" s="74"/>
+      <c r="AZ5" s="74"/>
+      <c r="BA5" s="74"/>
+      <c r="BB5" s="74"/>
+      <c r="BC5" s="74"/>
+      <c r="BD5" s="74"/>
+      <c r="BE5" s="74"/>
+      <c r="BF5" s="74"/>
+      <c r="BG5" s="74"/>
+      <c r="BH5" s="74"/>
+      <c r="BI5" s="74"/>
+      <c r="BJ5" s="74"/>
+      <c r="BK5" s="74"/>
+      <c r="BL5" s="74"/>
+      <c r="BM5" s="74"/>
+      <c r="BN5" s="74"/>
+      <c r="BO5" s="74"/>
+      <c r="BP5" s="74"/>
+      <c r="BQ5" s="74"/>
+      <c r="BR5" s="74"/>
+      <c r="BS5" s="74"/>
+      <c r="BT5" s="74"/>
+      <c r="BU5" s="74"/>
+      <c r="BV5" s="74"/>
+      <c r="BW5" s="74"/>
+      <c r="BX5" s="74"/>
+      <c r="BY5" s="74"/>
+      <c r="BZ5" s="74"/>
+      <c r="CA5" s="74"/>
+      <c r="CB5" s="74"/>
     </row>
     <row r="6" spans="1:80" ht="23.25">
       <c r="A6" s="31"/>
@@ -2539,43 +2540,43 @@
         <v>23</v>
       </c>
       <c r="AL6" s="39"/>
-      <c r="AR6" s="111"/>
-      <c r="AS6" s="111"/>
-      <c r="AT6" s="111"/>
-      <c r="AU6" s="111"/>
-      <c r="AV6" s="111"/>
-      <c r="AW6" s="111"/>
-      <c r="AX6" s="111"/>
-      <c r="AY6" s="111"/>
-      <c r="AZ6" s="111"/>
-      <c r="BA6" s="111"/>
-      <c r="BB6" s="111"/>
-      <c r="BC6" s="111"/>
-      <c r="BD6" s="111"/>
-      <c r="BE6" s="111"/>
-      <c r="BF6" s="111"/>
-      <c r="BG6" s="111"/>
-      <c r="BH6" s="111"/>
-      <c r="BI6" s="111"/>
-      <c r="BJ6" s="111"/>
-      <c r="BK6" s="111"/>
-      <c r="BL6" s="111"/>
-      <c r="BM6" s="111"/>
-      <c r="BN6" s="111"/>
-      <c r="BO6" s="111"/>
-      <c r="BP6" s="111"/>
-      <c r="BQ6" s="111"/>
-      <c r="BR6" s="111"/>
-      <c r="BS6" s="111"/>
-      <c r="BT6" s="111"/>
-      <c r="BU6" s="111"/>
-      <c r="BV6" s="111"/>
-      <c r="BW6" s="111"/>
-      <c r="BX6" s="111"/>
-      <c r="BY6" s="111"/>
-      <c r="BZ6" s="111"/>
-      <c r="CA6" s="111"/>
-      <c r="CB6" s="111"/>
+      <c r="AR6" s="74"/>
+      <c r="AS6" s="74"/>
+      <c r="AT6" s="74"/>
+      <c r="AU6" s="74"/>
+      <c r="AV6" s="74"/>
+      <c r="AW6" s="74"/>
+      <c r="AX6" s="74"/>
+      <c r="AY6" s="74"/>
+      <c r="AZ6" s="74"/>
+      <c r="BA6" s="74"/>
+      <c r="BB6" s="74"/>
+      <c r="BC6" s="74"/>
+      <c r="BD6" s="74"/>
+      <c r="BE6" s="74"/>
+      <c r="BF6" s="74"/>
+      <c r="BG6" s="74"/>
+      <c r="BH6" s="74"/>
+      <c r="BI6" s="74"/>
+      <c r="BJ6" s="74"/>
+      <c r="BK6" s="74"/>
+      <c r="BL6" s="74"/>
+      <c r="BM6" s="74"/>
+      <c r="BN6" s="74"/>
+      <c r="BO6" s="74"/>
+      <c r="BP6" s="74"/>
+      <c r="BQ6" s="74"/>
+      <c r="BR6" s="74"/>
+      <c r="BS6" s="74"/>
+      <c r="BT6" s="74"/>
+      <c r="BU6" s="74"/>
+      <c r="BV6" s="74"/>
+      <c r="BW6" s="74"/>
+      <c r="BX6" s="74"/>
+      <c r="BY6" s="74"/>
+      <c r="BZ6" s="74"/>
+      <c r="CA6" s="74"/>
+      <c r="CB6" s="74"/>
     </row>
     <row r="7" spans="1:80" ht="23.25">
       <c r="A7" s="31"/>
@@ -2670,43 +2671,43 @@
         <v>10</v>
       </c>
       <c r="AL7" s="39"/>
-      <c r="AR7" s="111"/>
-      <c r="AS7" s="111"/>
-      <c r="AT7" s="111"/>
-      <c r="AU7" s="111"/>
-      <c r="AV7" s="111"/>
-      <c r="AW7" s="111"/>
-      <c r="AX7" s="111"/>
-      <c r="AY7" s="111"/>
-      <c r="AZ7" s="111"/>
-      <c r="BA7" s="111"/>
-      <c r="BB7" s="111"/>
-      <c r="BC7" s="111"/>
-      <c r="BD7" s="111"/>
-      <c r="BE7" s="111"/>
-      <c r="BF7" s="111"/>
-      <c r="BG7" s="111"/>
-      <c r="BH7" s="111"/>
-      <c r="BI7" s="111"/>
-      <c r="BJ7" s="111"/>
-      <c r="BK7" s="111"/>
-      <c r="BL7" s="111"/>
-      <c r="BM7" s="111"/>
-      <c r="BN7" s="111"/>
-      <c r="BO7" s="111"/>
-      <c r="BP7" s="111"/>
-      <c r="BQ7" s="111"/>
-      <c r="BR7" s="111"/>
-      <c r="BS7" s="111"/>
-      <c r="BT7" s="111"/>
-      <c r="BU7" s="111"/>
-      <c r="BV7" s="111"/>
-      <c r="BW7" s="111"/>
-      <c r="BX7" s="111"/>
-      <c r="BY7" s="111"/>
-      <c r="BZ7" s="111"/>
-      <c r="CA7" s="111"/>
-      <c r="CB7" s="111"/>
+      <c r="AR7" s="74"/>
+      <c r="AS7" s="74"/>
+      <c r="AT7" s="74"/>
+      <c r="AU7" s="74"/>
+      <c r="AV7" s="74"/>
+      <c r="AW7" s="74"/>
+      <c r="AX7" s="74"/>
+      <c r="AY7" s="74"/>
+      <c r="AZ7" s="74"/>
+      <c r="BA7" s="74"/>
+      <c r="BB7" s="74"/>
+      <c r="BC7" s="74"/>
+      <c r="BD7" s="74"/>
+      <c r="BE7" s="74"/>
+      <c r="BF7" s="74"/>
+      <c r="BG7" s="74"/>
+      <c r="BH7" s="74"/>
+      <c r="BI7" s="74"/>
+      <c r="BJ7" s="74"/>
+      <c r="BK7" s="74"/>
+      <c r="BL7" s="74"/>
+      <c r="BM7" s="74"/>
+      <c r="BN7" s="74"/>
+      <c r="BO7" s="74"/>
+      <c r="BP7" s="74"/>
+      <c r="BQ7" s="74"/>
+      <c r="BR7" s="74"/>
+      <c r="BS7" s="74"/>
+      <c r="BT7" s="74"/>
+      <c r="BU7" s="74"/>
+      <c r="BV7" s="74"/>
+      <c r="BW7" s="74"/>
+      <c r="BX7" s="74"/>
+      <c r="BY7" s="74"/>
+      <c r="BZ7" s="74"/>
+      <c r="CA7" s="74"/>
+      <c r="CB7" s="74"/>
     </row>
     <row r="8" spans="1:80" ht="23.25">
       <c r="A8" s="31"/>
@@ -2801,43 +2802,43 @@
         <v>24</v>
       </c>
       <c r="AL8" s="39"/>
-      <c r="AR8" s="111"/>
-      <c r="AS8" s="111"/>
-      <c r="AT8" s="111"/>
-      <c r="AU8" s="111"/>
-      <c r="AV8" s="111"/>
-      <c r="AW8" s="111"/>
-      <c r="AX8" s="111"/>
-      <c r="AY8" s="111"/>
-      <c r="AZ8" s="111"/>
-      <c r="BA8" s="111"/>
-      <c r="BB8" s="111"/>
-      <c r="BC8" s="111"/>
-      <c r="BD8" s="111"/>
-      <c r="BE8" s="111"/>
-      <c r="BF8" s="111"/>
-      <c r="BG8" s="111"/>
-      <c r="BH8" s="111"/>
-      <c r="BI8" s="111"/>
-      <c r="BJ8" s="111"/>
-      <c r="BK8" s="111"/>
-      <c r="BL8" s="111"/>
-      <c r="BM8" s="111"/>
-      <c r="BN8" s="111"/>
-      <c r="BO8" s="111"/>
-      <c r="BP8" s="111"/>
-      <c r="BQ8" s="111"/>
-      <c r="BR8" s="111"/>
-      <c r="BS8" s="111"/>
-      <c r="BT8" s="111"/>
-      <c r="BU8" s="111"/>
-      <c r="BV8" s="111"/>
-      <c r="BW8" s="111"/>
-      <c r="BX8" s="111"/>
-      <c r="BY8" s="111"/>
-      <c r="BZ8" s="111"/>
-      <c r="CA8" s="111"/>
-      <c r="CB8" s="111"/>
+      <c r="AR8" s="74"/>
+      <c r="AS8" s="74"/>
+      <c r="AT8" s="74"/>
+      <c r="AU8" s="74"/>
+      <c r="AV8" s="74"/>
+      <c r="AW8" s="74"/>
+      <c r="AX8" s="74"/>
+      <c r="AY8" s="74"/>
+      <c r="AZ8" s="74"/>
+      <c r="BA8" s="74"/>
+      <c r="BB8" s="74"/>
+      <c r="BC8" s="74"/>
+      <c r="BD8" s="74"/>
+      <c r="BE8" s="74"/>
+      <c r="BF8" s="74"/>
+      <c r="BG8" s="74"/>
+      <c r="BH8" s="74"/>
+      <c r="BI8" s="74"/>
+      <c r="BJ8" s="74"/>
+      <c r="BK8" s="74"/>
+      <c r="BL8" s="74"/>
+      <c r="BM8" s="74"/>
+      <c r="BN8" s="74"/>
+      <c r="BO8" s="74"/>
+      <c r="BP8" s="74"/>
+      <c r="BQ8" s="74"/>
+      <c r="BR8" s="74"/>
+      <c r="BS8" s="74"/>
+      <c r="BT8" s="74"/>
+      <c r="BU8" s="74"/>
+      <c r="BV8" s="74"/>
+      <c r="BW8" s="74"/>
+      <c r="BX8" s="74"/>
+      <c r="BY8" s="74"/>
+      <c r="BZ8" s="74"/>
+      <c r="CA8" s="74"/>
+      <c r="CB8" s="74"/>
     </row>
     <row r="9" spans="1:80" ht="23.25">
       <c r="A9" s="31"/>
@@ -2932,43 +2933,43 @@
         <v>23</v>
       </c>
       <c r="AL9" s="39"/>
-      <c r="AR9" s="111"/>
-      <c r="AS9" s="111"/>
-      <c r="AT9" s="111"/>
-      <c r="AU9" s="111"/>
-      <c r="AV9" s="111"/>
-      <c r="AW9" s="111"/>
-      <c r="AX9" s="111"/>
-      <c r="AY9" s="111"/>
-      <c r="AZ9" s="111"/>
-      <c r="BA9" s="111"/>
-      <c r="BB9" s="111"/>
-      <c r="BC9" s="111"/>
-      <c r="BD9" s="111"/>
-      <c r="BE9" s="111"/>
-      <c r="BF9" s="111"/>
-      <c r="BG9" s="111"/>
-      <c r="BH9" s="111"/>
-      <c r="BI9" s="111"/>
-      <c r="BJ9" s="111"/>
-      <c r="BK9" s="111"/>
-      <c r="BL9" s="111"/>
-      <c r="BM9" s="111"/>
-      <c r="BN9" s="111"/>
-      <c r="BO9" s="111"/>
-      <c r="BP9" s="111"/>
-      <c r="BQ9" s="111"/>
-      <c r="BR9" s="111"/>
-      <c r="BS9" s="111"/>
-      <c r="BT9" s="111"/>
-      <c r="BU9" s="111"/>
-      <c r="BV9" s="111"/>
-      <c r="BW9" s="111"/>
-      <c r="BX9" s="111"/>
-      <c r="BY9" s="111"/>
-      <c r="BZ9" s="111"/>
-      <c r="CA9" s="111"/>
-      <c r="CB9" s="111"/>
+      <c r="AR9" s="74"/>
+      <c r="AS9" s="74"/>
+      <c r="AT9" s="74"/>
+      <c r="AU9" s="74"/>
+      <c r="AV9" s="74"/>
+      <c r="AW9" s="74"/>
+      <c r="AX9" s="74"/>
+      <c r="AY9" s="74"/>
+      <c r="AZ9" s="74"/>
+      <c r="BA9" s="74"/>
+      <c r="BB9" s="74"/>
+      <c r="BC9" s="74"/>
+      <c r="BD9" s="74"/>
+      <c r="BE9" s="74"/>
+      <c r="BF9" s="74"/>
+      <c r="BG9" s="74"/>
+      <c r="BH9" s="74"/>
+      <c r="BI9" s="74"/>
+      <c r="BJ9" s="74"/>
+      <c r="BK9" s="74"/>
+      <c r="BL9" s="74"/>
+      <c r="BM9" s="74"/>
+      <c r="BN9" s="74"/>
+      <c r="BO9" s="74"/>
+      <c r="BP9" s="74"/>
+      <c r="BQ9" s="74"/>
+      <c r="BR9" s="74"/>
+      <c r="BS9" s="74"/>
+      <c r="BT9" s="74"/>
+      <c r="BU9" s="74"/>
+      <c r="BV9" s="74"/>
+      <c r="BW9" s="74"/>
+      <c r="BX9" s="74"/>
+      <c r="BY9" s="74"/>
+      <c r="BZ9" s="74"/>
+      <c r="CA9" s="74"/>
+      <c r="CB9" s="74"/>
     </row>
     <row r="10" spans="1:80" ht="23.25">
       <c r="A10" s="31"/>
@@ -3063,140 +3064,140 @@
         <v>20</v>
       </c>
       <c r="AL10" s="39"/>
-      <c r="AR10" s="111"/>
-      <c r="AS10" s="111"/>
-      <c r="AT10" s="111"/>
-      <c r="AU10" s="111"/>
-      <c r="AV10" s="111"/>
-      <c r="AW10" s="111"/>
-      <c r="AX10" s="111"/>
-      <c r="AY10" s="111"/>
-      <c r="AZ10" s="111"/>
-      <c r="BA10" s="111"/>
-      <c r="BB10" s="111"/>
-      <c r="BC10" s="111"/>
-      <c r="BD10" s="111"/>
-      <c r="BE10" s="111"/>
-      <c r="BF10" s="111"/>
-      <c r="BG10" s="111"/>
-      <c r="BH10" s="111"/>
-      <c r="BI10" s="111"/>
-      <c r="BJ10" s="111"/>
-      <c r="BK10" s="111"/>
-      <c r="BL10" s="111"/>
-      <c r="BM10" s="111"/>
-      <c r="BN10" s="111"/>
-      <c r="BO10" s="111"/>
-      <c r="BP10" s="111"/>
-      <c r="BQ10" s="111"/>
-      <c r="BR10" s="111"/>
-      <c r="BS10" s="111"/>
-      <c r="BT10" s="111"/>
-      <c r="BU10" s="111"/>
-      <c r="BV10" s="111"/>
-      <c r="BW10" s="111"/>
-      <c r="BX10" s="111"/>
-      <c r="BY10" s="111"/>
-      <c r="BZ10" s="111"/>
-      <c r="CA10" s="111"/>
-      <c r="CB10" s="111"/>
+      <c r="AR10" s="74"/>
+      <c r="AS10" s="74"/>
+      <c r="AT10" s="74"/>
+      <c r="AU10" s="74"/>
+      <c r="AV10" s="74"/>
+      <c r="AW10" s="74"/>
+      <c r="AX10" s="74"/>
+      <c r="AY10" s="74"/>
+      <c r="AZ10" s="74"/>
+      <c r="BA10" s="74"/>
+      <c r="BB10" s="74"/>
+      <c r="BC10" s="74"/>
+      <c r="BD10" s="74"/>
+      <c r="BE10" s="74"/>
+      <c r="BF10" s="74"/>
+      <c r="BG10" s="74"/>
+      <c r="BH10" s="74"/>
+      <c r="BI10" s="74"/>
+      <c r="BJ10" s="74"/>
+      <c r="BK10" s="74"/>
+      <c r="BL10" s="74"/>
+      <c r="BM10" s="74"/>
+      <c r="BN10" s="74"/>
+      <c r="BO10" s="74"/>
+      <c r="BP10" s="74"/>
+      <c r="BQ10" s="74"/>
+      <c r="BR10" s="74"/>
+      <c r="BS10" s="74"/>
+      <c r="BT10" s="74"/>
+      <c r="BU10" s="74"/>
+      <c r="BV10" s="74"/>
+      <c r="BW10" s="74"/>
+      <c r="BX10" s="74"/>
+      <c r="BY10" s="74"/>
+      <c r="BZ10" s="74"/>
+      <c r="CA10" s="74"/>
+      <c r="CB10" s="74"/>
     </row>
     <row r="11" spans="1:80" ht="23.25">
       <c r="A11" s="31"/>
       <c r="B11" s="40"/>
-      <c r="C11" s="73">
+      <c r="C11" s="78">
         <v>5</v>
       </c>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
       <c r="F11" s="40"/>
-      <c r="G11" s="73">
+      <c r="G11" s="78">
         <v>7</v>
       </c>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
       <c r="J11" s="40"/>
-      <c r="K11" s="73">
+      <c r="K11" s="78">
         <v>2</v>
       </c>
-      <c r="L11" s="73"/>
+      <c r="L11" s="78"/>
       <c r="M11" s="40"/>
-      <c r="N11" s="73">
+      <c r="N11" s="78">
         <v>3</v>
       </c>
-      <c r="O11" s="73"/>
+      <c r="O11" s="78"/>
       <c r="P11" s="40"/>
-      <c r="Q11" s="73">
+      <c r="Q11" s="78">
         <v>4</v>
       </c>
-      <c r="R11" s="73"/>
+      <c r="R11" s="78"/>
       <c r="S11" s="40"/>
-      <c r="T11" s="73">
+      <c r="T11" s="78">
         <v>1</v>
       </c>
-      <c r="U11" s="73"/>
-      <c r="V11" s="73"/>
+      <c r="U11" s="78"/>
+      <c r="V11" s="78"/>
       <c r="W11" s="40"/>
-      <c r="X11" s="73">
+      <c r="X11" s="78">
         <v>6</v>
       </c>
-      <c r="Y11" s="73"/>
-      <c r="Z11" s="73"/>
+      <c r="Y11" s="78"/>
+      <c r="Z11" s="78"/>
       <c r="AA11" s="40"/>
-      <c r="AB11" s="73">
+      <c r="AB11" s="78">
         <v>0</v>
       </c>
-      <c r="AC11" s="73"/>
-      <c r="AD11" s="73"/>
+      <c r="AC11" s="78"/>
+      <c r="AD11" s="78"/>
       <c r="AE11" s="40"/>
-      <c r="AF11" s="73">
+      <c r="AF11" s="78">
         <v>8</v>
       </c>
-      <c r="AG11" s="73"/>
+      <c r="AG11" s="78"/>
       <c r="AH11" s="40"/>
-      <c r="AI11" s="73">
+      <c r="AI11" s="78">
         <v>9</v>
       </c>
-      <c r="AJ11" s="73"/>
-      <c r="AK11" s="73"/>
+      <c r="AJ11" s="78"/>
+      <c r="AK11" s="78"/>
       <c r="AL11" s="41"/>
-      <c r="AR11" s="112"/>
-      <c r="AS11" s="112"/>
-      <c r="AT11" s="112"/>
-      <c r="AU11" s="112"/>
-      <c r="AV11" s="112"/>
-      <c r="AW11" s="111"/>
-      <c r="AX11" s="112"/>
-      <c r="AY11" s="112"/>
-      <c r="AZ11" s="112"/>
-      <c r="BA11" s="111"/>
-      <c r="BB11" s="112"/>
-      <c r="BC11" s="112"/>
-      <c r="BD11" s="111"/>
-      <c r="BE11" s="112"/>
-      <c r="BF11" s="112"/>
-      <c r="BG11" s="111"/>
-      <c r="BH11" s="112"/>
-      <c r="BI11" s="112"/>
-      <c r="BJ11" s="111"/>
-      <c r="BK11" s="112"/>
-      <c r="BL11" s="112"/>
-      <c r="BM11" s="112"/>
-      <c r="BN11" s="111"/>
-      <c r="BO11" s="112"/>
-      <c r="BP11" s="112"/>
-      <c r="BQ11" s="112"/>
-      <c r="BR11" s="111"/>
-      <c r="BS11" s="112"/>
-      <c r="BT11" s="112"/>
-      <c r="BU11" s="112"/>
-      <c r="BV11" s="111"/>
-      <c r="BW11" s="112"/>
-      <c r="BX11" s="112"/>
-      <c r="BY11" s="111"/>
-      <c r="BZ11" s="112"/>
-      <c r="CA11" s="112"/>
-      <c r="CB11" s="112"/>
+      <c r="AR11" s="75"/>
+      <c r="AS11" s="75"/>
+      <c r="AT11" s="75"/>
+      <c r="AU11" s="75"/>
+      <c r="AV11" s="75"/>
+      <c r="AW11" s="74"/>
+      <c r="AX11" s="75"/>
+      <c r="AY11" s="75"/>
+      <c r="AZ11" s="75"/>
+      <c r="BA11" s="74"/>
+      <c r="BB11" s="75"/>
+      <c r="BC11" s="75"/>
+      <c r="BD11" s="74"/>
+      <c r="BE11" s="75"/>
+      <c r="BF11" s="75"/>
+      <c r="BG11" s="74"/>
+      <c r="BH11" s="75"/>
+      <c r="BI11" s="75"/>
+      <c r="BJ11" s="74"/>
+      <c r="BK11" s="75"/>
+      <c r="BL11" s="75"/>
+      <c r="BM11" s="75"/>
+      <c r="BN11" s="74"/>
+      <c r="BO11" s="75"/>
+      <c r="BP11" s="75"/>
+      <c r="BQ11" s="75"/>
+      <c r="BR11" s="74"/>
+      <c r="BS11" s="75"/>
+      <c r="BT11" s="75"/>
+      <c r="BU11" s="75"/>
+      <c r="BV11" s="74"/>
+      <c r="BW11" s="75"/>
+      <c r="BX11" s="75"/>
+      <c r="BY11" s="74"/>
+      <c r="BZ11" s="75"/>
+      <c r="CA11" s="75"/>
+      <c r="CB11" s="75"/>
     </row>
     <row r="12" spans="1:80" ht="23.25">
       <c r="A12" s="31"/>
@@ -3291,43 +3292,43 @@
         <v>4</v>
       </c>
       <c r="AL12" s="39"/>
-      <c r="AR12" s="111"/>
-      <c r="AS12" s="111"/>
-      <c r="AT12" s="111"/>
-      <c r="AU12" s="111"/>
-      <c r="AV12" s="111"/>
-      <c r="AW12" s="111"/>
-      <c r="AX12" s="111"/>
-      <c r="AY12" s="111"/>
-      <c r="AZ12" s="111"/>
-      <c r="BA12" s="111"/>
-      <c r="BB12" s="111"/>
-      <c r="BC12" s="111"/>
-      <c r="BD12" s="111"/>
-      <c r="BE12" s="111"/>
-      <c r="BF12" s="111"/>
-      <c r="BG12" s="111"/>
-      <c r="BH12" s="111"/>
-      <c r="BI12" s="111"/>
-      <c r="BJ12" s="111"/>
-      <c r="BK12" s="111"/>
-      <c r="BL12" s="111"/>
-      <c r="BM12" s="111"/>
-      <c r="BN12" s="111"/>
-      <c r="BO12" s="111"/>
-      <c r="BP12" s="111"/>
-      <c r="BQ12" s="111"/>
-      <c r="BR12" s="111"/>
-      <c r="BS12" s="111"/>
-      <c r="BT12" s="111"/>
-      <c r="BU12" s="111"/>
-      <c r="BV12" s="111"/>
-      <c r="BW12" s="111"/>
-      <c r="BX12" s="111"/>
-      <c r="BY12" s="111"/>
-      <c r="BZ12" s="111"/>
-      <c r="CA12" s="111"/>
-      <c r="CB12" s="111"/>
+      <c r="AR12" s="74"/>
+      <c r="AS12" s="74"/>
+      <c r="AT12" s="74"/>
+      <c r="AU12" s="74"/>
+      <c r="AV12" s="74"/>
+      <c r="AW12" s="74"/>
+      <c r="AX12" s="74"/>
+      <c r="AY12" s="74"/>
+      <c r="AZ12" s="74"/>
+      <c r="BA12" s="74"/>
+      <c r="BB12" s="74"/>
+      <c r="BC12" s="74"/>
+      <c r="BD12" s="74"/>
+      <c r="BE12" s="74"/>
+      <c r="BF12" s="74"/>
+      <c r="BG12" s="74"/>
+      <c r="BH12" s="74"/>
+      <c r="BI12" s="74"/>
+      <c r="BJ12" s="74"/>
+      <c r="BK12" s="74"/>
+      <c r="BL12" s="74"/>
+      <c r="BM12" s="74"/>
+      <c r="BN12" s="74"/>
+      <c r="BO12" s="74"/>
+      <c r="BP12" s="74"/>
+      <c r="BQ12" s="74"/>
+      <c r="BR12" s="74"/>
+      <c r="BS12" s="74"/>
+      <c r="BT12" s="74"/>
+      <c r="BU12" s="74"/>
+      <c r="BV12" s="74"/>
+      <c r="BW12" s="74"/>
+      <c r="BX12" s="74"/>
+      <c r="BY12" s="74"/>
+      <c r="BZ12" s="74"/>
+      <c r="CA12" s="74"/>
+      <c r="CB12" s="74"/>
     </row>
     <row r="13" spans="1:80" ht="23.25">
       <c r="A13" s="31"/>
@@ -3422,43 +3423,43 @@
         <v>8</v>
       </c>
       <c r="AL13" s="39"/>
-      <c r="AR13" s="111"/>
-      <c r="AS13" s="111"/>
-      <c r="AT13" s="111"/>
-      <c r="AU13" s="111"/>
-      <c r="AV13" s="111"/>
-      <c r="AW13" s="111"/>
-      <c r="AX13" s="111"/>
-      <c r="AY13" s="111"/>
-      <c r="AZ13" s="111"/>
-      <c r="BA13" s="111"/>
-      <c r="BB13" s="111"/>
-      <c r="BC13" s="111"/>
-      <c r="BD13" s="111"/>
-      <c r="BE13" s="111"/>
-      <c r="BF13" s="111"/>
-      <c r="BG13" s="111"/>
-      <c r="BH13" s="111"/>
-      <c r="BI13" s="111"/>
-      <c r="BJ13" s="111"/>
-      <c r="BK13" s="111"/>
-      <c r="BL13" s="111"/>
-      <c r="BM13" s="111"/>
-      <c r="BN13" s="111"/>
-      <c r="BO13" s="111"/>
-      <c r="BP13" s="111"/>
-      <c r="BQ13" s="111"/>
-      <c r="BR13" s="111"/>
-      <c r="BS13" s="111"/>
-      <c r="BT13" s="111"/>
-      <c r="BU13" s="111"/>
-      <c r="BV13" s="111"/>
-      <c r="BW13" s="111"/>
-      <c r="BX13" s="111"/>
-      <c r="BY13" s="111"/>
-      <c r="BZ13" s="111"/>
-      <c r="CA13" s="111"/>
-      <c r="CB13" s="111"/>
+      <c r="AR13" s="74"/>
+      <c r="AS13" s="74"/>
+      <c r="AT13" s="74"/>
+      <c r="AU13" s="74"/>
+      <c r="AV13" s="74"/>
+      <c r="AW13" s="74"/>
+      <c r="AX13" s="74"/>
+      <c r="AY13" s="74"/>
+      <c r="AZ13" s="74"/>
+      <c r="BA13" s="74"/>
+      <c r="BB13" s="74"/>
+      <c r="BC13" s="74"/>
+      <c r="BD13" s="74"/>
+      <c r="BE13" s="74"/>
+      <c r="BF13" s="74"/>
+      <c r="BG13" s="74"/>
+      <c r="BH13" s="74"/>
+      <c r="BI13" s="74"/>
+      <c r="BJ13" s="74"/>
+      <c r="BK13" s="74"/>
+      <c r="BL13" s="74"/>
+      <c r="BM13" s="74"/>
+      <c r="BN13" s="74"/>
+      <c r="BO13" s="74"/>
+      <c r="BP13" s="74"/>
+      <c r="BQ13" s="74"/>
+      <c r="BR13" s="74"/>
+      <c r="BS13" s="74"/>
+      <c r="BT13" s="74"/>
+      <c r="BU13" s="74"/>
+      <c r="BV13" s="74"/>
+      <c r="BW13" s="74"/>
+      <c r="BX13" s="74"/>
+      <c r="BY13" s="74"/>
+      <c r="BZ13" s="74"/>
+      <c r="CA13" s="74"/>
+      <c r="CB13" s="74"/>
     </row>
     <row r="14" spans="1:80" ht="23.25">
       <c r="A14" s="31"/>
@@ -3553,43 +3554,43 @@
         <v>13</v>
       </c>
       <c r="AL14" s="39"/>
-      <c r="AR14" s="111"/>
-      <c r="AS14" s="111"/>
-      <c r="AT14" s="111"/>
-      <c r="AU14" s="111"/>
-      <c r="AV14" s="111"/>
-      <c r="AW14" s="111"/>
-      <c r="AX14" s="111"/>
-      <c r="AY14" s="111"/>
-      <c r="AZ14" s="111"/>
-      <c r="BA14" s="111"/>
-      <c r="BB14" s="111"/>
-      <c r="BC14" s="111"/>
-      <c r="BD14" s="111"/>
-      <c r="BE14" s="111"/>
-      <c r="BF14" s="111"/>
-      <c r="BG14" s="111"/>
-      <c r="BH14" s="111"/>
-      <c r="BI14" s="111"/>
-      <c r="BJ14" s="111"/>
-      <c r="BK14" s="111"/>
-      <c r="BL14" s="111"/>
-      <c r="BM14" s="111"/>
-      <c r="BN14" s="111"/>
-      <c r="BO14" s="111"/>
-      <c r="BP14" s="111"/>
-      <c r="BQ14" s="111"/>
-      <c r="BR14" s="111"/>
-      <c r="BS14" s="111"/>
-      <c r="BT14" s="111"/>
-      <c r="BU14" s="111"/>
-      <c r="BV14" s="111"/>
-      <c r="BW14" s="111"/>
-      <c r="BX14" s="111"/>
-      <c r="BY14" s="111"/>
-      <c r="BZ14" s="111"/>
-      <c r="CA14" s="111"/>
-      <c r="CB14" s="111"/>
+      <c r="AR14" s="74"/>
+      <c r="AS14" s="74"/>
+      <c r="AT14" s="74"/>
+      <c r="AU14" s="74"/>
+      <c r="AV14" s="74"/>
+      <c r="AW14" s="74"/>
+      <c r="AX14" s="74"/>
+      <c r="AY14" s="74"/>
+      <c r="AZ14" s="74"/>
+      <c r="BA14" s="74"/>
+      <c r="BB14" s="74"/>
+      <c r="BC14" s="74"/>
+      <c r="BD14" s="74"/>
+      <c r="BE14" s="74"/>
+      <c r="BF14" s="74"/>
+      <c r="BG14" s="74"/>
+      <c r="BH14" s="74"/>
+      <c r="BI14" s="74"/>
+      <c r="BJ14" s="74"/>
+      <c r="BK14" s="74"/>
+      <c r="BL14" s="74"/>
+      <c r="BM14" s="74"/>
+      <c r="BN14" s="74"/>
+      <c r="BO14" s="74"/>
+      <c r="BP14" s="74"/>
+      <c r="BQ14" s="74"/>
+      <c r="BR14" s="74"/>
+      <c r="BS14" s="74"/>
+      <c r="BT14" s="74"/>
+      <c r="BU14" s="74"/>
+      <c r="BV14" s="74"/>
+      <c r="BW14" s="74"/>
+      <c r="BX14" s="74"/>
+      <c r="BY14" s="74"/>
+      <c r="BZ14" s="74"/>
+      <c r="CA14" s="74"/>
+      <c r="CB14" s="74"/>
     </row>
     <row r="15" spans="1:80" ht="23.25">
       <c r="A15" s="31"/>
@@ -3684,43 +3685,43 @@
         <v>21</v>
       </c>
       <c r="AL15" s="39"/>
-      <c r="AR15" s="111"/>
-      <c r="AS15" s="111"/>
-      <c r="AT15" s="111"/>
-      <c r="AU15" s="111"/>
-      <c r="AV15" s="111"/>
-      <c r="AW15" s="111"/>
-      <c r="AX15" s="111"/>
-      <c r="AY15" s="111"/>
-      <c r="AZ15" s="111"/>
-      <c r="BA15" s="111"/>
-      <c r="BB15" s="111"/>
-      <c r="BC15" s="111"/>
-      <c r="BD15" s="111"/>
-      <c r="BE15" s="111"/>
-      <c r="BF15" s="111"/>
-      <c r="BG15" s="111"/>
-      <c r="BH15" s="111"/>
-      <c r="BI15" s="111"/>
-      <c r="BJ15" s="111"/>
-      <c r="BK15" s="111"/>
-      <c r="BL15" s="111"/>
-      <c r="BM15" s="111"/>
-      <c r="BN15" s="111"/>
-      <c r="BO15" s="111"/>
-      <c r="BP15" s="111"/>
-      <c r="BQ15" s="111"/>
-      <c r="BR15" s="111"/>
-      <c r="BS15" s="111"/>
-      <c r="BT15" s="111"/>
-      <c r="BU15" s="111"/>
-      <c r="BV15" s="111"/>
-      <c r="BW15" s="111"/>
-      <c r="BX15" s="111"/>
-      <c r="BY15" s="111"/>
-      <c r="BZ15" s="111"/>
-      <c r="CA15" s="111"/>
-      <c r="CB15" s="111"/>
+      <c r="AR15" s="74"/>
+      <c r="AS15" s="74"/>
+      <c r="AT15" s="74"/>
+      <c r="AU15" s="74"/>
+      <c r="AV15" s="74"/>
+      <c r="AW15" s="74"/>
+      <c r="AX15" s="74"/>
+      <c r="AY15" s="74"/>
+      <c r="AZ15" s="74"/>
+      <c r="BA15" s="74"/>
+      <c r="BB15" s="74"/>
+      <c r="BC15" s="74"/>
+      <c r="BD15" s="74"/>
+      <c r="BE15" s="74"/>
+      <c r="BF15" s="74"/>
+      <c r="BG15" s="74"/>
+      <c r="BH15" s="74"/>
+      <c r="BI15" s="74"/>
+      <c r="BJ15" s="74"/>
+      <c r="BK15" s="74"/>
+      <c r="BL15" s="74"/>
+      <c r="BM15" s="74"/>
+      <c r="BN15" s="74"/>
+      <c r="BO15" s="74"/>
+      <c r="BP15" s="74"/>
+      <c r="BQ15" s="74"/>
+      <c r="BR15" s="74"/>
+      <c r="BS15" s="74"/>
+      <c r="BT15" s="74"/>
+      <c r="BU15" s="74"/>
+      <c r="BV15" s="74"/>
+      <c r="BW15" s="74"/>
+      <c r="BX15" s="74"/>
+      <c r="BY15" s="74"/>
+      <c r="BZ15" s="74"/>
+      <c r="CA15" s="74"/>
+      <c r="CB15" s="74"/>
     </row>
     <row r="16" spans="1:80" ht="23.25">
       <c r="A16" s="31"/>
@@ -3815,43 +3816,43 @@
         <v>19</v>
       </c>
       <c r="AL16" s="39"/>
-      <c r="AR16" s="111"/>
-      <c r="AS16" s="111"/>
-      <c r="AT16" s="111"/>
-      <c r="AU16" s="111"/>
-      <c r="AV16" s="111"/>
-      <c r="AW16" s="111"/>
-      <c r="AX16" s="111"/>
-      <c r="AY16" s="111"/>
-      <c r="AZ16" s="111"/>
-      <c r="BA16" s="111"/>
-      <c r="BB16" s="111"/>
-      <c r="BC16" s="111"/>
-      <c r="BD16" s="111"/>
-      <c r="BE16" s="111"/>
-      <c r="BF16" s="111"/>
-      <c r="BG16" s="111"/>
-      <c r="BH16" s="111"/>
-      <c r="BI16" s="111"/>
-      <c r="BJ16" s="111"/>
-      <c r="BK16" s="111"/>
-      <c r="BL16" s="111"/>
-      <c r="BM16" s="111"/>
-      <c r="BN16" s="111"/>
-      <c r="BO16" s="111"/>
-      <c r="BP16" s="111"/>
-      <c r="BQ16" s="111"/>
-      <c r="BR16" s="111"/>
-      <c r="BS16" s="111"/>
-      <c r="BT16" s="111"/>
-      <c r="BU16" s="111"/>
-      <c r="BV16" s="111"/>
-      <c r="BW16" s="111"/>
-      <c r="BX16" s="111"/>
-      <c r="BY16" s="111"/>
-      <c r="BZ16" s="111"/>
-      <c r="CA16" s="111"/>
-      <c r="CB16" s="111"/>
+      <c r="AR16" s="74"/>
+      <c r="AS16" s="74"/>
+      <c r="AT16" s="74"/>
+      <c r="AU16" s="74"/>
+      <c r="AV16" s="74"/>
+      <c r="AW16" s="74"/>
+      <c r="AX16" s="74"/>
+      <c r="AY16" s="74"/>
+      <c r="AZ16" s="74"/>
+      <c r="BA16" s="74"/>
+      <c r="BB16" s="74"/>
+      <c r="BC16" s="74"/>
+      <c r="BD16" s="74"/>
+      <c r="BE16" s="74"/>
+      <c r="BF16" s="74"/>
+      <c r="BG16" s="74"/>
+      <c r="BH16" s="74"/>
+      <c r="BI16" s="74"/>
+      <c r="BJ16" s="74"/>
+      <c r="BK16" s="74"/>
+      <c r="BL16" s="74"/>
+      <c r="BM16" s="74"/>
+      <c r="BN16" s="74"/>
+      <c r="BO16" s="74"/>
+      <c r="BP16" s="74"/>
+      <c r="BQ16" s="74"/>
+      <c r="BR16" s="74"/>
+      <c r="BS16" s="74"/>
+      <c r="BT16" s="74"/>
+      <c r="BU16" s="74"/>
+      <c r="BV16" s="74"/>
+      <c r="BW16" s="74"/>
+      <c r="BX16" s="74"/>
+      <c r="BY16" s="74"/>
+      <c r="BZ16" s="74"/>
+      <c r="CA16" s="74"/>
+      <c r="CB16" s="74"/>
     </row>
     <row r="17" spans="1:80" ht="23.25">
       <c r="A17" s="31"/>
@@ -3946,140 +3947,140 @@
         <v>21</v>
       </c>
       <c r="AL17" s="39"/>
-      <c r="AR17" s="111"/>
-      <c r="AS17" s="111"/>
-      <c r="AT17" s="111"/>
-      <c r="AU17" s="111"/>
-      <c r="AV17" s="111"/>
-      <c r="AW17" s="111"/>
-      <c r="AX17" s="111"/>
-      <c r="AY17" s="111"/>
-      <c r="AZ17" s="111"/>
-      <c r="BA17" s="111"/>
-      <c r="BB17" s="111"/>
-      <c r="BC17" s="111"/>
-      <c r="BD17" s="111"/>
-      <c r="BE17" s="111"/>
-      <c r="BF17" s="111"/>
-      <c r="BG17" s="111"/>
-      <c r="BH17" s="111"/>
-      <c r="BI17" s="111"/>
-      <c r="BJ17" s="111"/>
-      <c r="BK17" s="111"/>
-      <c r="BL17" s="111"/>
-      <c r="BM17" s="111"/>
-      <c r="BN17" s="111"/>
-      <c r="BO17" s="111"/>
-      <c r="BP17" s="111"/>
-      <c r="BQ17" s="111"/>
-      <c r="BR17" s="111"/>
-      <c r="BS17" s="111"/>
-      <c r="BT17" s="111"/>
-      <c r="BU17" s="111"/>
-      <c r="BV17" s="111"/>
-      <c r="BW17" s="111"/>
-      <c r="BX17" s="111"/>
-      <c r="BY17" s="111"/>
-      <c r="BZ17" s="111"/>
-      <c r="CA17" s="111"/>
-      <c r="CB17" s="111"/>
+      <c r="AR17" s="74"/>
+      <c r="AS17" s="74"/>
+      <c r="AT17" s="74"/>
+      <c r="AU17" s="74"/>
+      <c r="AV17" s="74"/>
+      <c r="AW17" s="74"/>
+      <c r="AX17" s="74"/>
+      <c r="AY17" s="74"/>
+      <c r="AZ17" s="74"/>
+      <c r="BA17" s="74"/>
+      <c r="BB17" s="74"/>
+      <c r="BC17" s="74"/>
+      <c r="BD17" s="74"/>
+      <c r="BE17" s="74"/>
+      <c r="BF17" s="74"/>
+      <c r="BG17" s="74"/>
+      <c r="BH17" s="74"/>
+      <c r="BI17" s="74"/>
+      <c r="BJ17" s="74"/>
+      <c r="BK17" s="74"/>
+      <c r="BL17" s="74"/>
+      <c r="BM17" s="74"/>
+      <c r="BN17" s="74"/>
+      <c r="BO17" s="74"/>
+      <c r="BP17" s="74"/>
+      <c r="BQ17" s="74"/>
+      <c r="BR17" s="74"/>
+      <c r="BS17" s="74"/>
+      <c r="BT17" s="74"/>
+      <c r="BU17" s="74"/>
+      <c r="BV17" s="74"/>
+      <c r="BW17" s="74"/>
+      <c r="BX17" s="74"/>
+      <c r="BY17" s="74"/>
+      <c r="BZ17" s="74"/>
+      <c r="CA17" s="74"/>
+      <c r="CB17" s="74"/>
     </row>
     <row r="18" spans="1:80" ht="23.25">
       <c r="A18" s="31"/>
       <c r="B18" s="36"/>
-      <c r="C18" s="73">
+      <c r="C18" s="78">
         <v>5</v>
       </c>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
       <c r="F18" s="40"/>
-      <c r="G18" s="73">
+      <c r="G18" s="78">
         <v>7</v>
       </c>
-      <c r="H18" s="73"/>
-      <c r="I18" s="73"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
       <c r="J18" s="40"/>
-      <c r="K18" s="73">
+      <c r="K18" s="78">
         <v>2</v>
       </c>
-      <c r="L18" s="73"/>
+      <c r="L18" s="78"/>
       <c r="M18" s="40"/>
-      <c r="N18" s="73">
+      <c r="N18" s="78">
         <v>3</v>
       </c>
-      <c r="O18" s="73"/>
+      <c r="O18" s="78"/>
       <c r="P18" s="40"/>
-      <c r="Q18" s="73">
+      <c r="Q18" s="78">
         <v>4</v>
       </c>
-      <c r="R18" s="73"/>
+      <c r="R18" s="78"/>
       <c r="S18" s="40"/>
-      <c r="T18" s="73">
+      <c r="T18" s="78">
         <v>1</v>
       </c>
-      <c r="U18" s="73"/>
-      <c r="V18" s="73"/>
+      <c r="U18" s="78"/>
+      <c r="V18" s="78"/>
       <c r="W18" s="40"/>
-      <c r="X18" s="73">
+      <c r="X18" s="78">
         <v>6</v>
       </c>
-      <c r="Y18" s="73"/>
-      <c r="Z18" s="73"/>
+      <c r="Y18" s="78"/>
+      <c r="Z18" s="78"/>
       <c r="AA18" s="40"/>
-      <c r="AB18" s="73">
+      <c r="AB18" s="78">
         <v>0</v>
       </c>
-      <c r="AC18" s="73"/>
-      <c r="AD18" s="73"/>
+      <c r="AC18" s="78"/>
+      <c r="AD18" s="78"/>
       <c r="AE18" s="40"/>
-      <c r="AF18" s="73">
+      <c r="AF18" s="78">
         <v>8</v>
       </c>
-      <c r="AG18" s="73"/>
+      <c r="AG18" s="78"/>
       <c r="AH18" s="40"/>
-      <c r="AI18" s="73">
+      <c r="AI18" s="78">
         <v>9</v>
       </c>
-      <c r="AJ18" s="73"/>
-      <c r="AK18" s="73"/>
+      <c r="AJ18" s="78"/>
+      <c r="AK18" s="78"/>
       <c r="AL18" s="41"/>
-      <c r="AR18" s="112"/>
-      <c r="AS18" s="112"/>
-      <c r="AT18" s="112"/>
-      <c r="AU18" s="112"/>
-      <c r="AV18" s="112"/>
-      <c r="AW18" s="111"/>
-      <c r="AX18" s="112"/>
-      <c r="AY18" s="112"/>
-      <c r="AZ18" s="112"/>
-      <c r="BA18" s="111"/>
-      <c r="BB18" s="112"/>
-      <c r="BC18" s="112"/>
-      <c r="BD18" s="111"/>
-      <c r="BE18" s="112"/>
-      <c r="BF18" s="112"/>
-      <c r="BG18" s="111"/>
-      <c r="BH18" s="112"/>
-      <c r="BI18" s="112"/>
-      <c r="BJ18" s="111"/>
-      <c r="BK18" s="112"/>
-      <c r="BL18" s="112"/>
-      <c r="BM18" s="112"/>
-      <c r="BN18" s="111"/>
-      <c r="BO18" s="112"/>
-      <c r="BP18" s="112"/>
-      <c r="BQ18" s="112"/>
-      <c r="BR18" s="111"/>
-      <c r="BS18" s="112"/>
-      <c r="BT18" s="112"/>
-      <c r="BU18" s="112"/>
-      <c r="BV18" s="111"/>
-      <c r="BW18" s="112"/>
-      <c r="BX18" s="112"/>
-      <c r="BY18" s="111"/>
-      <c r="BZ18" s="112"/>
-      <c r="CA18" s="112"/>
-      <c r="CB18" s="112"/>
+      <c r="AR18" s="75"/>
+      <c r="AS18" s="75"/>
+      <c r="AT18" s="75"/>
+      <c r="AU18" s="75"/>
+      <c r="AV18" s="75"/>
+      <c r="AW18" s="74"/>
+      <c r="AX18" s="75"/>
+      <c r="AY18" s="75"/>
+      <c r="AZ18" s="75"/>
+      <c r="BA18" s="74"/>
+      <c r="BB18" s="75"/>
+      <c r="BC18" s="75"/>
+      <c r="BD18" s="74"/>
+      <c r="BE18" s="75"/>
+      <c r="BF18" s="75"/>
+      <c r="BG18" s="74"/>
+      <c r="BH18" s="75"/>
+      <c r="BI18" s="75"/>
+      <c r="BJ18" s="74"/>
+      <c r="BK18" s="75"/>
+      <c r="BL18" s="75"/>
+      <c r="BM18" s="75"/>
+      <c r="BN18" s="74"/>
+      <c r="BO18" s="75"/>
+      <c r="BP18" s="75"/>
+      <c r="BQ18" s="75"/>
+      <c r="BR18" s="74"/>
+      <c r="BS18" s="75"/>
+      <c r="BT18" s="75"/>
+      <c r="BU18" s="75"/>
+      <c r="BV18" s="74"/>
+      <c r="BW18" s="75"/>
+      <c r="BX18" s="75"/>
+      <c r="BY18" s="74"/>
+      <c r="BZ18" s="75"/>
+      <c r="CA18" s="75"/>
+      <c r="CB18" s="75"/>
     </row>
     <row r="19" spans="1:80" ht="23.25">
       <c r="A19" s="31"/>
@@ -4174,43 +4175,43 @@
         <v>18</v>
       </c>
       <c r="AL19" s="39"/>
-      <c r="AR19" s="111"/>
-      <c r="AS19" s="111"/>
-      <c r="AT19" s="111"/>
-      <c r="AU19" s="111"/>
-      <c r="AV19" s="111"/>
-      <c r="AW19" s="111"/>
-      <c r="AX19" s="111"/>
-      <c r="AY19" s="111"/>
-      <c r="AZ19" s="111"/>
-      <c r="BA19" s="111"/>
-      <c r="BB19" s="111"/>
-      <c r="BC19" s="111"/>
-      <c r="BD19" s="111"/>
-      <c r="BE19" s="111"/>
-      <c r="BF19" s="111"/>
-      <c r="BG19" s="111"/>
-      <c r="BH19" s="111"/>
-      <c r="BI19" s="111"/>
-      <c r="BJ19" s="111"/>
-      <c r="BK19" s="111"/>
-      <c r="BL19" s="111"/>
-      <c r="BM19" s="111"/>
-      <c r="BN19" s="111"/>
-      <c r="BO19" s="111"/>
-      <c r="BP19" s="111"/>
-      <c r="BQ19" s="111"/>
-      <c r="BR19" s="111"/>
-      <c r="BS19" s="111"/>
-      <c r="BT19" s="111"/>
-      <c r="BU19" s="111"/>
-      <c r="BV19" s="111"/>
-      <c r="BW19" s="111"/>
-      <c r="BX19" s="111"/>
-      <c r="BY19" s="111"/>
-      <c r="BZ19" s="111"/>
-      <c r="CA19" s="111"/>
-      <c r="CB19" s="111"/>
+      <c r="AR19" s="74"/>
+      <c r="AS19" s="74"/>
+      <c r="AT19" s="74"/>
+      <c r="AU19" s="74"/>
+      <c r="AV19" s="74"/>
+      <c r="AW19" s="74"/>
+      <c r="AX19" s="74"/>
+      <c r="AY19" s="74"/>
+      <c r="AZ19" s="74"/>
+      <c r="BA19" s="74"/>
+      <c r="BB19" s="74"/>
+      <c r="BC19" s="74"/>
+      <c r="BD19" s="74"/>
+      <c r="BE19" s="74"/>
+      <c r="BF19" s="74"/>
+      <c r="BG19" s="74"/>
+      <c r="BH19" s="74"/>
+      <c r="BI19" s="74"/>
+      <c r="BJ19" s="74"/>
+      <c r="BK19" s="74"/>
+      <c r="BL19" s="74"/>
+      <c r="BM19" s="74"/>
+      <c r="BN19" s="74"/>
+      <c r="BO19" s="74"/>
+      <c r="BP19" s="74"/>
+      <c r="BQ19" s="74"/>
+      <c r="BR19" s="74"/>
+      <c r="BS19" s="74"/>
+      <c r="BT19" s="74"/>
+      <c r="BU19" s="74"/>
+      <c r="BV19" s="74"/>
+      <c r="BW19" s="74"/>
+      <c r="BX19" s="74"/>
+      <c r="BY19" s="74"/>
+      <c r="BZ19" s="74"/>
+      <c r="CA19" s="74"/>
+      <c r="CB19" s="74"/>
     </row>
     <row r="20" spans="1:80" ht="23.25">
       <c r="A20" s="31"/>
@@ -4305,43 +4306,43 @@
         <v>25</v>
       </c>
       <c r="AL20" s="39"/>
-      <c r="AR20" s="111"/>
-      <c r="AS20" s="111"/>
-      <c r="AT20" s="111"/>
-      <c r="AU20" s="111"/>
-      <c r="AV20" s="111"/>
-      <c r="AW20" s="111"/>
-      <c r="AX20" s="111"/>
-      <c r="AY20" s="111"/>
-      <c r="AZ20" s="111"/>
-      <c r="BA20" s="111"/>
-      <c r="BB20" s="111"/>
-      <c r="BC20" s="111"/>
-      <c r="BD20" s="111"/>
-      <c r="BE20" s="111"/>
-      <c r="BF20" s="111"/>
-      <c r="BG20" s="111"/>
-      <c r="BH20" s="111"/>
-      <c r="BI20" s="111"/>
-      <c r="BJ20" s="111"/>
-      <c r="BK20" s="111"/>
-      <c r="BL20" s="111"/>
-      <c r="BM20" s="111"/>
-      <c r="BN20" s="111"/>
-      <c r="BO20" s="111"/>
-      <c r="BP20" s="111"/>
-      <c r="BQ20" s="111"/>
-      <c r="BR20" s="111"/>
-      <c r="BS20" s="111"/>
-      <c r="BT20" s="111"/>
-      <c r="BU20" s="111"/>
-      <c r="BV20" s="111"/>
-      <c r="BW20" s="111"/>
-      <c r="BX20" s="111"/>
-      <c r="BY20" s="111"/>
-      <c r="BZ20" s="111"/>
-      <c r="CA20" s="111"/>
-      <c r="CB20" s="111"/>
+      <c r="AR20" s="74"/>
+      <c r="AS20" s="74"/>
+      <c r="AT20" s="74"/>
+      <c r="AU20" s="74"/>
+      <c r="AV20" s="74"/>
+      <c r="AW20" s="74"/>
+      <c r="AX20" s="74"/>
+      <c r="AY20" s="74"/>
+      <c r="AZ20" s="74"/>
+      <c r="BA20" s="74"/>
+      <c r="BB20" s="74"/>
+      <c r="BC20" s="74"/>
+      <c r="BD20" s="74"/>
+      <c r="BE20" s="74"/>
+      <c r="BF20" s="74"/>
+      <c r="BG20" s="74"/>
+      <c r="BH20" s="74"/>
+      <c r="BI20" s="74"/>
+      <c r="BJ20" s="74"/>
+      <c r="BK20" s="74"/>
+      <c r="BL20" s="74"/>
+      <c r="BM20" s="74"/>
+      <c r="BN20" s="74"/>
+      <c r="BO20" s="74"/>
+      <c r="BP20" s="74"/>
+      <c r="BQ20" s="74"/>
+      <c r="BR20" s="74"/>
+      <c r="BS20" s="74"/>
+      <c r="BT20" s="74"/>
+      <c r="BU20" s="74"/>
+      <c r="BV20" s="74"/>
+      <c r="BW20" s="74"/>
+      <c r="BX20" s="74"/>
+      <c r="BY20" s="74"/>
+      <c r="BZ20" s="74"/>
+      <c r="CA20" s="74"/>
+      <c r="CB20" s="74"/>
     </row>
     <row r="21" spans="1:80" ht="23.25">
       <c r="A21" s="31"/>
@@ -4436,43 +4437,43 @@
         <v>3</v>
       </c>
       <c r="AL21" s="39"/>
-      <c r="AR21" s="111"/>
-      <c r="AS21" s="111"/>
-      <c r="AT21" s="111"/>
-      <c r="AU21" s="111"/>
-      <c r="AV21" s="111"/>
-      <c r="AW21" s="111"/>
-      <c r="AX21" s="111"/>
-      <c r="AY21" s="111"/>
-      <c r="AZ21" s="111"/>
-      <c r="BA21" s="111"/>
-      <c r="BB21" s="111"/>
-      <c r="BC21" s="111"/>
-      <c r="BD21" s="111"/>
-      <c r="BE21" s="111"/>
-      <c r="BF21" s="111"/>
-      <c r="BG21" s="111"/>
-      <c r="BH21" s="111"/>
-      <c r="BI21" s="111"/>
-      <c r="BJ21" s="111"/>
-      <c r="BK21" s="111"/>
-      <c r="BL21" s="111"/>
-      <c r="BM21" s="111"/>
-      <c r="BN21" s="111"/>
-      <c r="BO21" s="111"/>
-      <c r="BP21" s="111"/>
-      <c r="BQ21" s="111"/>
-      <c r="BR21" s="111"/>
-      <c r="BS21" s="111"/>
-      <c r="BT21" s="111"/>
-      <c r="BU21" s="111"/>
-      <c r="BV21" s="111"/>
-      <c r="BW21" s="111"/>
-      <c r="BX21" s="111"/>
-      <c r="BY21" s="111"/>
-      <c r="BZ21" s="111"/>
-      <c r="CA21" s="111"/>
-      <c r="CB21" s="111"/>
+      <c r="AR21" s="74"/>
+      <c r="AS21" s="74"/>
+      <c r="AT21" s="74"/>
+      <c r="AU21" s="74"/>
+      <c r="AV21" s="74"/>
+      <c r="AW21" s="74"/>
+      <c r="AX21" s="74"/>
+      <c r="AY21" s="74"/>
+      <c r="AZ21" s="74"/>
+      <c r="BA21" s="74"/>
+      <c r="BB21" s="74"/>
+      <c r="BC21" s="74"/>
+      <c r="BD21" s="74"/>
+      <c r="BE21" s="74"/>
+      <c r="BF21" s="74"/>
+      <c r="BG21" s="74"/>
+      <c r="BH21" s="74"/>
+      <c r="BI21" s="74"/>
+      <c r="BJ21" s="74"/>
+      <c r="BK21" s="74"/>
+      <c r="BL21" s="74"/>
+      <c r="BM21" s="74"/>
+      <c r="BN21" s="74"/>
+      <c r="BO21" s="74"/>
+      <c r="BP21" s="74"/>
+      <c r="BQ21" s="74"/>
+      <c r="BR21" s="74"/>
+      <c r="BS21" s="74"/>
+      <c r="BT21" s="74"/>
+      <c r="BU21" s="74"/>
+      <c r="BV21" s="74"/>
+      <c r="BW21" s="74"/>
+      <c r="BX21" s="74"/>
+      <c r="BY21" s="74"/>
+      <c r="BZ21" s="74"/>
+      <c r="CA21" s="74"/>
+      <c r="CB21" s="74"/>
     </row>
     <row r="22" spans="1:80" ht="23.25">
       <c r="A22" s="31"/>
@@ -4567,43 +4568,43 @@
         <v>5</v>
       </c>
       <c r="AL22" s="39"/>
-      <c r="AR22" s="111"/>
-      <c r="AS22" s="111"/>
-      <c r="AT22" s="111"/>
-      <c r="AU22" s="111"/>
-      <c r="AV22" s="111"/>
-      <c r="AW22" s="111"/>
-      <c r="AX22" s="111"/>
-      <c r="AY22" s="111"/>
-      <c r="AZ22" s="111"/>
-      <c r="BA22" s="111"/>
-      <c r="BB22" s="111"/>
-      <c r="BC22" s="111"/>
-      <c r="BD22" s="111"/>
-      <c r="BE22" s="111"/>
-      <c r="BF22" s="111"/>
-      <c r="BG22" s="111"/>
-      <c r="BH22" s="111"/>
-      <c r="BI22" s="111"/>
-      <c r="BJ22" s="111"/>
-      <c r="BK22" s="111"/>
-      <c r="BL22" s="111"/>
-      <c r="BM22" s="111"/>
-      <c r="BN22" s="111"/>
-      <c r="BO22" s="111"/>
-      <c r="BP22" s="111"/>
-      <c r="BQ22" s="111"/>
-      <c r="BR22" s="111"/>
-      <c r="BS22" s="111"/>
-      <c r="BT22" s="111"/>
-      <c r="BU22" s="111"/>
-      <c r="BV22" s="111"/>
-      <c r="BW22" s="111"/>
-      <c r="BX22" s="111"/>
-      <c r="BY22" s="111"/>
-      <c r="BZ22" s="111"/>
-      <c r="CA22" s="111"/>
-      <c r="CB22" s="111"/>
+      <c r="AR22" s="74"/>
+      <c r="AS22" s="74"/>
+      <c r="AT22" s="74"/>
+      <c r="AU22" s="74"/>
+      <c r="AV22" s="74"/>
+      <c r="AW22" s="74"/>
+      <c r="AX22" s="74"/>
+      <c r="AY22" s="74"/>
+      <c r="AZ22" s="74"/>
+      <c r="BA22" s="74"/>
+      <c r="BB22" s="74"/>
+      <c r="BC22" s="74"/>
+      <c r="BD22" s="74"/>
+      <c r="BE22" s="74"/>
+      <c r="BF22" s="74"/>
+      <c r="BG22" s="74"/>
+      <c r="BH22" s="74"/>
+      <c r="BI22" s="74"/>
+      <c r="BJ22" s="74"/>
+      <c r="BK22" s="74"/>
+      <c r="BL22" s="74"/>
+      <c r="BM22" s="74"/>
+      <c r="BN22" s="74"/>
+      <c r="BO22" s="74"/>
+      <c r="BP22" s="74"/>
+      <c r="BQ22" s="74"/>
+      <c r="BR22" s="74"/>
+      <c r="BS22" s="74"/>
+      <c r="BT22" s="74"/>
+      <c r="BU22" s="74"/>
+      <c r="BV22" s="74"/>
+      <c r="BW22" s="74"/>
+      <c r="BX22" s="74"/>
+      <c r="BY22" s="74"/>
+      <c r="BZ22" s="74"/>
+      <c r="CA22" s="74"/>
+      <c r="CB22" s="74"/>
     </row>
     <row r="23" spans="1:80" ht="23.25">
       <c r="A23" s="31"/>
@@ -4698,43 +4699,43 @@
         <v>3</v>
       </c>
       <c r="AL23" s="39"/>
-      <c r="AR23" s="111"/>
-      <c r="AS23" s="111"/>
-      <c r="AT23" s="111"/>
-      <c r="AU23" s="111"/>
-      <c r="AV23" s="111"/>
-      <c r="AW23" s="111"/>
-      <c r="AX23" s="111"/>
-      <c r="AY23" s="111"/>
-      <c r="AZ23" s="111"/>
-      <c r="BA23" s="111"/>
-      <c r="BB23" s="111"/>
-      <c r="BC23" s="111"/>
-      <c r="BD23" s="111"/>
-      <c r="BE23" s="111"/>
-      <c r="BF23" s="111"/>
-      <c r="BG23" s="111"/>
-      <c r="BH23" s="111"/>
-      <c r="BI23" s="111"/>
-      <c r="BJ23" s="111"/>
-      <c r="BK23" s="111"/>
-      <c r="BL23" s="111"/>
-      <c r="BM23" s="111"/>
-      <c r="BN23" s="111"/>
-      <c r="BO23" s="111"/>
-      <c r="BP23" s="111"/>
-      <c r="BQ23" s="111"/>
-      <c r="BR23" s="111"/>
-      <c r="BS23" s="111"/>
-      <c r="BT23" s="111"/>
-      <c r="BU23" s="111"/>
-      <c r="BV23" s="111"/>
-      <c r="BW23" s="111"/>
-      <c r="BX23" s="111"/>
-      <c r="BY23" s="111"/>
-      <c r="BZ23" s="111"/>
-      <c r="CA23" s="111"/>
-      <c r="CB23" s="111"/>
+      <c r="AR23" s="74"/>
+      <c r="AS23" s="74"/>
+      <c r="AT23" s="74"/>
+      <c r="AU23" s="74"/>
+      <c r="AV23" s="74"/>
+      <c r="AW23" s="74"/>
+      <c r="AX23" s="74"/>
+      <c r="AY23" s="74"/>
+      <c r="AZ23" s="74"/>
+      <c r="BA23" s="74"/>
+      <c r="BB23" s="74"/>
+      <c r="BC23" s="74"/>
+      <c r="BD23" s="74"/>
+      <c r="BE23" s="74"/>
+      <c r="BF23" s="74"/>
+      <c r="BG23" s="74"/>
+      <c r="BH23" s="74"/>
+      <c r="BI23" s="74"/>
+      <c r="BJ23" s="74"/>
+      <c r="BK23" s="74"/>
+      <c r="BL23" s="74"/>
+      <c r="BM23" s="74"/>
+      <c r="BN23" s="74"/>
+      <c r="BO23" s="74"/>
+      <c r="BP23" s="74"/>
+      <c r="BQ23" s="74"/>
+      <c r="BR23" s="74"/>
+      <c r="BS23" s="74"/>
+      <c r="BT23" s="74"/>
+      <c r="BU23" s="74"/>
+      <c r="BV23" s="74"/>
+      <c r="BW23" s="74"/>
+      <c r="BX23" s="74"/>
+      <c r="BY23" s="74"/>
+      <c r="BZ23" s="74"/>
+      <c r="CA23" s="74"/>
+      <c r="CB23" s="74"/>
     </row>
     <row r="24" spans="1:80" ht="23.25">
       <c r="A24" s="31"/>
@@ -4829,140 +4830,140 @@
         <v>1</v>
       </c>
       <c r="AL24" s="39"/>
-      <c r="AR24" s="111"/>
-      <c r="AS24" s="111"/>
-      <c r="AT24" s="111"/>
-      <c r="AU24" s="111"/>
-      <c r="AV24" s="111"/>
-      <c r="AW24" s="111"/>
-      <c r="AX24" s="111"/>
-      <c r="AY24" s="111"/>
-      <c r="AZ24" s="111"/>
-      <c r="BA24" s="111"/>
-      <c r="BB24" s="111"/>
-      <c r="BC24" s="111"/>
-      <c r="BD24" s="111"/>
-      <c r="BE24" s="111"/>
-      <c r="BF24" s="111"/>
-      <c r="BG24" s="111"/>
-      <c r="BH24" s="111"/>
-      <c r="BI24" s="111"/>
-      <c r="BJ24" s="111"/>
-      <c r="BK24" s="111"/>
-      <c r="BL24" s="111"/>
-      <c r="BM24" s="111"/>
-      <c r="BN24" s="111"/>
-      <c r="BO24" s="111"/>
-      <c r="BP24" s="111"/>
-      <c r="BQ24" s="111"/>
-      <c r="BR24" s="111"/>
-      <c r="BS24" s="111"/>
-      <c r="BT24" s="111"/>
-      <c r="BU24" s="111"/>
-      <c r="BV24" s="111"/>
-      <c r="BW24" s="111"/>
-      <c r="BX24" s="111"/>
-      <c r="BY24" s="111"/>
-      <c r="BZ24" s="111"/>
-      <c r="CA24" s="111"/>
-      <c r="CB24" s="111"/>
+      <c r="AR24" s="74"/>
+      <c r="AS24" s="74"/>
+      <c r="AT24" s="74"/>
+      <c r="AU24" s="74"/>
+      <c r="AV24" s="74"/>
+      <c r="AW24" s="74"/>
+      <c r="AX24" s="74"/>
+      <c r="AY24" s="74"/>
+      <c r="AZ24" s="74"/>
+      <c r="BA24" s="74"/>
+      <c r="BB24" s="74"/>
+      <c r="BC24" s="74"/>
+      <c r="BD24" s="74"/>
+      <c r="BE24" s="74"/>
+      <c r="BF24" s="74"/>
+      <c r="BG24" s="74"/>
+      <c r="BH24" s="74"/>
+      <c r="BI24" s="74"/>
+      <c r="BJ24" s="74"/>
+      <c r="BK24" s="74"/>
+      <c r="BL24" s="74"/>
+      <c r="BM24" s="74"/>
+      <c r="BN24" s="74"/>
+      <c r="BO24" s="74"/>
+      <c r="BP24" s="74"/>
+      <c r="BQ24" s="74"/>
+      <c r="BR24" s="74"/>
+      <c r="BS24" s="74"/>
+      <c r="BT24" s="74"/>
+      <c r="BU24" s="74"/>
+      <c r="BV24" s="74"/>
+      <c r="BW24" s="74"/>
+      <c r="BX24" s="74"/>
+      <c r="BY24" s="74"/>
+      <c r="BZ24" s="74"/>
+      <c r="CA24" s="74"/>
+      <c r="CB24" s="74"/>
     </row>
     <row r="25" spans="1:80" ht="23.25">
       <c r="A25" s="31"/>
       <c r="B25" s="36"/>
-      <c r="C25" s="73">
+      <c r="C25" s="78">
         <v>5</v>
       </c>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="78"/>
       <c r="F25" s="40"/>
-      <c r="G25" s="73">
+      <c r="G25" s="78">
         <v>7</v>
       </c>
-      <c r="H25" s="73"/>
-      <c r="I25" s="73"/>
+      <c r="H25" s="78"/>
+      <c r="I25" s="78"/>
       <c r="J25" s="40"/>
-      <c r="K25" s="73">
+      <c r="K25" s="78">
         <v>2</v>
       </c>
-      <c r="L25" s="73"/>
+      <c r="L25" s="78"/>
       <c r="M25" s="40"/>
-      <c r="N25" s="73">
+      <c r="N25" s="78">
         <v>3</v>
       </c>
-      <c r="O25" s="73"/>
+      <c r="O25" s="78"/>
       <c r="P25" s="40"/>
-      <c r="Q25" s="73">
+      <c r="Q25" s="78">
         <v>4</v>
       </c>
-      <c r="R25" s="73"/>
+      <c r="R25" s="78"/>
       <c r="S25" s="40"/>
-      <c r="T25" s="73">
+      <c r="T25" s="78">
         <v>1</v>
       </c>
-      <c r="U25" s="73"/>
-      <c r="V25" s="73"/>
+      <c r="U25" s="78"/>
+      <c r="V25" s="78"/>
       <c r="W25" s="40"/>
-      <c r="X25" s="73">
+      <c r="X25" s="78">
         <v>6</v>
       </c>
-      <c r="Y25" s="73"/>
-      <c r="Z25" s="73"/>
+      <c r="Y25" s="78"/>
+      <c r="Z25" s="78"/>
       <c r="AA25" s="40"/>
-      <c r="AB25" s="73">
+      <c r="AB25" s="78">
         <v>0</v>
       </c>
-      <c r="AC25" s="73"/>
-      <c r="AD25" s="73"/>
+      <c r="AC25" s="78"/>
+      <c r="AD25" s="78"/>
       <c r="AE25" s="40"/>
-      <c r="AF25" s="73">
+      <c r="AF25" s="78">
         <v>8</v>
       </c>
-      <c r="AG25" s="73"/>
+      <c r="AG25" s="78"/>
       <c r="AH25" s="40"/>
-      <c r="AI25" s="73">
+      <c r="AI25" s="78">
         <v>9</v>
       </c>
-      <c r="AJ25" s="73"/>
-      <c r="AK25" s="73"/>
+      <c r="AJ25" s="78"/>
+      <c r="AK25" s="78"/>
       <c r="AL25" s="41"/>
-      <c r="AR25" s="112"/>
-      <c r="AS25" s="112"/>
-      <c r="AT25" s="112"/>
-      <c r="AU25" s="112"/>
-      <c r="AV25" s="112"/>
-      <c r="AW25" s="111"/>
-      <c r="AX25" s="112"/>
-      <c r="AY25" s="112"/>
-      <c r="AZ25" s="112"/>
-      <c r="BA25" s="111"/>
-      <c r="BB25" s="112"/>
-      <c r="BC25" s="112"/>
-      <c r="BD25" s="111"/>
-      <c r="BE25" s="112"/>
-      <c r="BF25" s="112"/>
-      <c r="BG25" s="111"/>
-      <c r="BH25" s="112"/>
-      <c r="BI25" s="112"/>
-      <c r="BJ25" s="111"/>
-      <c r="BK25" s="112"/>
-      <c r="BL25" s="112"/>
-      <c r="BM25" s="112"/>
-      <c r="BN25" s="111"/>
-      <c r="BO25" s="112"/>
-      <c r="BP25" s="112"/>
-      <c r="BQ25" s="112"/>
-      <c r="BR25" s="111"/>
-      <c r="BS25" s="112"/>
-      <c r="BT25" s="112"/>
-      <c r="BU25" s="112"/>
-      <c r="BV25" s="111"/>
-      <c r="BW25" s="112"/>
-      <c r="BX25" s="112"/>
-      <c r="BY25" s="111"/>
-      <c r="BZ25" s="112"/>
-      <c r="CA25" s="112"/>
-      <c r="CB25" s="112"/>
+      <c r="AR25" s="75"/>
+      <c r="AS25" s="75"/>
+      <c r="AT25" s="75"/>
+      <c r="AU25" s="75"/>
+      <c r="AV25" s="75"/>
+      <c r="AW25" s="74"/>
+      <c r="AX25" s="75"/>
+      <c r="AY25" s="75"/>
+      <c r="AZ25" s="75"/>
+      <c r="BA25" s="74"/>
+      <c r="BB25" s="75"/>
+      <c r="BC25" s="75"/>
+      <c r="BD25" s="74"/>
+      <c r="BE25" s="75"/>
+      <c r="BF25" s="75"/>
+      <c r="BG25" s="74"/>
+      <c r="BH25" s="75"/>
+      <c r="BI25" s="75"/>
+      <c r="BJ25" s="74"/>
+      <c r="BK25" s="75"/>
+      <c r="BL25" s="75"/>
+      <c r="BM25" s="75"/>
+      <c r="BN25" s="74"/>
+      <c r="BO25" s="75"/>
+      <c r="BP25" s="75"/>
+      <c r="BQ25" s="75"/>
+      <c r="BR25" s="74"/>
+      <c r="BS25" s="75"/>
+      <c r="BT25" s="75"/>
+      <c r="BU25" s="75"/>
+      <c r="BV25" s="74"/>
+      <c r="BW25" s="75"/>
+      <c r="BX25" s="75"/>
+      <c r="BY25" s="74"/>
+      <c r="BZ25" s="75"/>
+      <c r="CA25" s="75"/>
+      <c r="CB25" s="75"/>
     </row>
     <row r="26" spans="1:80" ht="23.25">
       <c r="A26" s="31"/>
@@ -5057,43 +5058,43 @@
         <v>17</v>
       </c>
       <c r="AL26" s="39"/>
-      <c r="AR26" s="111"/>
-      <c r="AS26" s="111"/>
-      <c r="AT26" s="111"/>
-      <c r="AU26" s="111"/>
-      <c r="AV26" s="111"/>
-      <c r="AW26" s="111"/>
-      <c r="AX26" s="111"/>
-      <c r="AY26" s="111"/>
-      <c r="AZ26" s="111"/>
-      <c r="BA26" s="111"/>
-      <c r="BB26" s="111"/>
-      <c r="BC26" s="111"/>
-      <c r="BD26" s="111"/>
-      <c r="BE26" s="111"/>
-      <c r="BF26" s="111"/>
-      <c r="BG26" s="111"/>
-      <c r="BH26" s="111"/>
-      <c r="BI26" s="111"/>
-      <c r="BJ26" s="111"/>
-      <c r="BK26" s="111"/>
-      <c r="BL26" s="111"/>
-      <c r="BM26" s="111"/>
-      <c r="BN26" s="111"/>
-      <c r="BO26" s="111"/>
-      <c r="BP26" s="111"/>
-      <c r="BQ26" s="111"/>
-      <c r="BR26" s="111"/>
-      <c r="BS26" s="111"/>
-      <c r="BT26" s="111"/>
-      <c r="BU26" s="111"/>
-      <c r="BV26" s="111"/>
-      <c r="BW26" s="111"/>
-      <c r="BX26" s="111"/>
-      <c r="BY26" s="111"/>
-      <c r="BZ26" s="111"/>
-      <c r="CA26" s="111"/>
-      <c r="CB26" s="111"/>
+      <c r="AR26" s="74"/>
+      <c r="AS26" s="74"/>
+      <c r="AT26" s="74"/>
+      <c r="AU26" s="74"/>
+      <c r="AV26" s="74"/>
+      <c r="AW26" s="74"/>
+      <c r="AX26" s="74"/>
+      <c r="AY26" s="74"/>
+      <c r="AZ26" s="74"/>
+      <c r="BA26" s="74"/>
+      <c r="BB26" s="74"/>
+      <c r="BC26" s="74"/>
+      <c r="BD26" s="74"/>
+      <c r="BE26" s="74"/>
+      <c r="BF26" s="74"/>
+      <c r="BG26" s="74"/>
+      <c r="BH26" s="74"/>
+      <c r="BI26" s="74"/>
+      <c r="BJ26" s="74"/>
+      <c r="BK26" s="74"/>
+      <c r="BL26" s="74"/>
+      <c r="BM26" s="74"/>
+      <c r="BN26" s="74"/>
+      <c r="BO26" s="74"/>
+      <c r="BP26" s="74"/>
+      <c r="BQ26" s="74"/>
+      <c r="BR26" s="74"/>
+      <c r="BS26" s="74"/>
+      <c r="BT26" s="74"/>
+      <c r="BU26" s="74"/>
+      <c r="BV26" s="74"/>
+      <c r="BW26" s="74"/>
+      <c r="BX26" s="74"/>
+      <c r="BY26" s="74"/>
+      <c r="BZ26" s="74"/>
+      <c r="CA26" s="74"/>
+      <c r="CB26" s="74"/>
     </row>
     <row r="27" spans="1:80" ht="23.25">
       <c r="A27" s="31"/>
@@ -5188,43 +5189,43 @@
         <v>11</v>
       </c>
       <c r="AL27" s="39"/>
-      <c r="AR27" s="111"/>
-      <c r="AS27" s="111"/>
-      <c r="AT27" s="111"/>
-      <c r="AU27" s="111"/>
-      <c r="AV27" s="111"/>
-      <c r="AW27" s="111"/>
-      <c r="AX27" s="111"/>
-      <c r="AY27" s="111"/>
-      <c r="AZ27" s="111"/>
-      <c r="BA27" s="111"/>
-      <c r="BB27" s="111"/>
-      <c r="BC27" s="111"/>
-      <c r="BD27" s="111"/>
-      <c r="BE27" s="111"/>
-      <c r="BF27" s="111"/>
-      <c r="BG27" s="111"/>
-      <c r="BH27" s="111"/>
-      <c r="BI27" s="111"/>
-      <c r="BJ27" s="111"/>
-      <c r="BK27" s="111"/>
-      <c r="BL27" s="111"/>
-      <c r="BM27" s="111"/>
-      <c r="BN27" s="111"/>
-      <c r="BO27" s="111"/>
-      <c r="BP27" s="111"/>
-      <c r="BQ27" s="111"/>
-      <c r="BR27" s="111"/>
-      <c r="BS27" s="111"/>
-      <c r="BT27" s="111"/>
-      <c r="BU27" s="111"/>
-      <c r="BV27" s="111"/>
-      <c r="BW27" s="111"/>
-      <c r="BX27" s="111"/>
-      <c r="BY27" s="111"/>
-      <c r="BZ27" s="111"/>
-      <c r="CA27" s="111"/>
-      <c r="CB27" s="111"/>
+      <c r="AR27" s="74"/>
+      <c r="AS27" s="74"/>
+      <c r="AT27" s="74"/>
+      <c r="AU27" s="74"/>
+      <c r="AV27" s="74"/>
+      <c r="AW27" s="74"/>
+      <c r="AX27" s="74"/>
+      <c r="AY27" s="74"/>
+      <c r="AZ27" s="74"/>
+      <c r="BA27" s="74"/>
+      <c r="BB27" s="74"/>
+      <c r="BC27" s="74"/>
+      <c r="BD27" s="74"/>
+      <c r="BE27" s="74"/>
+      <c r="BF27" s="74"/>
+      <c r="BG27" s="74"/>
+      <c r="BH27" s="74"/>
+      <c r="BI27" s="74"/>
+      <c r="BJ27" s="74"/>
+      <c r="BK27" s="74"/>
+      <c r="BL27" s="74"/>
+      <c r="BM27" s="74"/>
+      <c r="BN27" s="74"/>
+      <c r="BO27" s="74"/>
+      <c r="BP27" s="74"/>
+      <c r="BQ27" s="74"/>
+      <c r="BR27" s="74"/>
+      <c r="BS27" s="74"/>
+      <c r="BT27" s="74"/>
+      <c r="BU27" s="74"/>
+      <c r="BV27" s="74"/>
+      <c r="BW27" s="74"/>
+      <c r="BX27" s="74"/>
+      <c r="BY27" s="74"/>
+      <c r="BZ27" s="74"/>
+      <c r="CA27" s="74"/>
+      <c r="CB27" s="74"/>
     </row>
     <row r="28" spans="1:80" ht="23.25">
       <c r="A28" s="31"/>
@@ -5319,43 +5320,43 @@
         <v>21</v>
       </c>
       <c r="AL28" s="39"/>
-      <c r="AR28" s="111"/>
-      <c r="AS28" s="111"/>
-      <c r="AT28" s="111"/>
-      <c r="AU28" s="111"/>
-      <c r="AV28" s="111"/>
-      <c r="AW28" s="111"/>
-      <c r="AX28" s="111"/>
-      <c r="AY28" s="111"/>
-      <c r="AZ28" s="111"/>
-      <c r="BA28" s="111"/>
-      <c r="BB28" s="111"/>
-      <c r="BC28" s="111"/>
-      <c r="BD28" s="111"/>
-      <c r="BE28" s="111"/>
-      <c r="BF28" s="111"/>
-      <c r="BG28" s="111"/>
-      <c r="BH28" s="111"/>
-      <c r="BI28" s="111"/>
-      <c r="BJ28" s="111"/>
-      <c r="BK28" s="111"/>
-      <c r="BL28" s="111"/>
-      <c r="BM28" s="111"/>
-      <c r="BN28" s="111"/>
-      <c r="BO28" s="111"/>
-      <c r="BP28" s="111"/>
-      <c r="BQ28" s="111"/>
-      <c r="BR28" s="111"/>
-      <c r="BS28" s="111"/>
-      <c r="BT28" s="111"/>
-      <c r="BU28" s="111"/>
-      <c r="BV28" s="111"/>
-      <c r="BW28" s="111"/>
-      <c r="BX28" s="111"/>
-      <c r="BY28" s="111"/>
-      <c r="BZ28" s="111"/>
-      <c r="CA28" s="111"/>
-      <c r="CB28" s="111"/>
+      <c r="AR28" s="74"/>
+      <c r="AS28" s="74"/>
+      <c r="AT28" s="74"/>
+      <c r="AU28" s="74"/>
+      <c r="AV28" s="74"/>
+      <c r="AW28" s="74"/>
+      <c r="AX28" s="74"/>
+      <c r="AY28" s="74"/>
+      <c r="AZ28" s="74"/>
+      <c r="BA28" s="74"/>
+      <c r="BB28" s="74"/>
+      <c r="BC28" s="74"/>
+      <c r="BD28" s="74"/>
+      <c r="BE28" s="74"/>
+      <c r="BF28" s="74"/>
+      <c r="BG28" s="74"/>
+      <c r="BH28" s="74"/>
+      <c r="BI28" s="74"/>
+      <c r="BJ28" s="74"/>
+      <c r="BK28" s="74"/>
+      <c r="BL28" s="74"/>
+      <c r="BM28" s="74"/>
+      <c r="BN28" s="74"/>
+      <c r="BO28" s="74"/>
+      <c r="BP28" s="74"/>
+      <c r="BQ28" s="74"/>
+      <c r="BR28" s="74"/>
+      <c r="BS28" s="74"/>
+      <c r="BT28" s="74"/>
+      <c r="BU28" s="74"/>
+      <c r="BV28" s="74"/>
+      <c r="BW28" s="74"/>
+      <c r="BX28" s="74"/>
+      <c r="BY28" s="74"/>
+      <c r="BZ28" s="74"/>
+      <c r="CA28" s="74"/>
+      <c r="CB28" s="74"/>
     </row>
     <row r="29" spans="1:80" ht="23.25">
       <c r="A29" s="31"/>
@@ -5450,43 +5451,43 @@
         <v>6</v>
       </c>
       <c r="AL29" s="39"/>
-      <c r="AR29" s="111"/>
-      <c r="AS29" s="111"/>
-      <c r="AT29" s="111"/>
-      <c r="AU29" s="111"/>
-      <c r="AV29" s="111"/>
-      <c r="AW29" s="111"/>
-      <c r="AX29" s="111"/>
-      <c r="AY29" s="111"/>
-      <c r="AZ29" s="111"/>
-      <c r="BA29" s="111"/>
-      <c r="BB29" s="111"/>
-      <c r="BC29" s="111"/>
-      <c r="BD29" s="111"/>
-      <c r="BE29" s="111"/>
-      <c r="BF29" s="111"/>
-      <c r="BG29" s="111"/>
-      <c r="BH29" s="111"/>
-      <c r="BI29" s="111"/>
-      <c r="BJ29" s="111"/>
-      <c r="BK29" s="111"/>
-      <c r="BL29" s="111"/>
-      <c r="BM29" s="111"/>
-      <c r="BN29" s="111"/>
-      <c r="BO29" s="111"/>
-      <c r="BP29" s="111"/>
-      <c r="BQ29" s="111"/>
-      <c r="BR29" s="111"/>
-      <c r="BS29" s="111"/>
-      <c r="BT29" s="111"/>
-      <c r="BU29" s="111"/>
-      <c r="BV29" s="111"/>
-      <c r="BW29" s="111"/>
-      <c r="BX29" s="111"/>
-      <c r="BY29" s="111"/>
-      <c r="BZ29" s="111"/>
-      <c r="CA29" s="111"/>
-      <c r="CB29" s="111"/>
+      <c r="AR29" s="74"/>
+      <c r="AS29" s="74"/>
+      <c r="AT29" s="74"/>
+      <c r="AU29" s="74"/>
+      <c r="AV29" s="74"/>
+      <c r="AW29" s="74"/>
+      <c r="AX29" s="74"/>
+      <c r="AY29" s="74"/>
+      <c r="AZ29" s="74"/>
+      <c r="BA29" s="74"/>
+      <c r="BB29" s="74"/>
+      <c r="BC29" s="74"/>
+      <c r="BD29" s="74"/>
+      <c r="BE29" s="74"/>
+      <c r="BF29" s="74"/>
+      <c r="BG29" s="74"/>
+      <c r="BH29" s="74"/>
+      <c r="BI29" s="74"/>
+      <c r="BJ29" s="74"/>
+      <c r="BK29" s="74"/>
+      <c r="BL29" s="74"/>
+      <c r="BM29" s="74"/>
+      <c r="BN29" s="74"/>
+      <c r="BO29" s="74"/>
+      <c r="BP29" s="74"/>
+      <c r="BQ29" s="74"/>
+      <c r="BR29" s="74"/>
+      <c r="BS29" s="74"/>
+      <c r="BT29" s="74"/>
+      <c r="BU29" s="74"/>
+      <c r="BV29" s="74"/>
+      <c r="BW29" s="74"/>
+      <c r="BX29" s="74"/>
+      <c r="BY29" s="74"/>
+      <c r="BZ29" s="74"/>
+      <c r="CA29" s="74"/>
+      <c r="CB29" s="74"/>
     </row>
     <row r="30" spans="1:80" ht="23.25">
       <c r="A30" s="31"/>
@@ -5581,43 +5582,43 @@
         <v>24</v>
       </c>
       <c r="AL30" s="39"/>
-      <c r="AR30" s="111"/>
-      <c r="AS30" s="111"/>
-      <c r="AT30" s="111"/>
-      <c r="AU30" s="111"/>
-      <c r="AV30" s="111"/>
-      <c r="AW30" s="111"/>
-      <c r="AX30" s="111"/>
-      <c r="AY30" s="111"/>
-      <c r="AZ30" s="111"/>
-      <c r="BA30" s="111"/>
-      <c r="BB30" s="111"/>
-      <c r="BC30" s="111"/>
-      <c r="BD30" s="111"/>
-      <c r="BE30" s="111"/>
-      <c r="BF30" s="111"/>
-      <c r="BG30" s="111"/>
-      <c r="BH30" s="111"/>
-      <c r="BI30" s="111"/>
-      <c r="BJ30" s="111"/>
-      <c r="BK30" s="111"/>
-      <c r="BL30" s="111"/>
-      <c r="BM30" s="111"/>
-      <c r="BN30" s="111"/>
-      <c r="BO30" s="111"/>
-      <c r="BP30" s="111"/>
-      <c r="BQ30" s="111"/>
-      <c r="BR30" s="111"/>
-      <c r="BS30" s="111"/>
-      <c r="BT30" s="111"/>
-      <c r="BU30" s="111"/>
-      <c r="BV30" s="111"/>
-      <c r="BW30" s="111"/>
-      <c r="BX30" s="111"/>
-      <c r="BY30" s="111"/>
-      <c r="BZ30" s="111"/>
-      <c r="CA30" s="111"/>
-      <c r="CB30" s="111"/>
+      <c r="AR30" s="74"/>
+      <c r="AS30" s="74"/>
+      <c r="AT30" s="74"/>
+      <c r="AU30" s="74"/>
+      <c r="AV30" s="74"/>
+      <c r="AW30" s="74"/>
+      <c r="AX30" s="74"/>
+      <c r="AY30" s="74"/>
+      <c r="AZ30" s="74"/>
+      <c r="BA30" s="74"/>
+      <c r="BB30" s="74"/>
+      <c r="BC30" s="74"/>
+      <c r="BD30" s="74"/>
+      <c r="BE30" s="74"/>
+      <c r="BF30" s="74"/>
+      <c r="BG30" s="74"/>
+      <c r="BH30" s="74"/>
+      <c r="BI30" s="74"/>
+      <c r="BJ30" s="74"/>
+      <c r="BK30" s="74"/>
+      <c r="BL30" s="74"/>
+      <c r="BM30" s="74"/>
+      <c r="BN30" s="74"/>
+      <c r="BO30" s="74"/>
+      <c r="BP30" s="74"/>
+      <c r="BQ30" s="74"/>
+      <c r="BR30" s="74"/>
+      <c r="BS30" s="74"/>
+      <c r="BT30" s="74"/>
+      <c r="BU30" s="74"/>
+      <c r="BV30" s="74"/>
+      <c r="BW30" s="74"/>
+      <c r="BX30" s="74"/>
+      <c r="BY30" s="74"/>
+      <c r="BZ30" s="74"/>
+      <c r="CA30" s="74"/>
+      <c r="CB30" s="74"/>
     </row>
     <row r="31" spans="1:80" ht="23.25">
       <c r="A31" s="31"/>
@@ -5712,43 +5713,43 @@
         <v>4</v>
       </c>
       <c r="AL31" s="39"/>
-      <c r="AR31" s="111"/>
-      <c r="AS31" s="111"/>
-      <c r="AT31" s="111"/>
-      <c r="AU31" s="111"/>
-      <c r="AV31" s="111"/>
-      <c r="AW31" s="111"/>
-      <c r="AX31" s="111"/>
-      <c r="AY31" s="111"/>
-      <c r="AZ31" s="111"/>
-      <c r="BA31" s="111"/>
-      <c r="BB31" s="111"/>
-      <c r="BC31" s="111"/>
-      <c r="BD31" s="111"/>
-      <c r="BE31" s="111"/>
-      <c r="BF31" s="111"/>
-      <c r="BG31" s="111"/>
-      <c r="BH31" s="111"/>
-      <c r="BI31" s="111"/>
-      <c r="BJ31" s="111"/>
-      <c r="BK31" s="111"/>
-      <c r="BL31" s="111"/>
-      <c r="BM31" s="111"/>
-      <c r="BN31" s="111"/>
-      <c r="BO31" s="111"/>
-      <c r="BP31" s="111"/>
-      <c r="BQ31" s="111"/>
-      <c r="BR31" s="111"/>
-      <c r="BS31" s="111"/>
-      <c r="BT31" s="111"/>
-      <c r="BU31" s="111"/>
-      <c r="BV31" s="111"/>
-      <c r="BW31" s="111"/>
-      <c r="BX31" s="111"/>
-      <c r="BY31" s="111"/>
-      <c r="BZ31" s="111"/>
-      <c r="CA31" s="111"/>
-      <c r="CB31" s="111"/>
+      <c r="AR31" s="74"/>
+      <c r="AS31" s="74"/>
+      <c r="AT31" s="74"/>
+      <c r="AU31" s="74"/>
+      <c r="AV31" s="74"/>
+      <c r="AW31" s="74"/>
+      <c r="AX31" s="74"/>
+      <c r="AY31" s="74"/>
+      <c r="AZ31" s="74"/>
+      <c r="BA31" s="74"/>
+      <c r="BB31" s="74"/>
+      <c r="BC31" s="74"/>
+      <c r="BD31" s="74"/>
+      <c r="BE31" s="74"/>
+      <c r="BF31" s="74"/>
+      <c r="BG31" s="74"/>
+      <c r="BH31" s="74"/>
+      <c r="BI31" s="74"/>
+      <c r="BJ31" s="74"/>
+      <c r="BK31" s="74"/>
+      <c r="BL31" s="74"/>
+      <c r="BM31" s="74"/>
+      <c r="BN31" s="74"/>
+      <c r="BO31" s="74"/>
+      <c r="BP31" s="74"/>
+      <c r="BQ31" s="74"/>
+      <c r="BR31" s="74"/>
+      <c r="BS31" s="74"/>
+      <c r="BT31" s="74"/>
+      <c r="BU31" s="74"/>
+      <c r="BV31" s="74"/>
+      <c r="BW31" s="74"/>
+      <c r="BX31" s="74"/>
+      <c r="BY31" s="74"/>
+      <c r="BZ31" s="74"/>
+      <c r="CA31" s="74"/>
+      <c r="CB31" s="74"/>
     </row>
     <row r="32" spans="1:80" ht="23.25">
       <c r="A32" s="31"/>
@@ -5843,43 +5844,43 @@
         <v>25</v>
       </c>
       <c r="AL32" s="39"/>
-      <c r="AR32" s="111"/>
-      <c r="AS32" s="111"/>
-      <c r="AT32" s="111"/>
-      <c r="AU32" s="111"/>
-      <c r="AV32" s="111"/>
-      <c r="AW32" s="111"/>
-      <c r="AX32" s="111"/>
-      <c r="AY32" s="111"/>
-      <c r="AZ32" s="111"/>
-      <c r="BA32" s="111"/>
-      <c r="BB32" s="111"/>
-      <c r="BC32" s="111"/>
-      <c r="BD32" s="111"/>
-      <c r="BE32" s="111"/>
-      <c r="BF32" s="111"/>
-      <c r="BG32" s="111"/>
-      <c r="BH32" s="111"/>
-      <c r="BI32" s="111"/>
-      <c r="BJ32" s="111"/>
-      <c r="BK32" s="111"/>
-      <c r="BL32" s="111"/>
-      <c r="BM32" s="111"/>
-      <c r="BN32" s="111"/>
-      <c r="BO32" s="111"/>
-      <c r="BP32" s="111"/>
-      <c r="BQ32" s="111"/>
-      <c r="BR32" s="111"/>
-      <c r="BS32" s="111"/>
-      <c r="BT32" s="111"/>
-      <c r="BU32" s="111"/>
-      <c r="BV32" s="111"/>
-      <c r="BW32" s="111"/>
-      <c r="BX32" s="111"/>
-      <c r="BY32" s="111"/>
-      <c r="BZ32" s="111"/>
-      <c r="CA32" s="111"/>
-      <c r="CB32" s="111"/>
+      <c r="AR32" s="74"/>
+      <c r="AS32" s="74"/>
+      <c r="AT32" s="74"/>
+      <c r="AU32" s="74"/>
+      <c r="AV32" s="74"/>
+      <c r="AW32" s="74"/>
+      <c r="AX32" s="74"/>
+      <c r="AY32" s="74"/>
+      <c r="AZ32" s="74"/>
+      <c r="BA32" s="74"/>
+      <c r="BB32" s="74"/>
+      <c r="BC32" s="74"/>
+      <c r="BD32" s="74"/>
+      <c r="BE32" s="74"/>
+      <c r="BF32" s="74"/>
+      <c r="BG32" s="74"/>
+      <c r="BH32" s="74"/>
+      <c r="BI32" s="74"/>
+      <c r="BJ32" s="74"/>
+      <c r="BK32" s="74"/>
+      <c r="BL32" s="74"/>
+      <c r="BM32" s="74"/>
+      <c r="BN32" s="74"/>
+      <c r="BO32" s="74"/>
+      <c r="BP32" s="74"/>
+      <c r="BQ32" s="74"/>
+      <c r="BR32" s="74"/>
+      <c r="BS32" s="74"/>
+      <c r="BT32" s="74"/>
+      <c r="BU32" s="74"/>
+      <c r="BV32" s="74"/>
+      <c r="BW32" s="74"/>
+      <c r="BX32" s="74"/>
+      <c r="BY32" s="74"/>
+      <c r="BZ32" s="74"/>
+      <c r="CA32" s="74"/>
+      <c r="CB32" s="74"/>
     </row>
     <row r="33" spans="1:38" ht="13.5" customHeight="1">
       <c r="A33" s="31"/>
@@ -5924,103 +5925,103 @@
     <row r="34" spans="1:38" ht="23.25">
       <c r="A34" s="31"/>
       <c r="B34" s="42"/>
-      <c r="C34" s="73">
+      <c r="C34" s="78">
         <v>0</v>
       </c>
-      <c r="D34" s="73"/>
-      <c r="E34" s="73"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="78"/>
       <c r="F34" s="40"/>
-      <c r="G34" s="73">
+      <c r="G34" s="78">
         <v>1</v>
       </c>
-      <c r="H34" s="73"/>
-      <c r="I34" s="73"/>
+      <c r="H34" s="78"/>
+      <c r="I34" s="78"/>
       <c r="J34" s="40"/>
-      <c r="K34" s="73">
+      <c r="K34" s="78">
         <v>2</v>
       </c>
-      <c r="L34" s="73"/>
+      <c r="L34" s="78"/>
       <c r="M34" s="40"/>
-      <c r="N34" s="73">
+      <c r="N34" s="78">
         <v>3</v>
       </c>
-      <c r="O34" s="73"/>
+      <c r="O34" s="78"/>
       <c r="P34" s="40"/>
-      <c r="Q34" s="73">
+      <c r="Q34" s="78">
         <v>4</v>
       </c>
-      <c r="R34" s="73"/>
+      <c r="R34" s="78"/>
       <c r="S34" s="40"/>
-      <c r="T34" s="73">
+      <c r="T34" s="78">
         <v>5</v>
       </c>
-      <c r="U34" s="73"/>
-      <c r="V34" s="73"/>
+      <c r="U34" s="78"/>
+      <c r="V34" s="78"/>
       <c r="W34" s="40"/>
-      <c r="X34" s="73">
+      <c r="X34" s="78">
         <v>6</v>
       </c>
-      <c r="Y34" s="73"/>
-      <c r="Z34" s="73"/>
+      <c r="Y34" s="78"/>
+      <c r="Z34" s="78"/>
       <c r="AA34" s="40"/>
-      <c r="AB34" s="73">
+      <c r="AB34" s="78">
         <v>7</v>
       </c>
-      <c r="AC34" s="73"/>
-      <c r="AD34" s="73"/>
+      <c r="AC34" s="78"/>
+      <c r="AD34" s="78"/>
       <c r="AE34" s="40"/>
-      <c r="AF34" s="73">
+      <c r="AF34" s="78">
         <v>8</v>
       </c>
-      <c r="AG34" s="73"/>
+      <c r="AG34" s="78"/>
       <c r="AH34" s="40"/>
-      <c r="AI34" s="73">
+      <c r="AI34" s="78">
         <v>9</v>
       </c>
-      <c r="AJ34" s="73"/>
-      <c r="AK34" s="73"/>
+      <c r="AJ34" s="78"/>
+      <c r="AK34" s="78"/>
       <c r="AL34" s="41"/>
     </row>
     <row r="35" spans="1:38" ht="26.25">
       <c r="A35" s="31"/>
-      <c r="B35" s="74" t="s">
+      <c r="B35" s="79" t="s">
         <v>242</v>
       </c>
-      <c r="C35" s="74"/>
-      <c r="D35" s="74"/>
-      <c r="E35" s="74"/>
-      <c r="F35" s="74"/>
-      <c r="G35" s="74"/>
-      <c r="H35" s="74"/>
-      <c r="I35" s="74"/>
-      <c r="J35" s="74"/>
-      <c r="K35" s="74"/>
-      <c r="L35" s="74"/>
-      <c r="M35" s="74"/>
-      <c r="N35" s="74"/>
-      <c r="O35" s="74"/>
-      <c r="P35" s="74"/>
-      <c r="Q35" s="74"/>
-      <c r="R35" s="74"/>
-      <c r="S35" s="74"/>
-      <c r="T35" s="74"/>
-      <c r="U35" s="74"/>
-      <c r="V35" s="74"/>
-      <c r="W35" s="74"/>
-      <c r="X35" s="74"/>
-      <c r="Y35" s="74"/>
-      <c r="Z35" s="74"/>
-      <c r="AA35" s="74"/>
-      <c r="AB35" s="74"/>
-      <c r="AC35" s="74"/>
-      <c r="AD35" s="74"/>
-      <c r="AE35" s="74"/>
-      <c r="AF35" s="74"/>
-      <c r="AG35" s="74"/>
-      <c r="AH35" s="74"/>
-      <c r="AI35" s="74"/>
-      <c r="AJ35" s="74"/>
-      <c r="AK35" s="74"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="79"/>
+      <c r="F35" s="79"/>
+      <c r="G35" s="79"/>
+      <c r="H35" s="79"/>
+      <c r="I35" s="79"/>
+      <c r="J35" s="79"/>
+      <c r="K35" s="79"/>
+      <c r="L35" s="79"/>
+      <c r="M35" s="79"/>
+      <c r="N35" s="79"/>
+      <c r="O35" s="79"/>
+      <c r="P35" s="79"/>
+      <c r="Q35" s="79"/>
+      <c r="R35" s="79"/>
+      <c r="S35" s="79"/>
+      <c r="T35" s="79"/>
+      <c r="U35" s="79"/>
+      <c r="V35" s="79"/>
+      <c r="W35" s="79"/>
+      <c r="X35" s="79"/>
+      <c r="Y35" s="79"/>
+      <c r="Z35" s="79"/>
+      <c r="AA35" s="79"/>
+      <c r="AB35" s="79"/>
+      <c r="AC35" s="79"/>
+      <c r="AD35" s="79"/>
+      <c r="AE35" s="79"/>
+      <c r="AF35" s="79"/>
+      <c r="AG35" s="79"/>
+      <c r="AH35" s="79"/>
+      <c r="AI35" s="79"/>
+      <c r="AJ35" s="79"/>
+      <c r="AK35" s="79"/>
       <c r="AL35" s="43"/>
     </row>
     <row r="36" spans="1:38">
@@ -6143,7 +6144,7 @@
       <c r="AK38" s="38"/>
       <c r="AL38" s="44"/>
     </row>
-    <row r="39" spans="1:38" ht="5.25" customHeight="1" thickBot="1">
+    <row r="39" spans="1:38" ht="34.5" customHeight="1" thickBot="1">
       <c r="A39" s="45"/>
       <c r="B39" s="46"/>
       <c r="C39" s="46"/>
@@ -6225,17 +6226,55 @@
     </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="BZ25:CB25"/>
-    <mergeCell ref="BH25:BI25"/>
-    <mergeCell ref="BK25:BM25"/>
-    <mergeCell ref="BO25:BQ25"/>
-    <mergeCell ref="BS25:BU25"/>
-    <mergeCell ref="BW25:BX25"/>
-    <mergeCell ref="AR25:AS25"/>
-    <mergeCell ref="AT25:AV25"/>
-    <mergeCell ref="AX25:AZ25"/>
-    <mergeCell ref="BB25:BC25"/>
-    <mergeCell ref="BE25:BF25"/>
+    <mergeCell ref="T25:V25"/>
+    <mergeCell ref="B35:AK35"/>
+    <mergeCell ref="X25:Z25"/>
+    <mergeCell ref="AB25:AD25"/>
+    <mergeCell ref="AF25:AG25"/>
+    <mergeCell ref="AI25:AK25"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="T34:V34"/>
+    <mergeCell ref="X34:Z34"/>
+    <mergeCell ref="AB34:AD34"/>
+    <mergeCell ref="AF34:AG34"/>
+    <mergeCell ref="AI34:AK34"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="X18:Z18"/>
+    <mergeCell ref="AB18:AD18"/>
+    <mergeCell ref="AF18:AG18"/>
+    <mergeCell ref="AI18:AK18"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="B1:AK1"/>
+    <mergeCell ref="AB2:AK2"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="X11:Z11"/>
+    <mergeCell ref="AB11:AD11"/>
+    <mergeCell ref="AF11:AG11"/>
+    <mergeCell ref="AI11:AK11"/>
+    <mergeCell ref="BW11:BX11"/>
+    <mergeCell ref="AR11:AS11"/>
+    <mergeCell ref="AT11:AV11"/>
+    <mergeCell ref="AX11:AZ11"/>
+    <mergeCell ref="BB11:BC11"/>
+    <mergeCell ref="BE11:BF11"/>
     <mergeCell ref="BZ11:CB11"/>
     <mergeCell ref="AR18:AS18"/>
     <mergeCell ref="AT18:AV18"/>
@@ -6252,55 +6291,17 @@
     <mergeCell ref="BK11:BM11"/>
     <mergeCell ref="BO11:BQ11"/>
     <mergeCell ref="BS11:BU11"/>
-    <mergeCell ref="BW11:BX11"/>
-    <mergeCell ref="AR11:AS11"/>
-    <mergeCell ref="AT11:AV11"/>
-    <mergeCell ref="AX11:AZ11"/>
-    <mergeCell ref="BB11:BC11"/>
-    <mergeCell ref="BE11:BF11"/>
-    <mergeCell ref="B1:AK1"/>
-    <mergeCell ref="AB2:AK2"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="X11:Z11"/>
-    <mergeCell ref="AB11:AD11"/>
-    <mergeCell ref="AF11:AG11"/>
-    <mergeCell ref="AI11:AK11"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="T18:V18"/>
-    <mergeCell ref="X18:Z18"/>
-    <mergeCell ref="AB18:AD18"/>
-    <mergeCell ref="AF18:AG18"/>
-    <mergeCell ref="AI18:AK18"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="T25:V25"/>
-    <mergeCell ref="B35:AK35"/>
-    <mergeCell ref="X25:Z25"/>
-    <mergeCell ref="AB25:AD25"/>
-    <mergeCell ref="AF25:AG25"/>
-    <mergeCell ref="AI25:AK25"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="T34:V34"/>
-    <mergeCell ref="X34:Z34"/>
-    <mergeCell ref="AB34:AD34"/>
-    <mergeCell ref="AF34:AG34"/>
-    <mergeCell ref="AI34:AK34"/>
+    <mergeCell ref="AR25:AS25"/>
+    <mergeCell ref="AT25:AV25"/>
+    <mergeCell ref="AX25:AZ25"/>
+    <mergeCell ref="BB25:BC25"/>
+    <mergeCell ref="BE25:BF25"/>
+    <mergeCell ref="BZ25:CB25"/>
+    <mergeCell ref="BH25:BI25"/>
+    <mergeCell ref="BK25:BM25"/>
+    <mergeCell ref="BO25:BQ25"/>
+    <mergeCell ref="BS25:BU25"/>
+    <mergeCell ref="BW25:BX25"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -6341,44 +6342,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="21">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
-      <c r="W1" s="84"/>
-      <c r="X1" s="84"/>
-      <c r="Y1" s="84"/>
-      <c r="Z1" s="84"/>
-      <c r="AA1" s="84"/>
-      <c r="AB1" s="84"/>
-      <c r="AC1" s="84"/>
-      <c r="AD1" s="84"/>
-      <c r="AE1" s="84"/>
-      <c r="AF1" s="84"/>
-      <c r="AG1" s="84"/>
-      <c r="AH1" s="84"/>
-      <c r="AI1" s="84"/>
-      <c r="AJ1" s="85"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="86"/>
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="86"/>
+      <c r="AD1" s="86"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="86"/>
+      <c r="AG1" s="86"/>
+      <c r="AH1" s="86"/>
+      <c r="AI1" s="86"/>
+      <c r="AJ1" s="87"/>
     </row>
     <row r="2" spans="1:38" ht="15.75">
       <c r="A2" s="4" t="s">
@@ -6409,18 +6410,18 @@
       <c r="X2" s="16"/>
       <c r="Y2" s="16"/>
       <c r="Z2" s="16"/>
-      <c r="AA2" s="86" t="s">
+      <c r="AA2" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="AB2" s="86"/>
-      <c r="AC2" s="86"/>
-      <c r="AD2" s="86"/>
-      <c r="AE2" s="86"/>
-      <c r="AF2" s="86"/>
-      <c r="AG2" s="86"/>
-      <c r="AH2" s="86"/>
-      <c r="AI2" s="86"/>
-      <c r="AJ2" s="87"/>
+      <c r="AB2" s="88"/>
+      <c r="AC2" s="88"/>
+      <c r="AD2" s="88"/>
+      <c r="AE2" s="88"/>
+      <c r="AF2" s="88"/>
+      <c r="AG2" s="88"/>
+      <c r="AH2" s="88"/>
+      <c r="AI2" s="88"/>
+      <c r="AJ2" s="89"/>
     </row>
     <row r="3" spans="1:38" ht="15.75">
       <c r="A3" s="8"/>
@@ -6733,7 +6734,7 @@
       <c r="AJ6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="AL6" s="110" t="s">
+      <c r="AL6" s="73" t="s">
         <v>244</v>
       </c>
     </row>
@@ -7107,61 +7108,61 @@
     </row>
     <row r="11" spans="1:38" ht="15.75">
       <c r="A11" s="12"/>
-      <c r="B11" s="77">
+      <c r="B11" s="80">
         <v>0</v>
       </c>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="77">
+      <c r="F11" s="80">
         <v>1</v>
       </c>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="77">
+      <c r="J11" s="80">
         <v>2</v>
       </c>
-      <c r="K11" s="77"/>
+      <c r="K11" s="80"/>
       <c r="L11" s="6"/>
-      <c r="M11" s="77">
+      <c r="M11" s="80">
         <v>3</v>
       </c>
-      <c r="N11" s="77"/>
+      <c r="N11" s="80"/>
       <c r="O11" s="6"/>
-      <c r="P11" s="77">
+      <c r="P11" s="80">
         <v>4</v>
       </c>
-      <c r="Q11" s="77"/>
+      <c r="Q11" s="80"/>
       <c r="R11" s="6"/>
-      <c r="S11" s="77">
+      <c r="S11" s="80">
         <v>5</v>
       </c>
-      <c r="T11" s="77"/>
-      <c r="U11" s="77"/>
+      <c r="T11" s="80"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="6"/>
-      <c r="W11" s="77">
+      <c r="W11" s="80">
         <v>6</v>
       </c>
-      <c r="X11" s="77"/>
-      <c r="Y11" s="77"/>
+      <c r="X11" s="80"/>
+      <c r="Y11" s="80"/>
       <c r="Z11" s="6"/>
-      <c r="AA11" s="77">
+      <c r="AA11" s="80">
         <v>7</v>
       </c>
-      <c r="AB11" s="77"/>
-      <c r="AC11" s="77"/>
+      <c r="AB11" s="80"/>
+      <c r="AC11" s="80"/>
       <c r="AD11" s="6"/>
-      <c r="AE11" s="77">
+      <c r="AE11" s="80">
         <v>8</v>
       </c>
-      <c r="AF11" s="77"/>
+      <c r="AF11" s="80"/>
       <c r="AG11" s="6"/>
-      <c r="AH11" s="77">
+      <c r="AH11" s="80">
         <v>9</v>
       </c>
-      <c r="AI11" s="77"/>
-      <c r="AJ11" s="82"/>
+      <c r="AI11" s="80"/>
+      <c r="AJ11" s="81"/>
     </row>
     <row r="12" spans="1:38" ht="9.9499999999999993" customHeight="1">
       <c r="A12" s="20" t="s">
@@ -7718,61 +7719,61 @@
     </row>
     <row r="18" spans="1:37" ht="15.75">
       <c r="A18" s="10"/>
-      <c r="B18" s="77">
+      <c r="B18" s="80">
         <v>0</v>
       </c>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="77">
+      <c r="F18" s="80">
         <v>1</v>
       </c>
-      <c r="G18" s="77"/>
-      <c r="H18" s="77"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
       <c r="I18" s="6"/>
-      <c r="J18" s="77">
+      <c r="J18" s="80">
         <v>2</v>
       </c>
-      <c r="K18" s="77"/>
+      <c r="K18" s="80"/>
       <c r="L18" s="6"/>
-      <c r="M18" s="77">
+      <c r="M18" s="80">
         <v>3</v>
       </c>
-      <c r="N18" s="77"/>
+      <c r="N18" s="80"/>
       <c r="O18" s="6"/>
-      <c r="P18" s="77">
+      <c r="P18" s="80">
         <v>4</v>
       </c>
-      <c r="Q18" s="77"/>
+      <c r="Q18" s="80"/>
       <c r="R18" s="6"/>
-      <c r="S18" s="77">
+      <c r="S18" s="80">
         <v>5</v>
       </c>
-      <c r="T18" s="77"/>
-      <c r="U18" s="77"/>
+      <c r="T18" s="80"/>
+      <c r="U18" s="80"/>
       <c r="V18" s="6"/>
-      <c r="W18" s="77">
+      <c r="W18" s="80">
         <v>6</v>
       </c>
-      <c r="X18" s="77"/>
-      <c r="Y18" s="77"/>
+      <c r="X18" s="80"/>
+      <c r="Y18" s="80"/>
       <c r="Z18" s="6"/>
-      <c r="AA18" s="77">
+      <c r="AA18" s="80">
         <v>7</v>
       </c>
-      <c r="AB18" s="77"/>
-      <c r="AC18" s="77"/>
+      <c r="AB18" s="80"/>
+      <c r="AC18" s="80"/>
       <c r="AD18" s="6"/>
-      <c r="AE18" s="77">
+      <c r="AE18" s="80">
         <v>8</v>
       </c>
-      <c r="AF18" s="77"/>
+      <c r="AF18" s="80"/>
       <c r="AG18" s="6"/>
-      <c r="AH18" s="77">
+      <c r="AH18" s="80">
         <v>9</v>
       </c>
-      <c r="AI18" s="77"/>
-      <c r="AJ18" s="82"/>
+      <c r="AI18" s="80"/>
+      <c r="AJ18" s="81"/>
     </row>
     <row r="19" spans="1:37" ht="9.9499999999999993" customHeight="1">
       <c r="A19" s="10" t="s">
@@ -8328,61 +8329,61 @@
     </row>
     <row r="25" spans="1:37" ht="15.75">
       <c r="A25" s="10"/>
-      <c r="B25" s="77">
+      <c r="B25" s="80">
         <v>0</v>
       </c>
-      <c r="C25" s="77"/>
-      <c r="D25" s="77"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="80"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="77">
+      <c r="F25" s="80">
         <v>1</v>
       </c>
-      <c r="G25" s="77"/>
-      <c r="H25" s="77"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="80"/>
       <c r="I25" s="6"/>
-      <c r="J25" s="77">
+      <c r="J25" s="80">
         <v>2</v>
       </c>
-      <c r="K25" s="77"/>
+      <c r="K25" s="80"/>
       <c r="L25" s="6"/>
-      <c r="M25" s="77">
+      <c r="M25" s="80">
         <v>3</v>
       </c>
-      <c r="N25" s="77"/>
+      <c r="N25" s="80"/>
       <c r="O25" s="6"/>
-      <c r="P25" s="77">
+      <c r="P25" s="80">
         <v>4</v>
       </c>
-      <c r="Q25" s="77"/>
+      <c r="Q25" s="80"/>
       <c r="R25" s="6"/>
-      <c r="S25" s="77">
+      <c r="S25" s="80">
         <v>5</v>
       </c>
-      <c r="T25" s="77"/>
-      <c r="U25" s="77"/>
+      <c r="T25" s="80"/>
+      <c r="U25" s="80"/>
       <c r="V25" s="6"/>
-      <c r="W25" s="77">
+      <c r="W25" s="80">
         <v>6</v>
       </c>
-      <c r="X25" s="77"/>
-      <c r="Y25" s="77"/>
+      <c r="X25" s="80"/>
+      <c r="Y25" s="80"/>
       <c r="Z25" s="6"/>
-      <c r="AA25" s="77">
+      <c r="AA25" s="80">
         <v>7</v>
       </c>
-      <c r="AB25" s="77"/>
-      <c r="AC25" s="77"/>
+      <c r="AB25" s="80"/>
+      <c r="AC25" s="80"/>
       <c r="AD25" s="6"/>
-      <c r="AE25" s="77">
+      <c r="AE25" s="80">
         <v>8</v>
       </c>
-      <c r="AF25" s="77"/>
+      <c r="AF25" s="80"/>
       <c r="AG25" s="6"/>
-      <c r="AH25" s="77">
+      <c r="AH25" s="80">
         <v>9</v>
       </c>
-      <c r="AI25" s="77"/>
-      <c r="AJ25" s="82"/>
+      <c r="AI25" s="80"/>
+      <c r="AJ25" s="81"/>
     </row>
     <row r="26" spans="1:37" ht="9.9499999999999993" customHeight="1">
       <c r="A26" s="10" t="s">
@@ -9030,217 +9031,217 @@
     </row>
     <row r="33" spans="1:36">
       <c r="A33" s="15"/>
-      <c r="B33" s="77">
+      <c r="B33" s="80">
         <v>0</v>
       </c>
-      <c r="C33" s="77"/>
-      <c r="D33" s="77"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="80"/>
       <c r="E33" s="6"/>
-      <c r="F33" s="77">
+      <c r="F33" s="80">
         <v>1</v>
       </c>
-      <c r="G33" s="77"/>
-      <c r="H33" s="77"/>
+      <c r="G33" s="80"/>
+      <c r="H33" s="80"/>
       <c r="I33" s="6"/>
-      <c r="J33" s="77">
+      <c r="J33" s="80">
         <v>2</v>
       </c>
-      <c r="K33" s="77"/>
+      <c r="K33" s="80"/>
       <c r="L33" s="6"/>
-      <c r="M33" s="77">
+      <c r="M33" s="80">
         <v>3</v>
       </c>
-      <c r="N33" s="77"/>
+      <c r="N33" s="80"/>
       <c r="O33" s="6"/>
-      <c r="P33" s="77">
+      <c r="P33" s="80">
         <v>4</v>
       </c>
-      <c r="Q33" s="77"/>
+      <c r="Q33" s="80"/>
       <c r="R33" s="6"/>
-      <c r="S33" s="77">
+      <c r="S33" s="80">
         <v>5</v>
       </c>
-      <c r="T33" s="77"/>
-      <c r="U33" s="77"/>
+      <c r="T33" s="80"/>
+      <c r="U33" s="80"/>
       <c r="V33" s="6"/>
-      <c r="W33" s="77">
+      <c r="W33" s="80">
         <v>6</v>
       </c>
-      <c r="X33" s="77"/>
-      <c r="Y33" s="77"/>
+      <c r="X33" s="80"/>
+      <c r="Y33" s="80"/>
       <c r="Z33" s="6"/>
-      <c r="AA33" s="77">
+      <c r="AA33" s="80">
         <v>7</v>
       </c>
-      <c r="AB33" s="77"/>
-      <c r="AC33" s="77"/>
+      <c r="AB33" s="80"/>
+      <c r="AC33" s="80"/>
       <c r="AD33" s="6"/>
-      <c r="AE33" s="77">
+      <c r="AE33" s="80">
         <v>8</v>
       </c>
-      <c r="AF33" s="77"/>
+      <c r="AF33" s="80"/>
       <c r="AG33" s="6"/>
-      <c r="AH33" s="77">
+      <c r="AH33" s="80">
         <v>9</v>
       </c>
-      <c r="AI33" s="77"/>
-      <c r="AJ33" s="82"/>
+      <c r="AI33" s="80"/>
+      <c r="AJ33" s="81"/>
     </row>
     <row r="34" spans="1:36">
-      <c r="A34" s="88" t="s">
+      <c r="A34" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="89"/>
-      <c r="C34" s="89"/>
-      <c r="D34" s="89"/>
-      <c r="E34" s="89"/>
-      <c r="F34" s="89"/>
-      <c r="G34" s="89"/>
-      <c r="H34" s="89"/>
-      <c r="I34" s="89"/>
-      <c r="J34" s="89"/>
-      <c r="K34" s="89"/>
-      <c r="L34" s="89"/>
-      <c r="M34" s="89"/>
-      <c r="N34" s="89"/>
-      <c r="O34" s="89"/>
-      <c r="P34" s="89"/>
-      <c r="Q34" s="89"/>
-      <c r="R34" s="89"/>
-      <c r="S34" s="89"/>
-      <c r="T34" s="89"/>
-      <c r="U34" s="89"/>
-      <c r="V34" s="89"/>
-      <c r="W34" s="89"/>
-      <c r="X34" s="89"/>
-      <c r="Y34" s="89"/>
-      <c r="Z34" s="89"/>
-      <c r="AA34" s="89"/>
-      <c r="AB34" s="89"/>
-      <c r="AC34" s="89"/>
-      <c r="AD34" s="89"/>
-      <c r="AE34" s="89"/>
-      <c r="AF34" s="89"/>
-      <c r="AG34" s="89"/>
-      <c r="AH34" s="89"/>
-      <c r="AI34" s="89"/>
-      <c r="AJ34" s="90"/>
+      <c r="B34" s="83"/>
+      <c r="C34" s="83"/>
+      <c r="D34" s="83"/>
+      <c r="E34" s="83"/>
+      <c r="F34" s="83"/>
+      <c r="G34" s="83"/>
+      <c r="H34" s="83"/>
+      <c r="I34" s="83"/>
+      <c r="J34" s="83"/>
+      <c r="K34" s="83"/>
+      <c r="L34" s="83"/>
+      <c r="M34" s="83"/>
+      <c r="N34" s="83"/>
+      <c r="O34" s="83"/>
+      <c r="P34" s="83"/>
+      <c r="Q34" s="83"/>
+      <c r="R34" s="83"/>
+      <c r="S34" s="83"/>
+      <c r="T34" s="83"/>
+      <c r="U34" s="83"/>
+      <c r="V34" s="83"/>
+      <c r="W34" s="83"/>
+      <c r="X34" s="83"/>
+      <c r="Y34" s="83"/>
+      <c r="Z34" s="83"/>
+      <c r="AA34" s="83"/>
+      <c r="AB34" s="83"/>
+      <c r="AC34" s="83"/>
+      <c r="AD34" s="83"/>
+      <c r="AE34" s="83"/>
+      <c r="AF34" s="83"/>
+      <c r="AG34" s="83"/>
+      <c r="AH34" s="83"/>
+      <c r="AI34" s="83"/>
+      <c r="AJ34" s="84"/>
     </row>
     <row r="35" spans="1:36" ht="15" customHeight="1">
-      <c r="A35" s="80" t="s">
+      <c r="A35" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="80"/>
-      <c r="C35" s="80"/>
-      <c r="D35" s="80"/>
-      <c r="E35" s="80"/>
-      <c r="F35" s="80"/>
-      <c r="G35" s="80"/>
-      <c r="H35" s="80"/>
-      <c r="I35" s="80"/>
-      <c r="J35" s="80"/>
-      <c r="K35" s="80"/>
-      <c r="L35" s="80"/>
-      <c r="M35" s="80"/>
-      <c r="N35" s="80"/>
-      <c r="O35" s="80"/>
-      <c r="P35" s="80"/>
-      <c r="Q35" s="80"/>
-      <c r="R35" s="80"/>
-      <c r="S35" s="80"/>
-      <c r="T35" s="80"/>
-      <c r="U35" s="80"/>
-      <c r="V35" s="80"/>
-      <c r="W35" s="80"/>
-      <c r="X35" s="80"/>
-      <c r="Y35" s="80"/>
-      <c r="Z35" s="80"/>
-      <c r="AA35" s="80"/>
-      <c r="AB35" s="80"/>
-      <c r="AC35" s="80"/>
-      <c r="AD35" s="80"/>
-      <c r="AE35" s="80"/>
-      <c r="AF35" s="80"/>
-      <c r="AG35" s="80"/>
-      <c r="AH35" s="80"/>
-      <c r="AI35" s="80"/>
-      <c r="AJ35" s="80"/>
+      <c r="B35" s="92"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="92"/>
+      <c r="F35" s="92"/>
+      <c r="G35" s="92"/>
+      <c r="H35" s="92"/>
+      <c r="I35" s="92"/>
+      <c r="J35" s="92"/>
+      <c r="K35" s="92"/>
+      <c r="L35" s="92"/>
+      <c r="M35" s="92"/>
+      <c r="N35" s="92"/>
+      <c r="O35" s="92"/>
+      <c r="P35" s="92"/>
+      <c r="Q35" s="92"/>
+      <c r="R35" s="92"/>
+      <c r="S35" s="92"/>
+      <c r="T35" s="92"/>
+      <c r="U35" s="92"/>
+      <c r="V35" s="92"/>
+      <c r="W35" s="92"/>
+      <c r="X35" s="92"/>
+      <c r="Y35" s="92"/>
+      <c r="Z35" s="92"/>
+      <c r="AA35" s="92"/>
+      <c r="AB35" s="92"/>
+      <c r="AC35" s="92"/>
+      <c r="AD35" s="92"/>
+      <c r="AE35" s="92"/>
+      <c r="AF35" s="92"/>
+      <c r="AG35" s="92"/>
+      <c r="AH35" s="92"/>
+      <c r="AI35" s="92"/>
+      <c r="AJ35" s="92"/>
     </row>
     <row r="36" spans="1:36">
-      <c r="A36" s="81"/>
-      <c r="B36" s="81"/>
-      <c r="C36" s="81"/>
-      <c r="D36" s="81"/>
-      <c r="E36" s="81"/>
-      <c r="F36" s="81"/>
-      <c r="G36" s="81"/>
-      <c r="H36" s="81"/>
-      <c r="I36" s="81"/>
-      <c r="J36" s="81"/>
-      <c r="K36" s="81"/>
-      <c r="L36" s="81"/>
-      <c r="M36" s="81"/>
-      <c r="N36" s="81"/>
-      <c r="O36" s="81"/>
-      <c r="P36" s="81"/>
-      <c r="Q36" s="81"/>
-      <c r="R36" s="81"/>
-      <c r="S36" s="81"/>
-      <c r="T36" s="81"/>
-      <c r="U36" s="81"/>
-      <c r="V36" s="81"/>
-      <c r="W36" s="81"/>
-      <c r="X36" s="81"/>
-      <c r="Y36" s="81"/>
-      <c r="Z36" s="81"/>
-      <c r="AA36" s="81"/>
-      <c r="AB36" s="81"/>
-      <c r="AC36" s="81"/>
-      <c r="AD36" s="81"/>
-      <c r="AE36" s="81"/>
-      <c r="AF36" s="81"/>
-      <c r="AG36" s="81"/>
-      <c r="AH36" s="81"/>
-      <c r="AI36" s="81"/>
-      <c r="AJ36" s="81"/>
+      <c r="A36" s="93"/>
+      <c r="B36" s="93"/>
+      <c r="C36" s="93"/>
+      <c r="D36" s="93"/>
+      <c r="E36" s="93"/>
+      <c r="F36" s="93"/>
+      <c r="G36" s="93"/>
+      <c r="H36" s="93"/>
+      <c r="I36" s="93"/>
+      <c r="J36" s="93"/>
+      <c r="K36" s="93"/>
+      <c r="L36" s="93"/>
+      <c r="M36" s="93"/>
+      <c r="N36" s="93"/>
+      <c r="O36" s="93"/>
+      <c r="P36" s="93"/>
+      <c r="Q36" s="93"/>
+      <c r="R36" s="93"/>
+      <c r="S36" s="93"/>
+      <c r="T36" s="93"/>
+      <c r="U36" s="93"/>
+      <c r="V36" s="93"/>
+      <c r="W36" s="93"/>
+      <c r="X36" s="93"/>
+      <c r="Y36" s="93"/>
+      <c r="Z36" s="93"/>
+      <c r="AA36" s="93"/>
+      <c r="AB36" s="93"/>
+      <c r="AC36" s="93"/>
+      <c r="AD36" s="93"/>
+      <c r="AE36" s="93"/>
+      <c r="AF36" s="93"/>
+      <c r="AG36" s="93"/>
+      <c r="AH36" s="93"/>
+      <c r="AI36" s="93"/>
+      <c r="AJ36" s="93"/>
     </row>
     <row r="37" spans="1:36">
-      <c r="A37" s="81"/>
-      <c r="B37" s="81"/>
-      <c r="C37" s="81"/>
-      <c r="D37" s="81"/>
-      <c r="E37" s="81"/>
-      <c r="F37" s="81"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="81"/>
-      <c r="I37" s="81"/>
-      <c r="J37" s="81"/>
-      <c r="K37" s="81"/>
-      <c r="L37" s="81"/>
-      <c r="M37" s="81"/>
-      <c r="N37" s="81"/>
-      <c r="O37" s="81"/>
-      <c r="P37" s="81"/>
-      <c r="Q37" s="81"/>
-      <c r="R37" s="81"/>
-      <c r="S37" s="81"/>
-      <c r="T37" s="81"/>
-      <c r="U37" s="81"/>
-      <c r="V37" s="81"/>
-      <c r="W37" s="81"/>
-      <c r="X37" s="81"/>
-      <c r="Y37" s="81"/>
-      <c r="Z37" s="81"/>
-      <c r="AA37" s="81"/>
-      <c r="AB37" s="81"/>
-      <c r="AC37" s="81"/>
-      <c r="AD37" s="81"/>
-      <c r="AE37" s="81"/>
-      <c r="AF37" s="81"/>
-      <c r="AG37" s="81"/>
-      <c r="AH37" s="81"/>
-      <c r="AI37" s="81"/>
-      <c r="AJ37" s="81"/>
+      <c r="A37" s="93"/>
+      <c r="B37" s="93"/>
+      <c r="C37" s="93"/>
+      <c r="D37" s="93"/>
+      <c r="E37" s="93"/>
+      <c r="F37" s="93"/>
+      <c r="G37" s="93"/>
+      <c r="H37" s="93"/>
+      <c r="I37" s="93"/>
+      <c r="J37" s="93"/>
+      <c r="K37" s="93"/>
+      <c r="L37" s="93"/>
+      <c r="M37" s="93"/>
+      <c r="N37" s="93"/>
+      <c r="O37" s="93"/>
+      <c r="P37" s="93"/>
+      <c r="Q37" s="93"/>
+      <c r="R37" s="93"/>
+      <c r="S37" s="93"/>
+      <c r="T37" s="93"/>
+      <c r="U37" s="93"/>
+      <c r="V37" s="93"/>
+      <c r="W37" s="93"/>
+      <c r="X37" s="93"/>
+      <c r="Y37" s="93"/>
+      <c r="Z37" s="93"/>
+      <c r="AA37" s="93"/>
+      <c r="AB37" s="93"/>
+      <c r="AC37" s="93"/>
+      <c r="AD37" s="93"/>
+      <c r="AE37" s="93"/>
+      <c r="AF37" s="93"/>
+      <c r="AG37" s="93"/>
+      <c r="AH37" s="93"/>
+      <c r="AI37" s="93"/>
+      <c r="AJ37" s="93"/>
     </row>
     <row r="38" spans="1:36">
       <c r="O38" s="7"/>
@@ -9252,40 +9253,40 @@
       <c r="O39" s="22"/>
     </row>
     <row r="40" spans="1:36">
-      <c r="A40" s="79" t="s">
+      <c r="A40" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="79"/>
-      <c r="C40" s="79"/>
-      <c r="D40" s="79"/>
-      <c r="E40" s="79"/>
-      <c r="F40" s="79"/>
-      <c r="G40" s="79"/>
-      <c r="H40" s="79"/>
-      <c r="I40" s="79"/>
-      <c r="J40" s="79"/>
-      <c r="K40" s="79"/>
-      <c r="L40" s="79"/>
-      <c r="M40" s="79"/>
-      <c r="N40" s="79"/>
+      <c r="B40" s="91"/>
+      <c r="C40" s="91"/>
+      <c r="D40" s="91"/>
+      <c r="E40" s="91"/>
+      <c r="F40" s="91"/>
+      <c r="G40" s="91"/>
+      <c r="H40" s="91"/>
+      <c r="I40" s="91"/>
+      <c r="J40" s="91"/>
+      <c r="K40" s="91"/>
+      <c r="L40" s="91"/>
+      <c r="M40" s="91"/>
+      <c r="N40" s="91"/>
     </row>
     <row r="41" spans="1:36">
-      <c r="A41" s="78" t="s">
+      <c r="A41" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="78"/>
-      <c r="C41" s="78"/>
-      <c r="D41" s="78"/>
-      <c r="E41" s="78"/>
-      <c r="F41" s="78"/>
-      <c r="G41" s="78"/>
-      <c r="H41" s="78"/>
-      <c r="I41" s="78"/>
-      <c r="J41" s="78"/>
-      <c r="K41" s="78"/>
-      <c r="L41" s="78"/>
-      <c r="M41" s="78"/>
-      <c r="N41" s="78"/>
+      <c r="B41" s="90"/>
+      <c r="C41" s="90"/>
+      <c r="D41" s="90"/>
+      <c r="E41" s="90"/>
+      <c r="F41" s="90"/>
+      <c r="G41" s="90"/>
+      <c r="H41" s="90"/>
+      <c r="I41" s="90"/>
+      <c r="J41" s="90"/>
+      <c r="K41" s="90"/>
+      <c r="L41" s="90"/>
+      <c r="M41" s="90"/>
+      <c r="N41" s="90"/>
     </row>
     <row r="42" spans="1:36">
       <c r="A42" t="s">
@@ -9299,20 +9300,22 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="AE33:AF33"/>
-    <mergeCell ref="AH33:AJ33"/>
-    <mergeCell ref="A34:AJ34"/>
-    <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="AH25:AJ25"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="W33:Y33"/>
-    <mergeCell ref="AA33:AC33"/>
-    <mergeCell ref="AA25:AC25"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="A41:N41"/>
+    <mergeCell ref="A40:N40"/>
+    <mergeCell ref="A35:AJ37"/>
+    <mergeCell ref="W18:Y18"/>
+    <mergeCell ref="AA18:AC18"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="AH18:AJ18"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="W25:Y25"/>
     <mergeCell ref="F18:H18"/>
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="M18:N18"/>
@@ -9329,22 +9332,20 @@
     <mergeCell ref="AA11:AC11"/>
     <mergeCell ref="AE11:AF11"/>
     <mergeCell ref="AH11:AJ11"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="A41:N41"/>
-    <mergeCell ref="A40:N40"/>
-    <mergeCell ref="A35:AJ37"/>
-    <mergeCell ref="W18:Y18"/>
-    <mergeCell ref="AA18:AC18"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="AH18:AJ18"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="W25:Y25"/>
+    <mergeCell ref="AE33:AF33"/>
+    <mergeCell ref="AH33:AJ33"/>
+    <mergeCell ref="A34:AJ34"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="AH25:AJ25"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="W33:Y33"/>
+    <mergeCell ref="AA33:AC33"/>
+    <mergeCell ref="AA25:AC25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AL6" r:id="rId1"/>
@@ -9359,13 +9360,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U46"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="X8" sqref="X8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="2" max="2" width="3.42578125" customWidth="1"/>
     <col min="3" max="3" width="2.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
@@ -9385,31 +9386,31 @@
     <col min="18" max="18" width="2.140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="6" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9.28515625" customWidth="1"/>
-    <col min="21" max="21" width="11" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="35.25">
       <c r="A1" s="29"/>
-      <c r="B1" s="103" t="s">
+      <c r="B1" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="103"/>
-      <c r="R1" s="103"/>
-      <c r="S1" s="103"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="94"/>
       <c r="T1" s="68"/>
       <c r="U1" s="69"/>
     </row>
@@ -9429,152 +9430,152 @@
       <c r="M2" s="38"/>
       <c r="N2" s="72"/>
       <c r="O2" s="38"/>
-      <c r="P2" s="104" t="s">
+      <c r="P2" s="95" t="s">
         <v>243</v>
       </c>
-      <c r="Q2" s="104"/>
-      <c r="R2" s="104"/>
-      <c r="S2" s="104"/>
+      <c r="Q2" s="95"/>
+      <c r="R2" s="95"/>
+      <c r="S2" s="95"/>
       <c r="T2" s="38"/>
       <c r="U2" s="44"/>
     </row>
     <row r="3" spans="1:21" ht="18.75">
       <c r="A3" s="31"/>
-      <c r="B3" s="105" t="s">
+      <c r="B3" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="106"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="108" t="s">
+      <c r="C3" s="97"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="99" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="106"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="108" t="s">
+      <c r="F3" s="97"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="106"/>
-      <c r="J3" s="107"/>
-      <c r="K3" s="108" t="s">
+      <c r="I3" s="97"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="106"/>
-      <c r="M3" s="107"/>
-      <c r="N3" s="108" t="s">
+      <c r="L3" s="97"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="O3" s="106"/>
-      <c r="P3" s="107"/>
-      <c r="Q3" s="108" t="s">
+      <c r="O3" s="97"/>
+      <c r="P3" s="98"/>
+      <c r="Q3" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="R3" s="106"/>
-      <c r="S3" s="109"/>
+      <c r="R3" s="97"/>
+      <c r="S3" s="100"/>
       <c r="T3" s="38"/>
       <c r="U3" s="44"/>
     </row>
     <row r="4" spans="1:21" ht="18.75">
       <c r="A4" s="31"/>
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="99"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="98" t="s">
+      <c r="C4" s="102"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="99"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="98" t="s">
+      <c r="F4" s="102"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="99"/>
-      <c r="J4" s="102"/>
-      <c r="K4" s="98" t="s">
+      <c r="I4" s="102"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="101" t="s">
         <v>45</v>
       </c>
-      <c r="L4" s="99"/>
-      <c r="M4" s="102"/>
-      <c r="N4" s="98" t="s">
+      <c r="L4" s="102"/>
+      <c r="M4" s="105"/>
+      <c r="N4" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="O4" s="99"/>
-      <c r="P4" s="102"/>
-      <c r="Q4" s="98" t="s">
+      <c r="O4" s="102"/>
+      <c r="P4" s="105"/>
+      <c r="Q4" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="R4" s="99"/>
-      <c r="S4" s="100"/>
+      <c r="R4" s="102"/>
+      <c r="S4" s="103"/>
       <c r="T4" s="38"/>
       <c r="U4" s="44"/>
     </row>
     <row r="5" spans="1:21" ht="18.75">
       <c r="A5" s="31"/>
-      <c r="B5" s="101" t="s">
+      <c r="B5" s="104" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="99"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="98" t="s">
+      <c r="C5" s="102"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="101" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="99"/>
-      <c r="G5" s="102"/>
-      <c r="H5" s="98" t="s">
+      <c r="F5" s="102"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="101" t="s">
         <v>50</v>
       </c>
-      <c r="I5" s="99"/>
-      <c r="J5" s="102"/>
-      <c r="K5" s="98" t="s">
+      <c r="I5" s="102"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="101" t="s">
         <v>51</v>
       </c>
-      <c r="L5" s="99"/>
-      <c r="M5" s="102"/>
-      <c r="N5" s="98" t="s">
+      <c r="L5" s="102"/>
+      <c r="M5" s="105"/>
+      <c r="N5" s="101" t="s">
         <v>52</v>
       </c>
-      <c r="O5" s="99"/>
-      <c r="P5" s="102"/>
-      <c r="Q5" s="98" t="s">
+      <c r="O5" s="102"/>
+      <c r="P5" s="105"/>
+      <c r="Q5" s="101" t="s">
         <v>53</v>
       </c>
-      <c r="R5" s="99"/>
-      <c r="S5" s="100"/>
+      <c r="R5" s="102"/>
+      <c r="S5" s="103"/>
       <c r="T5" s="38"/>
       <c r="U5" s="44"/>
     </row>
     <row r="6" spans="1:21" ht="19.5" thickBot="1">
       <c r="A6" s="31"/>
-      <c r="B6" s="97" t="s">
+      <c r="B6" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="92"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="91" t="s">
+      <c r="C6" s="107"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="106" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="92"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="91" t="s">
+      <c r="F6" s="107"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="92"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="91" t="s">
+      <c r="I6" s="107"/>
+      <c r="J6" s="108"/>
+      <c r="K6" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="L6" s="92"/>
-      <c r="M6" s="93"/>
-      <c r="N6" s="91" t="s">
+      <c r="L6" s="107"/>
+      <c r="M6" s="108"/>
+      <c r="N6" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="O6" s="92"/>
-      <c r="P6" s="93"/>
-      <c r="Q6" s="91" t="s">
+      <c r="O6" s="107"/>
+      <c r="P6" s="108"/>
+      <c r="Q6" s="106" t="s">
         <v>59</v>
       </c>
-      <c r="R6" s="92"/>
-      <c r="S6" s="94"/>
+      <c r="R6" s="107"/>
+      <c r="S6" s="109"/>
       <c r="T6" s="38"/>
       <c r="U6" s="44"/>
     </row>
@@ -11350,26 +11351,26 @@
     </row>
     <row r="37" spans="1:21" ht="18.75">
       <c r="A37" s="31"/>
-      <c r="B37" s="96" t="s">
+      <c r="B37" s="111" t="s">
         <v>241</v>
       </c>
-      <c r="C37" s="96"/>
-      <c r="D37" s="96"/>
-      <c r="E37" s="96"/>
-      <c r="F37" s="96"/>
-      <c r="G37" s="96"/>
-      <c r="H37" s="96"/>
-      <c r="I37" s="96"/>
-      <c r="J37" s="96"/>
-      <c r="K37" s="96"/>
-      <c r="L37" s="96"/>
-      <c r="M37" s="96"/>
-      <c r="N37" s="96"/>
-      <c r="O37" s="96"/>
-      <c r="P37" s="96"/>
-      <c r="Q37" s="96"/>
-      <c r="R37" s="96"/>
-      <c r="S37" s="96"/>
+      <c r="C37" s="111"/>
+      <c r="D37" s="111"/>
+      <c r="E37" s="111"/>
+      <c r="F37" s="111"/>
+      <c r="G37" s="111"/>
+      <c r="H37" s="111"/>
+      <c r="I37" s="111"/>
+      <c r="J37" s="111"/>
+      <c r="K37" s="111"/>
+      <c r="L37" s="111"/>
+      <c r="M37" s="111"/>
+      <c r="N37" s="111"/>
+      <c r="O37" s="111"/>
+      <c r="P37" s="111"/>
+      <c r="Q37" s="111"/>
+      <c r="R37" s="111"/>
+      <c r="S37" s="111"/>
       <c r="T37" s="38"/>
       <c r="U37" s="44"/>
     </row>
@@ -11398,26 +11399,26 @@
     </row>
     <row r="39" spans="1:21">
       <c r="A39" s="31"/>
-      <c r="B39" s="95" t="s">
+      <c r="B39" s="110" t="s">
         <v>242</v>
       </c>
-      <c r="C39" s="95"/>
-      <c r="D39" s="95"/>
-      <c r="E39" s="95"/>
-      <c r="F39" s="95"/>
-      <c r="G39" s="95"/>
-      <c r="H39" s="95"/>
-      <c r="I39" s="95"/>
-      <c r="J39" s="95"/>
-      <c r="K39" s="95"/>
-      <c r="L39" s="95"/>
-      <c r="M39" s="95"/>
-      <c r="N39" s="95"/>
-      <c r="O39" s="95"/>
-      <c r="P39" s="95"/>
-      <c r="Q39" s="95"/>
-      <c r="R39" s="95"/>
-      <c r="S39" s="95"/>
+      <c r="C39" s="110"/>
+      <c r="D39" s="110"/>
+      <c r="E39" s="110"/>
+      <c r="F39" s="110"/>
+      <c r="G39" s="110"/>
+      <c r="H39" s="110"/>
+      <c r="I39" s="110"/>
+      <c r="J39" s="110"/>
+      <c r="K39" s="110"/>
+      <c r="L39" s="110"/>
+      <c r="M39" s="110"/>
+      <c r="N39" s="110"/>
+      <c r="O39" s="110"/>
+      <c r="P39" s="110"/>
+      <c r="Q39" s="110"/>
+      <c r="R39" s="110"/>
+      <c r="S39" s="110"/>
       <c r="T39" s="38"/>
       <c r="U39" s="44"/>
     </row>
@@ -11559,7 +11560,7 @@
       <c r="T45" s="38"/>
       <c r="U45" s="44"/>
     </row>
-    <row r="46" spans="1:21" ht="15" customHeight="1" thickBot="1">
+    <row r="46" spans="1:21" ht="48.75" customHeight="1" thickBot="1">
       <c r="A46" s="45"/>
       <c r="B46" s="46"/>
       <c r="C46" s="46"/>
@@ -11584,14 +11585,14 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B1:S1"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="B39:S39"/>
+    <mergeCell ref="B37:S37"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
     <mergeCell ref="Q5:S5"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E4:G4"/>
@@ -11604,16 +11605,16 @@
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="K5:M5"/>
     <mergeCell ref="N5:P5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="B39:S39"/>
-    <mergeCell ref="B37:S37"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="B1:S1"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="Q3:S3"/>
   </mergeCells>
-  <pageMargins left="0.11811023622047245" right="0.15748031496062992" top="0" bottom="0" header="0" footer="0"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
